--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/doelboringtype/doelboringtype.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/doelboringtype/doelboringtype.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,1013 +413,2277 @@
         <v>dc\.identifier</v>
       </c>
       <c r="D1" t="str">
+        <v>definition</v>
+      </c>
+      <c r="E1" t="str">
         <v>inScheme</v>
       </c>
-      <c r="E1" t="str">
-        <v>member</v>
-      </c>
       <c r="F1" t="str">
+        <v>notation</v>
+      </c>
+      <c r="G1" t="str">
+        <v>note</v>
+      </c>
+      <c r="H1" t="str">
         <v>prefLabel</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>topConceptOf</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
+        <v>seeAlso</v>
+      </c>
+      <c r="K1" t="str">
+        <v>narrower</v>
+      </c>
+      <c r="L1" t="str">
+        <v>narrowerTransitive</v>
+      </c>
+      <c r="M1" t="str">
+        <v>semanticRelation</v>
+      </c>
+      <c r="N1" t="str">
+        <v>broader</v>
+      </c>
+      <c r="O1" t="str">
+        <v>broaderTransitive</v>
+      </c>
+      <c r="P1" t="str">
         <v>altLabel</v>
       </c>
-      <c r="I1" t="str">
-        <v>definition</v>
-      </c>
-      <c r="J1" t="str">
+      <c r="Q1" t="str">
         <v>hasTopConcept</v>
-      </c>
-      <c r="K1" t="str">
-        <v>note</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/collection/doelboringtype/doelboringtypes</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/archeologischonderzoek</v>
       </c>
       <c r="B2" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Collection</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C2" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.collection.doelboringtype.doelboringtypes</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.archeologischonderzoek</v>
       </c>
       <c r="D2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor archeologisch onderzoek.</v>
       </c>
       <c r="E2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/10|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/11|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/12|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/13|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/14|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/15|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/16|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/17|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/18|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/19|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/1|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/20|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/21|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/22|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/23|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/24|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/25|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/26|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/2|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/3|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/4|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/5|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/6|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/7|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/8|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/9</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F2" t="str">
-        <v>Collectie van doelboringtypes.</v>
+        <v>archeologischonderzoek</v>
       </c>
       <c r="G2" t="str">
-        <v>null</v>
+        <v>Boring uitgevoerd voor archeologisch onderzoek.</v>
       </c>
       <c r="H2" t="str">
-        <v>null</v>
+        <v>Archeologisch onderzoek</v>
       </c>
       <c r="I2" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J2" t="str">
         <v>null</v>
       </c>
       <c r="K2" t="str">
+        <v>null</v>
+      </c>
+      <c r="L2" t="str">
+        <v>null</v>
+      </c>
+      <c r="M2" t="str">
+        <v>null</v>
+      </c>
+      <c r="N2" t="str">
+        <v>null</v>
+      </c>
+      <c r="O2" t="str">
+        <v>null</v>
+      </c>
+      <c r="P2" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q2" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/1</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging</v>
       </c>
       <c r="B3" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.1</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.berging</v>
       </c>
       <c r="D3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan of voor de berging of veilige opslag van o.a. afval, gas, koolstofdioxide.</v>
       </c>
       <c r="E3" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F3" t="str">
-        <v>Geologisch onderzoek</v>
+        <v>berging</v>
       </c>
       <c r="G3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan of voor de berging of veilige opslag van o.a. afval, gas, koolstofdioxide.</v>
       </c>
       <c r="H3" t="str">
-        <v>null</v>
+        <v>Berging</v>
       </c>
       <c r="I3" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J3" t="str">
-        <v>null</v>
+        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
       </c>
       <c r="K3" t="str">
+        <v>null</v>
+      </c>
+      <c r="L3" t="str">
+        <v>null</v>
+      </c>
+      <c r="M3" t="str">
+        <v>null</v>
+      </c>
+      <c r="N3" t="str">
+        <v>null</v>
+      </c>
+      <c r="O3" t="str">
+        <v>null</v>
+      </c>
+      <c r="P3" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q3" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/10</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="B4" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.10</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.bodemkundigonderzoek</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor het karakteriseren van bodem of grond.</v>
       </c>
       <c r="E4" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F4" t="str">
-        <v>Geofysisch onderzoek</v>
+        <v>bodemkundigonderzoek</v>
       </c>
       <c r="G4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor het karakteriseren van bodem of grond.</v>
       </c>
       <c r="H4" t="str">
-        <v>null</v>
+        <v>Bodemkundig onderzoek</v>
       </c>
       <c r="I4" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J4" t="str">
-        <v>null</v>
+        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey</v>
       </c>
       <c r="K4" t="str">
+        <v>null</v>
+      </c>
+      <c r="L4" t="str">
+        <v>null</v>
+      </c>
+      <c r="M4" t="str">
+        <v>null</v>
+      </c>
+      <c r="N4" t="str">
+        <v>null</v>
+      </c>
+      <c r="O4" t="str">
+        <v>null</v>
+      </c>
+      <c r="P4" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q4" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/11</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="B5" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.11</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.drainagebemaling</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor het permanent of tijdelijk draineren of verwijderen van water.</v>
       </c>
       <c r="E5" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F5" t="str">
-        <v>Hydrogeologisch onderzoek</v>
+        <v>drainagebemaling</v>
       </c>
       <c r="G5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor het permanent of tijdelijk draineren of verwijderen van water.</v>
       </c>
       <c r="H5" t="str">
-        <v>null</v>
+        <v>Drainage en bemaling</v>
       </c>
       <c r="I5" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J5" t="str">
-        <v>null</v>
+        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering</v>
       </c>
       <c r="K5" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
+      </c>
+      <c r="L5" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
+      </c>
+      <c r="M5" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
+      </c>
+      <c r="N5" t="str">
+        <v>null</v>
+      </c>
+      <c r="O5" t="str">
+        <v>null</v>
+      </c>
+      <c r="P5" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q5" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/12</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.12</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.drinkwatervoorziening</v>
       </c>
       <c r="D6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van drinkwatervoorziening.</v>
       </c>
       <c r="E6" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F6" t="str">
-        <v>Geotechnisch onderzoek</v>
+        <v>drinkwatervoorziening</v>
       </c>
       <c r="G6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van drinkwatervoorziening.</v>
       </c>
       <c r="H6" t="str">
-        <v>null</v>
+        <v>Drinkwatervoorziening</v>
       </c>
       <c r="I6" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J6" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply</v>
       </c>
       <c r="K6" t="str">
+        <v>null</v>
+      </c>
+      <c r="L6" t="str">
+        <v>null</v>
+      </c>
+      <c r="M6" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="N6" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="O6" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="P6" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q6" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/13</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.13</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatiediepegeothermie</v>
       </c>
       <c r="D7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van warmte voor gebruik in diepe geothermie.</v>
       </c>
       <c r="E7" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F7" t="str">
-        <v>Geochemisch onderzoek</v>
+        <v>exploitatiediepegeothermie</v>
       </c>
       <c r="G7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van warmte voor gebruik in diepe geothermie.</v>
       </c>
       <c r="H7" t="str">
-        <v>null</v>
+        <v>Exploitatie diepe geothermie</v>
       </c>
       <c r="I7" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J7" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
       </c>
       <c r="K7" t="str">
+        <v>null</v>
+      </c>
+      <c r="L7" t="str">
+        <v>null</v>
+      </c>
+      <c r="M7" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="N7" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="O7" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="P7" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q7" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/14</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.14</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatieenergiebronnen</v>
       </c>
       <c r="D8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van energie bronnen.</v>
       </c>
       <c r="E8" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F8" t="str">
-        <v>Grondwaterkwaliteit monitoring</v>
+        <v>exploitatieenergiebronnen</v>
       </c>
       <c r="G8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van energie bronnen.</v>
       </c>
       <c r="H8" t="str">
-        <v>null</v>
+        <v>Exploitatie energie bronnen</v>
       </c>
       <c r="I8" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J8" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
       </c>
       <c r="K8" t="str">
+        <v>null</v>
+      </c>
+      <c r="L8" t="str">
+        <v>null</v>
+      </c>
+      <c r="M8" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
+      </c>
+      <c r="N8" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
+      </c>
+      <c r="O8" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
+      </c>
+      <c r="P8" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q8" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/15</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.15</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatiekoolwaterstoffen</v>
       </c>
       <c r="D9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de productie van aardolie en/of gas.</v>
       </c>
       <c r="E9" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F9" t="str">
-        <v>Grondwaterkwantiteit monitoring</v>
+        <v>exploitatiekoolwaterstoffen</v>
       </c>
       <c r="G9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de productie van aardolie en/of gas.</v>
       </c>
       <c r="H9" t="str">
-        <v>null</v>
+        <v>Exploitatie koolwaterstoffen</v>
       </c>
       <c r="I9" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J9" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction</v>
       </c>
       <c r="K9" t="str">
+        <v>null</v>
+      </c>
+      <c r="L9" t="str">
+        <v>null</v>
+      </c>
+      <c r="M9" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="N9" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="O9" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="P9" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q9" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/16</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.16</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatiemineralebronnen</v>
       </c>
       <c r="D10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van minerale bronnen.</v>
       </c>
       <c r="E10" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F10" t="str">
-        <v>Monitoring vervuilde sites</v>
+        <v>exploitatiemineralebronnen</v>
       </c>
       <c r="G10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van minerale bronnen.</v>
       </c>
       <c r="H10" t="str">
-        <v>null</v>
+        <v>Exploitatie minerale bronnen</v>
       </c>
       <c r="I10" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J10" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
       </c>
       <c r="K10" t="str">
+        <v>null</v>
+      </c>
+      <c r="L10" t="str">
+        <v>null</v>
+      </c>
+      <c r="M10" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="N10" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="O10" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="P10" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q10" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/17</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.17</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratiediepegeothermie</v>
       </c>
       <c r="D11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van warmte voor gebruik in diepe geothermie.</v>
       </c>
       <c r="E11" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F11" t="str">
-        <v>Drainage en bemaling</v>
+        <v>exploratiediepegeothermie</v>
       </c>
       <c r="G11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van warmte voor gebruik in diepe geothermie.</v>
       </c>
       <c r="H11" t="str">
-        <v>null</v>
+        <v>Exploratie diepe geothermie</v>
       </c>
       <c r="I11" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J11" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
       </c>
       <c r="K11" t="str">
+        <v>null</v>
+      </c>
+      <c r="L11" t="str">
+        <v>null</v>
+      </c>
+      <c r="M11" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="N11" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="O11" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="P11" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q11" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/18</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.18</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratieenergiebronnen</v>
       </c>
       <c r="D12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van energie bronnen.</v>
       </c>
       <c r="E12" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F12" t="str">
-        <v>Sanering</v>
+        <v>exploratieenergiebronnen</v>
       </c>
       <c r="G12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van energie bronnen.</v>
       </c>
       <c r="H12" t="str">
-        <v>null</v>
+        <v>Exploratie energie bronnen</v>
       </c>
       <c r="I12" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J12" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
       </c>
       <c r="K12" t="str">
+        <v>null</v>
+      </c>
+      <c r="L12" t="str">
+        <v>null</v>
+      </c>
+      <c r="M12" t="str">
+        <v>null</v>
+      </c>
+      <c r="N12" t="str">
+        <v>null</v>
+      </c>
+      <c r="O12" t="str">
+        <v>null</v>
+      </c>
+      <c r="P12" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q12" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/19</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.19</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratiekoolwaterstoffen</v>
       </c>
       <c r="D13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de opsporing van koolwaterstoffen in een niet bewezen gebied.</v>
       </c>
       <c r="E13" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F13" t="str">
-        <v>Infiltratie</v>
+        <v>exploratiekoolwaterstoffen</v>
       </c>
       <c r="G13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de opsporing van koolwaterstoffen in een niet bewezen gebied.</v>
       </c>
       <c r="H13" t="str">
-        <v>null</v>
+        <v>Exploratie koolwaterstoffen</v>
       </c>
       <c r="I13" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J13" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration</v>
       </c>
       <c r="K13" t="str">
+        <v>null</v>
+      </c>
+      <c r="L13" t="str">
+        <v>null</v>
+      </c>
+      <c r="M13" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="N13" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="O13" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="P13" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q13" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/2</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.2</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratiemineralebronnen</v>
       </c>
       <c r="D14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van minerale bronnen.</v>
       </c>
       <c r="E14" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F14" t="str">
+        <v>exploratiemineralebronnen</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van minerale bronnen.|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+      </c>
+      <c r="H14" t="str">
         <v>Exploratie minerale bronnen</v>
       </c>
-      <c r="G14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
-      </c>
-      <c r="H14" t="str">
-        <v>null</v>
-      </c>
       <c r="I14" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J14" t="str">
         <v>null</v>
       </c>
       <c r="K14" t="str">
+        <v>null</v>
+      </c>
+      <c r="L14" t="str">
+        <v>null</v>
+      </c>
+      <c r="M14" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="N14" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="O14" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="P14" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q14" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/20</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.20</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratieondergrondseopslag</v>
       </c>
       <c r="D15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan.</v>
       </c>
       <c r="E15" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F15" t="str">
-        <v>Grondwatermonitoring</v>
+        <v>exploratieondergrondseopslag</v>
       </c>
       <c r="G15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan.</v>
       </c>
       <c r="H15" t="str">
-        <v>null</v>
+        <v>Exploratie ondergrondse opslag</v>
       </c>
       <c r="I15" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J15" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
       </c>
       <c r="K15" t="str">
+        <v>null</v>
+      </c>
+      <c r="L15" t="str">
+        <v>null</v>
+      </c>
+      <c r="M15" t="str">
+        <v>null</v>
+      </c>
+      <c r="N15" t="str">
+        <v>null</v>
+      </c>
+      <c r="O15" t="str">
+        <v>null</v>
+      </c>
+      <c r="P15" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q15" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/21</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C16" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.21</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geochemischonderzoek</v>
       </c>
       <c r="D16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar de geochemische eigenschappen van de (onder)grond en of van porositeitsvloeistoffen.</v>
       </c>
       <c r="E16" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F16" t="str">
-        <v>Kathodische bescherming</v>
+        <v>geochemischonderzoek</v>
       </c>
       <c r="G16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar de geochemische eigenschappen van de (onder)grond en of van porositeitsvloeistoffen.</v>
       </c>
       <c r="H16" t="str">
-        <v>null</v>
+        <v>Geochemisch onderzoek</v>
       </c>
       <c r="I16" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J16" t="str">
-        <v>null</v>
+        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey</v>
       </c>
       <c r="K16" t="str">
+        <v>null</v>
+      </c>
+      <c r="L16" t="str">
+        <v>null</v>
+      </c>
+      <c r="M16" t="str">
+        <v>null</v>
+      </c>
+      <c r="N16" t="str">
+        <v>null</v>
+      </c>
+      <c r="O16" t="str">
+        <v>null</v>
+      </c>
+      <c r="P16" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q16" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/22</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C17" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.22</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geofysischonderzoek</v>
       </c>
       <c r="D17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar de geofysische eigenschappen van de (onder)grond.</v>
       </c>
       <c r="E17" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F17" t="str">
-        <v>Begassing</v>
+        <v>geofysischonderzoek</v>
       </c>
       <c r="G17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar de geofysische eigenschappen van de (onder)grond.</v>
       </c>
       <c r="H17" t="str">
-        <v>thermische reiniging</v>
+        <v>Geofysisch onderzoek</v>
       </c>
       <c r="I17" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J17" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey</v>
       </c>
       <c r="K17" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="L17" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+      </c>
+      <c r="M17" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+      </c>
+      <c r="N17" t="str">
+        <v>null</v>
+      </c>
+      <c r="O17" t="str">
+        <v>null</v>
+      </c>
+      <c r="P17" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q17" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/23</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C18" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.23</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geologischonderzoek</v>
       </c>
       <c r="D18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar de geologische opbouw van de (onder)grond.</v>
       </c>
       <c r="E18" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F18" t="str">
-        <v>Archeologisch onderzoek</v>
+        <v>geologischonderzoek</v>
       </c>
       <c r="G18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar de geologische opbouw van de (onder)grond.</v>
       </c>
       <c r="H18" t="str">
-        <v>null</v>
+        <v>Geologisch onderzoek</v>
       </c>
       <c r="I18" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J18" t="str">
-        <v>null</v>
+        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey</v>
       </c>
       <c r="K18" t="str">
+        <v>null</v>
+      </c>
+      <c r="L18" t="str">
+        <v>null</v>
+      </c>
+      <c r="M18" t="str">
+        <v>null</v>
+      </c>
+      <c r="N18" t="str">
+        <v>null</v>
+      </c>
+      <c r="O18" t="str">
+        <v>null</v>
+      </c>
+      <c r="P18" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q18" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/24</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C19" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.24</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geotechnischonderzoek</v>
       </c>
       <c r="D19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar de fysische en mechanische eigenschappen van de ondergrond gerelateerd aan bouw- en infrastructuurwerken.</v>
       </c>
       <c r="E19" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F19" t="str">
-        <v>Bodemkundig onderzoek</v>
+        <v>geotechnischonderzoek</v>
       </c>
       <c r="G19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar de fysische en mechanische eigenschappen van de ondergrond gerelateerd aan bouw- en infrastructuurwerken.</v>
       </c>
       <c r="H19" t="str">
-        <v>null</v>
+        <v>Geotechnisch onderzoek</v>
       </c>
       <c r="I19" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J19" t="str">
-        <v>null</v>
+        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey</v>
       </c>
       <c r="K19" t="str">
+        <v>null</v>
+      </c>
+      <c r="L19" t="str">
+        <v>null</v>
+      </c>
+      <c r="M19" t="str">
+        <v>null</v>
+      </c>
+      <c r="N19" t="str">
+        <v>null</v>
+      </c>
+      <c r="O19" t="str">
+        <v>null</v>
+      </c>
+      <c r="P19" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q19" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/25</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C20" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.25</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geothermie</v>
       </c>
       <c r="D20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor ondiepe geothemische energie opslag in een boorgat (BEO, bodemlus, BTES) of voor koude-warmteopslag (KWO, WKO, ATES).</v>
       </c>
       <c r="E20" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F20" t="str">
-        <v>Exploratie diepe geothermie</v>
+        <v>geothermie</v>
       </c>
       <c r="G20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor ondiepe geothemische energie opslag in een boorgat (BEO, bodemlus, BTES) of voor koude-warmteopslag (KWO, WKO, ATES).</v>
       </c>
       <c r="H20" t="str">
-        <v>null</v>
+        <v>Geothermie</v>
       </c>
       <c r="I20" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J20" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
       </c>
       <c r="K20" t="str">
+        <v>null</v>
+      </c>
+      <c r="L20" t="str">
+        <v>null</v>
+      </c>
+      <c r="M20" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="N20" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="O20" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="P20" t="str">
+        <v>Ondiepe geothermie</v>
+      </c>
+      <c r="Q20" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/26</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C21" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.26</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondstoffen</v>
       </c>
       <c r="D21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de opsporing en ontginning van grondstoffen.</v>
       </c>
       <c r="E21" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F21" t="str">
-        <v>Exploitatie diepe geothermie</v>
+        <v>grondstoffen</v>
       </c>
       <c r="G21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de opsporing en ontginning van grondstoffen.</v>
       </c>
       <c r="H21" t="str">
-        <v>null</v>
+        <v>Opsporing en ontginning van grondstoffen</v>
       </c>
       <c r="I21" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J21" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial</v>
       </c>
       <c r="K21" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="L21" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="M21" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="N21" t="str">
+        <v>null</v>
+      </c>
+      <c r="O21" t="str">
+        <v>null</v>
+      </c>
+      <c r="P21" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q21" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/3</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondverzet</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.3</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondverzet</v>
       </c>
       <c r="D22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd in het kader van grondverzet regelgeving.</v>
       </c>
       <c r="E22" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F22" t="str">
-        <v>Exploitatie minerale bronnen</v>
+        <v>grondverzet</v>
       </c>
       <c r="G22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd in het kader van grondverzet regelgeving.</v>
       </c>
       <c r="H22" t="str">
-        <v>null</v>
+        <v>Grondverzet</v>
       </c>
       <c r="I22" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J22" t="str">
         <v>null</v>
       </c>
       <c r="K22" t="str">
+        <v>null</v>
+      </c>
+      <c r="L22" t="str">
+        <v>null</v>
+      </c>
+      <c r="M22" t="str">
+        <v>null</v>
+      </c>
+      <c r="N22" t="str">
+        <v>null</v>
+      </c>
+      <c r="O22" t="str">
+        <v>null</v>
+      </c>
+      <c r="P22" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q22" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/4</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C23" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.4</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwaterkwaliteitmonitoring</v>
       </c>
       <c r="D23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de monitoring van de kwaliteit of chemische samenstelling van het grondwater.</v>
       </c>
       <c r="E23" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F23" t="str">
-        <v>Exploratie energie bronnen</v>
+        <v>grondwaterkwaliteitmonitoring</v>
       </c>
       <c r="G23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de monitoring van de kwaliteit of chemische samenstelling van het grondwater.</v>
       </c>
       <c r="H23" t="str">
-        <v>null</v>
+        <v>Grondwaterkwaliteit monitoring</v>
       </c>
       <c r="I23" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J23" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring</v>
       </c>
       <c r="K23" t="str">
+        <v>null</v>
+      </c>
+      <c r="L23" t="str">
+        <v>null</v>
+      </c>
+      <c r="M23" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="N23" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="O23" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="P23" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q23" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/5</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C24" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.5</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwaterkwantiteitmonitoring</v>
       </c>
       <c r="D24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de monitoring van de kwantiteit of het niveau van het grondwater.</v>
       </c>
       <c r="E24" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F24" t="str">
-        <v>Exploitatie energie bronnen</v>
+        <v>grondwaterkwantiteitmonitoring</v>
       </c>
       <c r="G24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de monitoring van de kwantiteit of het niveau van het grondwater.</v>
       </c>
       <c r="H24" t="str">
-        <v>null</v>
+        <v>Grondwaterkwantiteit monitoring</v>
       </c>
       <c r="I24" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J24" t="str">
-        <v>null</v>
+        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring</v>
       </c>
       <c r="K24" t="str">
+        <v>null</v>
+      </c>
+      <c r="L24" t="str">
+        <v>null</v>
+      </c>
+      <c r="M24" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="N24" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="O24" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="P24" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q24" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/6</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C25" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.6</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwatermonitoring</v>
       </c>
       <c r="D25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de monitoring van de kwaliteit en/of kwantiteit van het grondwater.</v>
       </c>
       <c r="E25" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F25" t="str">
-        <v>Geothermie</v>
+        <v>grondwatermonitoring</v>
       </c>
       <c r="G25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de monitoring van de kwaliteit en/of kwantiteit van het grondwater.</v>
       </c>
       <c r="H25" t="str">
-        <v>null</v>
+        <v>Grondwatermonitoring</v>
       </c>
       <c r="I25" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J25" t="str">
-        <v>null</v>
+        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring</v>
       </c>
       <c r="K25" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+      </c>
+      <c r="L25" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+      </c>
+      <c r="M25" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+      </c>
+      <c r="N25" t="str">
+        <v>null</v>
+      </c>
+      <c r="O25" t="str">
+        <v>null</v>
+      </c>
+      <c r="P25" t="str">
+        <v>Milieumonitoring, Environmental monitoring</v>
+      </c>
+      <c r="Q25" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/7</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C26" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.7</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwaterwinning</v>
       </c>
       <c r="D26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van watervoorziening.</v>
       </c>
       <c r="E26" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F26" t="str">
-        <v>Berging</v>
+        <v>grondwaterwinning</v>
       </c>
       <c r="G26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van watervoorziening.</v>
       </c>
       <c r="H26" t="str">
-        <v>null</v>
+        <v>Grondwaterwinning</v>
       </c>
       <c r="I26" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J26" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply</v>
       </c>
       <c r="K26" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+      </c>
+      <c r="L26" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+      </c>
+      <c r="M26" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+      </c>
+      <c r="N26" t="str">
+        <v>null</v>
+      </c>
+      <c r="O26" t="str">
+        <v>null</v>
+      </c>
+      <c r="P26" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q26" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/8</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C27" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.8</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.hydrogeologischonderzoek</v>
       </c>
       <c r="D27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar grondwaterstroming, de chemische eigenschappen van grondwater, en transport van deeltjes, opgeloste stoffen en energie, evenals het management van het duurzame gebruik van grondwaterbronnen.</v>
       </c>
       <c r="E27" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F27" t="str">
-        <v>Exploratie ondergrondse opslag</v>
+        <v>hydrogeologischonderzoek</v>
       </c>
       <c r="G27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar grondwaterstroming, de chemische eigenschappen van grondwater, en transport van deeltjes, opgeloste stoffen en energie, evenals het management van het duurzame gebruik van grondwaterbronnen.</v>
       </c>
       <c r="H27" t="str">
-        <v>null</v>
+        <v>Hydrogeologisch onderzoek</v>
       </c>
       <c r="I27" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J27" t="str">
-        <v>null</v>
+        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey</v>
       </c>
       <c r="K27" t="str">
+        <v>null</v>
+      </c>
+      <c r="L27" t="str">
+        <v>null</v>
+      </c>
+      <c r="M27" t="str">
+        <v>null</v>
+      </c>
+      <c r="N27" t="str">
+        <v>null</v>
+      </c>
+      <c r="O27" t="str">
+        <v>null</v>
+      </c>
+      <c r="P27" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q27" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/9</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C28" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.9</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.industrielewatervoorziening</v>
       </c>
       <c r="D28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van industriële watervoorziening.</v>
       </c>
       <c r="E28" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="F28" t="str">
-        <v>Grondwaterwinning</v>
+        <v>industrielewatervoorziening</v>
       </c>
       <c r="G28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van industriële watervoorziening.</v>
       </c>
       <c r="H28" t="str">
-        <v>null</v>
+        <v>Industriële watervoorziening</v>
       </c>
       <c r="I28" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J28" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply</v>
       </c>
       <c r="K28" t="str">
+        <v>null</v>
+      </c>
+      <c r="L28" t="str">
+        <v>null</v>
+      </c>
+      <c r="M28" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="N28" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="O28" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="P28" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q28" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
       </c>
       <c r="B29" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C29" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.infiltratie</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Boring uitgevoerd voor het kunstmatig aanvullen van grondwater door injectie uit diverse bronnen.</v>
+      </c>
+      <c r="E29" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="F29" t="str">
+        <v>infiltratie</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Boring uitgevoerd voor het kunstmatig aanvullen van grondwater door injectie uit diverse bronnen.</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Infiltratie</v>
+      </c>
+      <c r="I29" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J29" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge</v>
+      </c>
+      <c r="K29" t="str">
+        <v>null</v>
+      </c>
+      <c r="L29" t="str">
+        <v>null</v>
+      </c>
+      <c r="M29" t="str">
+        <v>null</v>
+      </c>
+      <c r="N29" t="str">
+        <v>null</v>
+      </c>
+      <c r="O29" t="str">
+        <v>null</v>
+      </c>
+      <c r="P29" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
+      </c>
+      <c r="B30" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C30" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.irrigatie</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van irrigatie.</v>
+      </c>
+      <c r="E30" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="F30" t="str">
+        <v>irrigatie</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van irrigatie.</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Irrigatie</v>
+      </c>
+      <c r="I30" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J30" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation</v>
+      </c>
+      <c r="K30" t="str">
+        <v>null</v>
+      </c>
+      <c r="L30" t="str">
+        <v>null</v>
+      </c>
+      <c r="M30" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="N30" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="O30" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="P30" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/kathodischebescherming</v>
+      </c>
+      <c r="B31" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C31" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.kathodischebescherming</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Boring uitgevoerd voor kathodische bescherming.</v>
+      </c>
+      <c r="E31" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="F31" t="str">
+        <v>kathodischebescherming</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Boring uitgevoerd voor kathodische bescherming.</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Kathodische bescherming</v>
+      </c>
+      <c r="I31" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J31" t="str">
+        <v>null</v>
+      </c>
+      <c r="K31" t="str">
+        <v>null</v>
+      </c>
+      <c r="L31" t="str">
+        <v>null</v>
+      </c>
+      <c r="M31" t="str">
+        <v>null</v>
+      </c>
+      <c r="N31" t="str">
+        <v>null</v>
+      </c>
+      <c r="O31" t="str">
+        <v>null</v>
+      </c>
+      <c r="P31" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen</v>
+      </c>
+      <c r="B32" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C32" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.mineraleafzettingen</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Boring uitgevoerd voor de opsporing van niet-metallische minerale afzettingen, voornamelijk ten behoeve van de bouw, en de natuursteen-, cement-, aardewerk- of glasindustrie.</v>
+      </c>
+      <c r="E32" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="F32" t="str">
+        <v>mineraleafzettingen</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Boring uitgevoerd voor de opsporing van niet-metallische minerale afzettingen, voornamelijk ten behoeve van de bouw, en de natuursteen-, cement-, aardewerk- of glasindustrie.</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Exploratie en exploitatie van niet-metallische minerale afzettingen</v>
+      </c>
+      <c r="I32" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J32" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits</v>
+      </c>
+      <c r="K32" t="str">
+        <v>null</v>
+      </c>
+      <c r="L32" t="str">
+        <v>null</v>
+      </c>
+      <c r="M32" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="N32" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="O32" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="P32" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie</v>
+      </c>
+      <c r="B33" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C33" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.mitigatie</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Boring uitgevoerd voor het verlagen van het grondwaterniveau om te voorkomen dat het grondwater vervuilde plaatsen bereikt.</v>
+      </c>
+      <c r="E33" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="F33" t="str">
+        <v>mitigatie</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Boring uitgevoerd voor het verlagen van het grondwaterniveau om te voorkomen dat het grondwater vervuilde plaatsen bereikt.</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Mitigatie</v>
+      </c>
+      <c r="I33" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J33" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation</v>
+      </c>
+      <c r="K33" t="str">
+        <v>null</v>
+      </c>
+      <c r="L33" t="str">
+        <v>null</v>
+      </c>
+      <c r="M33" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="N33" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="O33" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="P33" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+      </c>
+      <c r="B34" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C34" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.monitoringvervuildesites</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Boring uitgevoerd in het kader van een bodemonderzoek en/of in het kader van bodemdecreet regelgeving.</v>
+      </c>
+      <c r="E34" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="F34" t="str">
+        <v>monitoringvervuildesites</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Boring uitgevoerd in het kader van een bodemonderzoek en/of in het kader van bodemdecreet regelgeving.</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Monitoring vervuilde sites</v>
+      </c>
+      <c r="I34" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J34" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring</v>
+      </c>
+      <c r="K34" t="str">
+        <v>null</v>
+      </c>
+      <c r="L34" t="str">
+        <v>null</v>
+      </c>
+      <c r="M34" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="N34" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="O34" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="P34" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
+      </c>
+      <c r="B35" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C35" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.noodwatervoorziening</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van noodwatervoorziening.</v>
+      </c>
+      <c r="E35" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="F35" t="str">
+        <v>noodwatervoorziening</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van noodwatervoorziening.</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Noodwatervoorziening</v>
+      </c>
+      <c r="I35" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J35" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply</v>
+      </c>
+      <c r="K35" t="str">
+        <v>null</v>
+      </c>
+      <c r="L35" t="str">
+        <v>null</v>
+      </c>
+      <c r="M35" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="N35" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="O35" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="P35" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
+      </c>
+      <c r="B36" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C36" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.reservewatervoorziening</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van reservewatervoorziening.</v>
+      </c>
+      <c r="E36" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="F36" t="str">
+        <v>reservewatervoorziening</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van reservewatervoorziening.</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Reservewatervoorziening</v>
+      </c>
+      <c r="I36" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J36" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
+      </c>
+      <c r="K36" t="str">
+        <v>null</v>
+      </c>
+      <c r="L36" t="str">
+        <v>null</v>
+      </c>
+      <c r="M36" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="N36" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="O36" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="P36" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="B37" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C37" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.sanering</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Boring uitgevoerd voor sanering in het algemeen: het verwijderen van vervuiling of verontreiniging uit grondwater, grond en ander gesteente.</v>
+      </c>
+      <c r="E37" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="F37" t="str">
+        <v>sanering</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Boring uitgevoerd voor sanering in het algemeen: het verwijderen van vervuiling of verontreiniging uit grondwater, grond en ander gesteente.</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Sanering</v>
+      </c>
+      <c r="I37" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J37" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation</v>
+      </c>
+      <c r="K37" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="L37" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="M37" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="N37" t="str">
+        <v>null</v>
+      </c>
+      <c r="O37" t="str">
+        <v>null</v>
+      </c>
+      <c r="P37" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="B38" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C38" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.schietgat</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij explosieven in schietgaten worden gestopt</v>
+      </c>
+      <c r="E38" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="F38" t="str">
+        <v>schietgat</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij explosieven in schietgaten worden gestopt</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Schietgat</v>
+      </c>
+      <c r="I38" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J38" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
+      </c>
+      <c r="K38" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+      </c>
+      <c r="L38" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+      </c>
+      <c r="M38" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+      </c>
+      <c r="N38" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+      </c>
+      <c r="O38" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+      </c>
+      <c r="P38" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+      </c>
+      <c r="B39" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C39" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.stromendschietgat</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij het boorgat een ondergrondse waterbron heeft geraakt die voldoende druk heeft om het gat te laten overstromen.</v>
+      </c>
+      <c r="E39" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="F39" t="str">
+        <v>stromendschietgat</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij het boorgat een ondergrondse waterbron heeft geraakt die voldoende druk heeft om het gat te laten overstromen.</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Stromend schietgat</v>
+      </c>
+      <c r="I39" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J39" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
+      </c>
+      <c r="K39" t="str">
+        <v>null</v>
+      </c>
+      <c r="L39" t="str">
+        <v>null</v>
+      </c>
+      <c r="M39" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="N39" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="O39" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="P39" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="B40" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C40" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.thermischereiniging</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Boring uitgevoerd voor het in situ reinigen van grond met gebruik van warmte.</v>
+      </c>
+      <c r="E40" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="F40" t="str">
+        <v>thermische reiniging</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Boring uitgevoerd voor het in situ reinigen van grond met gebruik van warmte.</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Thermische reiniging</v>
+      </c>
+      <c r="I40" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J40" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
+      </c>
+      <c r="K40" t="str">
+        <v>null</v>
+      </c>
+      <c r="L40" t="str">
+        <v>null</v>
+      </c>
+      <c r="M40" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="N40" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="O40" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="P40" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="B41" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C41" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Boring uitgevoerd voor het beoordelen van de kenmerken van een bewezen ophoping van koolwaterstoffen.</v>
+      </c>
+      <c r="E41" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="F41" t="str">
+        <v>waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Boring uitgevoerd voor het beoordelen van de kenmerken van een bewezen ophoping van koolwaterstoffen.</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Waardebepaling koolwaterstoffen</v>
+      </c>
+      <c r="I41" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J41" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
+      </c>
+      <c r="K41" t="str">
+        <v>null</v>
+      </c>
+      <c r="L41" t="str">
+        <v>null</v>
+      </c>
+      <c r="M41" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="N41" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="O41" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="P41" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+      </c>
+      <c r="B42" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C42" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.watercultuur</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van aquacultuur.</v>
+      </c>
+      <c r="E42" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="F42" t="str">
+        <v>watercultuur</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van aquacultuur.</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Watercultuur</v>
+      </c>
+      <c r="I42" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J42" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
+      </c>
+      <c r="K42" t="str">
+        <v>null</v>
+      </c>
+      <c r="L42" t="str">
+        <v>null</v>
+      </c>
+      <c r="M42" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="N42" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="O42" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="P42" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C43" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.doelboringtype</v>
       </c>
-      <c r="D29" t="str">
-        <v>null</v>
-      </c>
-      <c r="E29" t="str">
-        <v>null</v>
-      </c>
-      <c r="F29" t="str">
+      <c r="D43" t="str">
+        <v>Beschrijving van het doel waarvoor de boring is uitgevoerd.</v>
+      </c>
+      <c r="E43" t="str">
+        <v>null</v>
+      </c>
+      <c r="F43" t="str">
+        <v>doelboringtype</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Beschrijving van het doel waarvoor de boring is uitgevoerd.</v>
+      </c>
+      <c r="H43" t="str">
         <v>Codelijst doelboringtype.</v>
       </c>
-      <c r="G29" t="str">
-        <v>null</v>
-      </c>
-      <c r="H29" t="str">
-        <v>null</v>
-      </c>
-      <c r="I29" t="str">
-        <v>Beschrijving doel van de boring.</v>
-      </c>
-      <c r="J29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/10|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/11|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/12|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/13|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/14|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/15|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/16|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/17|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/18|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/19|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/1|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/20|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/21|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/22|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/23|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/24|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/25|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/26|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/2|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/3|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/4|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/5|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/6|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/7|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/8|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/9</v>
-      </c>
-      <c r="K29" t="str">
-        <v>Beschrijving doel van de boring.</v>
+      <c r="I43" t="str">
+        <v>null</v>
+      </c>
+      <c r="J43" t="str">
+        <v>null</v>
+      </c>
+      <c r="K43" t="str">
+        <v>null</v>
+      </c>
+      <c r="L43" t="str">
+        <v>null</v>
+      </c>
+      <c r="M43" t="str">
+        <v>null</v>
+      </c>
+      <c r="N43" t="str">
+        <v>null</v>
+      </c>
+      <c r="O43" t="str">
+        <v>null</v>
+      </c>
+      <c r="P43" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/archeologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondverzet|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/kathodischebescherming|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q43"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/doelboringtype/doelboringtype.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/doelboringtype/doelboringtype.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,78 +410,84 @@
         <v>type</v>
       </c>
       <c r="C1" t="str">
+        <v>broadMatch</v>
+      </c>
+      <c r="D1" t="str">
+        <v>broader</v>
+      </c>
+      <c r="E1" t="str">
+        <v>broaderTransitive</v>
+      </c>
+      <c r="F1" t="str">
+        <v>mappingRelation</v>
+      </c>
+      <c r="G1" t="str">
+        <v>semanticRelation</v>
+      </c>
+      <c r="H1" t="str">
         <v>dc\.identifier</v>
       </c>
-      <c r="D1" t="str">
+      <c r="I1" t="str">
         <v>definition</v>
       </c>
-      <c r="E1" t="str">
+      <c r="J1" t="str">
         <v>inScheme</v>
       </c>
-      <c r="F1" t="str">
+      <c r="K1" t="str">
         <v>notation</v>
       </c>
-      <c r="G1" t="str">
+      <c r="L1" t="str">
         <v>note</v>
       </c>
-      <c r="H1" t="str">
+      <c r="M1" t="str">
         <v>prefLabel</v>
       </c>
-      <c r="I1" t="str">
+      <c r="N1" t="str">
         <v>topConceptOf</v>
       </c>
-      <c r="J1" t="str">
-        <v>seeAlso</v>
-      </c>
-      <c r="K1" t="str">
+      <c r="O1" t="str">
+        <v>narrowMatch</v>
+      </c>
+      <c r="P1" t="str">
         <v>narrower</v>
       </c>
-      <c r="L1" t="str">
+      <c r="Q1" t="str">
         <v>narrowerTransitive</v>
       </c>
-      <c r="M1" t="str">
-        <v>semanticRelation</v>
-      </c>
-      <c r="N1" t="str">
-        <v>broader</v>
-      </c>
-      <c r="O1" t="str">
-        <v>broaderTransitive</v>
-      </c>
-      <c r="P1" t="str">
+      <c r="R1" t="str">
         <v>altLabel</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="S1" t="str">
         <v>hasTopConcept</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/archeologischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
       </c>
       <c r="B2" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C2" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.archeologischonderzoek</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
       </c>
       <c r="D2" t="str">
-        <v>Boring uitgevoerd voor archeologisch onderzoek.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
       </c>
       <c r="E2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="F2" t="str">
-        <v>archeologischonderzoek</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
       </c>
       <c r="G2" t="str">
-        <v>Boring uitgevoerd voor archeologisch onderzoek.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="H2" t="str">
-        <v>Archeologisch onderzoek</v>
+        <v>null</v>
       </c>
       <c r="I2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J2" t="str">
         <v>null</v>
@@ -505,39 +511,45 @@
         <v>null</v>
       </c>
       <c r="Q2" t="str">
+        <v>null</v>
+      </c>
+      <c r="R2" t="str">
+        <v>null</v>
+      </c>
+      <c r="S2" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
       </c>
       <c r="B3" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.berging</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
       </c>
       <c r="D3" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan of voor de berging of veilige opslag van o.a. afval, gas, koolstofdioxide.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
       </c>
       <c r="E3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
       </c>
       <c r="F3" t="str">
-        <v>berging</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
       </c>
       <c r="G3" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan of voor de berging of veilige opslag van o.a. afval, gas, koolstofdioxide.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
       </c>
       <c r="H3" t="str">
-        <v>Berging</v>
+        <v>null</v>
       </c>
       <c r="I3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J3" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
+        <v>null</v>
       </c>
       <c r="K3" t="str">
         <v>null</v>
@@ -558,39 +570,45 @@
         <v>null</v>
       </c>
       <c r="Q3" t="str">
+        <v>null</v>
+      </c>
+      <c r="R3" t="str">
+        <v>null</v>
+      </c>
+      <c r="S3" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering</v>
       </c>
       <c r="B4" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.bodemkundigonderzoek</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="D4" t="str">
-        <v>Boring uitgevoerd voor het karakteriseren van bodem of grond.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="E4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="F4" t="str">
-        <v>bodemkundigonderzoek</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="G4" t="str">
-        <v>Boring uitgevoerd voor het karakteriseren van bodem of grond.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="H4" t="str">
-        <v>Bodemkundig onderzoek</v>
+        <v>null</v>
       </c>
       <c r="I4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J4" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey</v>
+        <v>null</v>
       </c>
       <c r="K4" t="str">
         <v>null</v>
@@ -611,48 +629,54 @@
         <v>null</v>
       </c>
       <c r="Q4" t="str">
+        <v>null</v>
+      </c>
+      <c r="R4" t="str">
+        <v>null</v>
+      </c>
+      <c r="S4" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply</v>
       </c>
       <c r="B5" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.drainagebemaling</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
       </c>
       <c r="D5" t="str">
-        <v>Boring uitgevoerd voor het permanent of tijdelijk draineren of verwijderen van water.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
       </c>
       <c r="E5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
       </c>
       <c r="F5" t="str">
-        <v>drainagebemaling</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
       </c>
       <c r="G5" t="str">
-        <v>Boring uitgevoerd voor het permanent of tijdelijk draineren of verwijderen van water.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
       </c>
       <c r="H5" t="str">
-        <v>Drainage en bemaling</v>
+        <v>null</v>
       </c>
       <c r="I5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J5" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering</v>
+        <v>null</v>
       </c>
       <c r="K5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
+        <v>null</v>
       </c>
       <c r="L5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
+        <v>null</v>
       </c>
       <c r="M5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
+        <v>null</v>
       </c>
       <c r="N5" t="str">
         <v>null</v>
@@ -664,39 +688,45 @@
         <v>null</v>
       </c>
       <c r="Q5" t="str">
+        <v>null</v>
+      </c>
+      <c r="R5" t="str">
+        <v>null</v>
+      </c>
+      <c r="S5" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.drinkwatervoorziening</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
       </c>
       <c r="D6" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van drinkwatervoorziening.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
       </c>
       <c r="E6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
       </c>
       <c r="F6" t="str">
-        <v>drinkwatervoorziening</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
       </c>
       <c r="G6" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van drinkwatervoorziening.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
       </c>
       <c r="H6" t="str">
-        <v>Drinkwatervoorziening</v>
+        <v>null</v>
       </c>
       <c r="I6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J6" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply</v>
+        <v>null</v>
       </c>
       <c r="K6" t="str">
         <v>null</v>
@@ -705,51 +735,57 @@
         <v>null</v>
       </c>
       <c r="M6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="N6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="O6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="P6" t="str">
         <v>null</v>
       </c>
       <c r="Q6" t="str">
+        <v>null</v>
+      </c>
+      <c r="R6" t="str">
+        <v>null</v>
+      </c>
+      <c r="S6" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatiediepegeothermie</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
       </c>
       <c r="D7" t="str">
-        <v>Boring uitgevoerd voor de exploitatie of winning van warmte voor gebruik in diepe geothermie.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
       </c>
       <c r="E7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
       </c>
       <c r="F7" t="str">
-        <v>exploitatiediepegeothermie</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
       </c>
       <c r="G7" t="str">
-        <v>Boring uitgevoerd voor de exploitatie of winning van warmte voor gebruik in diepe geothermie.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
       </c>
       <c r="H7" t="str">
-        <v>Exploitatie diepe geothermie</v>
+        <v>null</v>
       </c>
       <c r="I7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J7" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+        <v>null</v>
       </c>
       <c r="K7" t="str">
         <v>null</v>
@@ -758,51 +794,57 @@
         <v>null</v>
       </c>
       <c r="M7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P7" t="str">
         <v>null</v>
       </c>
       <c r="Q7" t="str">
+        <v>null</v>
+      </c>
+      <c r="R7" t="str">
+        <v>null</v>
+      </c>
+      <c r="S7" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatieenergiebronnen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
       </c>
       <c r="D8" t="str">
-        <v>Boring uitgevoerd voor de exploitatie of winning van energie bronnen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
       </c>
       <c r="E8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
       </c>
       <c r="F8" t="str">
-        <v>exploitatieenergiebronnen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
       </c>
       <c r="G8" t="str">
-        <v>Boring uitgevoerd voor de exploitatie of winning van energie bronnen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
       </c>
       <c r="H8" t="str">
-        <v>Exploitatie energie bronnen</v>
+        <v>null</v>
       </c>
       <c r="I8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J8" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
+        <v>null</v>
       </c>
       <c r="K8" t="str">
         <v>null</v>
@@ -811,51 +853,57 @@
         <v>null</v>
       </c>
       <c r="M8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
+        <v>null</v>
       </c>
       <c r="N8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
+        <v>null</v>
       </c>
       <c r="O8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
+        <v>null</v>
       </c>
       <c r="P8" t="str">
         <v>null</v>
       </c>
       <c r="Q8" t="str">
+        <v>null</v>
+      </c>
+      <c r="R8" t="str">
+        <v>null</v>
+      </c>
+      <c r="S8" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatiekoolwaterstoffen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen</v>
       </c>
       <c r="D9" t="str">
-        <v>Boring uitgevoerd voor de productie van aardolie en/of gas.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen</v>
       </c>
       <c r="E9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="F9" t="str">
-        <v>exploitatiekoolwaterstoffen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen</v>
       </c>
       <c r="G9" t="str">
-        <v>Boring uitgevoerd voor de productie van aardolie en/of gas.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="H9" t="str">
-        <v>Exploitatie koolwaterstoffen</v>
+        <v>null</v>
       </c>
       <c r="I9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J9" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction</v>
+        <v>null</v>
       </c>
       <c r="K9" t="str">
         <v>null</v>
@@ -864,51 +912,57 @@
         <v>null</v>
       </c>
       <c r="M9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P9" t="str">
         <v>null</v>
       </c>
       <c r="Q9" t="str">
+        <v>null</v>
+      </c>
+      <c r="R9" t="str">
+        <v>null</v>
+      </c>
+      <c r="S9" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatiemineralebronnen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="D10" t="str">
-        <v>Boring uitgevoerd voor de exploitatie of winning van minerale bronnen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="E10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="F10" t="str">
-        <v>exploitatiemineralebronnen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="G10" t="str">
-        <v>Boring uitgevoerd voor de exploitatie of winning van minerale bronnen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="H10" t="str">
-        <v>Exploitatie minerale bronnen</v>
+        <v>null</v>
       </c>
       <c r="I10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J10" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+        <v>null</v>
       </c>
       <c r="K10" t="str">
         <v>null</v>
@@ -917,51 +971,57 @@
         <v>null</v>
       </c>
       <c r="M10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P10" t="str">
         <v>null</v>
       </c>
       <c r="Q10" t="str">
+        <v>null</v>
+      </c>
+      <c r="R10" t="str">
+        <v>null</v>
+      </c>
+      <c r="S10" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratiediepegeothermie</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
       </c>
       <c r="D11" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van warmte voor gebruik in diepe geothermie.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
       </c>
       <c r="E11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
       </c>
       <c r="F11" t="str">
-        <v>exploratiediepegeothermie</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
       </c>
       <c r="G11" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van warmte voor gebruik in diepe geothermie.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
       </c>
       <c r="H11" t="str">
-        <v>Exploratie diepe geothermie</v>
+        <v>null</v>
       </c>
       <c r="I11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J11" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+        <v>null</v>
       </c>
       <c r="K11" t="str">
         <v>null</v>
@@ -970,51 +1030,57 @@
         <v>null</v>
       </c>
       <c r="M11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P11" t="str">
         <v>null</v>
       </c>
       <c r="Q11" t="str">
+        <v>null</v>
+      </c>
+      <c r="R11" t="str">
+        <v>null</v>
+      </c>
+      <c r="S11" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratieenergiebronnen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
       </c>
       <c r="D12" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van energie bronnen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
       </c>
       <c r="E12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
       </c>
       <c r="F12" t="str">
-        <v>exploratieenergiebronnen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
       </c>
       <c r="G12" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van energie bronnen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
       </c>
       <c r="H12" t="str">
-        <v>Exploratie energie bronnen</v>
+        <v>null</v>
       </c>
       <c r="I12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J12" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
+        <v>null</v>
       </c>
       <c r="K12" t="str">
         <v>null</v>
@@ -1035,39 +1101,45 @@
         <v>null</v>
       </c>
       <c r="Q12" t="str">
+        <v>null</v>
+      </c>
+      <c r="R12" t="str">
+        <v>null</v>
+      </c>
+      <c r="S12" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratiekoolwaterstoffen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
       </c>
       <c r="D13" t="str">
-        <v>Boring uitgevoerd voor de opsporing van koolwaterstoffen in een niet bewezen gebied.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
       </c>
       <c r="E13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
       </c>
       <c r="F13" t="str">
-        <v>exploratiekoolwaterstoffen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
       </c>
       <c r="G13" t="str">
-        <v>Boring uitgevoerd voor de opsporing van koolwaterstoffen in een niet bewezen gebied.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
       </c>
       <c r="H13" t="str">
-        <v>Exploratie koolwaterstoffen</v>
+        <v>null</v>
       </c>
       <c r="I13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J13" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration</v>
+        <v>null</v>
       </c>
       <c r="K13" t="str">
         <v>null</v>
@@ -1076,48 +1148,54 @@
         <v>null</v>
       </c>
       <c r="M13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P13" t="str">
         <v>null</v>
       </c>
       <c r="Q13" t="str">
+        <v>null</v>
+      </c>
+      <c r="R13" t="str">
+        <v>null</v>
+      </c>
+      <c r="S13" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratiemineralebronnen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
       </c>
       <c r="D14" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van minerale bronnen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
       </c>
       <c r="E14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
       </c>
       <c r="F14" t="str">
-        <v>exploratiemineralebronnen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
       </c>
       <c r="G14" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van minerale bronnen.|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
       </c>
       <c r="H14" t="str">
-        <v>Exploratie minerale bronnen</v>
+        <v>null</v>
       </c>
       <c r="I14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J14" t="str">
         <v>null</v>
@@ -1129,51 +1207,57 @@
         <v>null</v>
       </c>
       <c r="M14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P14" t="str">
         <v>null</v>
       </c>
       <c r="Q14" t="str">
+        <v>null</v>
+      </c>
+      <c r="R14" t="str">
+        <v>null</v>
+      </c>
+      <c r="S14" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratieondergrondseopslag</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
       </c>
       <c r="D15" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
       </c>
       <c r="E15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
       </c>
       <c r="F15" t="str">
-        <v>exploratieondergrondseopslag</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
       </c>
       <c r="G15" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
       </c>
       <c r="H15" t="str">
-        <v>Exploratie ondergrondse opslag</v>
+        <v>null</v>
       </c>
       <c r="I15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J15" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
+        <v>null</v>
       </c>
       <c r="K15" t="str">
         <v>null</v>
@@ -1194,39 +1278,45 @@
         <v>null</v>
       </c>
       <c r="Q15" t="str">
+        <v>null</v>
+      </c>
+      <c r="R15" t="str">
+        <v>null</v>
+      </c>
+      <c r="S15" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C16" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geochemischonderzoek</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
       </c>
       <c r="D16" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de geochemische eigenschappen van de (onder)grond en of van porositeitsvloeistoffen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
       </c>
       <c r="E16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
       </c>
       <c r="F16" t="str">
-        <v>geochemischonderzoek</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
       </c>
       <c r="G16" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de geochemische eigenschappen van de (onder)grond en of van porositeitsvloeistoffen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
       </c>
       <c r="H16" t="str">
-        <v>Geochemisch onderzoek</v>
+        <v>null</v>
       </c>
       <c r="I16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J16" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey</v>
+        <v>null</v>
       </c>
       <c r="K16" t="str">
         <v>null</v>
@@ -1247,48 +1337,54 @@
         <v>null</v>
       </c>
       <c r="Q16" t="str">
+        <v>null</v>
+      </c>
+      <c r="R16" t="str">
+        <v>null</v>
+      </c>
+      <c r="S16" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C17" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geofysischonderzoek</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
       </c>
       <c r="D17" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de geofysische eigenschappen van de (onder)grond.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
       </c>
       <c r="E17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
       </c>
       <c r="F17" t="str">
-        <v>geofysischonderzoek</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
       </c>
       <c r="G17" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de geofysische eigenschappen van de (onder)grond.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
       </c>
       <c r="H17" t="str">
-        <v>Geofysisch onderzoek</v>
+        <v>null</v>
       </c>
       <c r="I17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J17" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey</v>
+        <v>null</v>
       </c>
       <c r="K17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+        <v>null</v>
       </c>
       <c r="L17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+        <v>null</v>
       </c>
       <c r="M17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+        <v>null</v>
       </c>
       <c r="N17" t="str">
         <v>null</v>
@@ -1300,39 +1396,45 @@
         <v>null</v>
       </c>
       <c r="Q17" t="str">
+        <v>null</v>
+      </c>
+      <c r="R17" t="str">
+        <v>null</v>
+      </c>
+      <c r="S17" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C18" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geologischonderzoek</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
       </c>
       <c r="D18" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de geologische opbouw van de (onder)grond.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
       </c>
       <c r="E18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
       </c>
       <c r="F18" t="str">
-        <v>geologischonderzoek</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
       </c>
       <c r="G18" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de geologische opbouw van de (onder)grond.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
       </c>
       <c r="H18" t="str">
-        <v>Geologisch onderzoek</v>
+        <v>null</v>
       </c>
       <c r="I18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J18" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey</v>
+        <v>null</v>
       </c>
       <c r="K18" t="str">
         <v>null</v>
@@ -1353,39 +1455,45 @@
         <v>null</v>
       </c>
       <c r="Q18" t="str">
+        <v>null</v>
+      </c>
+      <c r="R18" t="str">
+        <v>null</v>
+      </c>
+      <c r="S18" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C19" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geotechnischonderzoek</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
       </c>
       <c r="D19" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de fysische en mechanische eigenschappen van de ondergrond gerelateerd aan bouw- en infrastructuurwerken.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
       </c>
       <c r="E19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
       </c>
       <c r="F19" t="str">
-        <v>geotechnischonderzoek</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
       </c>
       <c r="G19" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de fysische en mechanische eigenschappen van de ondergrond gerelateerd aan bouw- en infrastructuurwerken.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
       </c>
       <c r="H19" t="str">
-        <v>Geotechnisch onderzoek</v>
+        <v>null</v>
       </c>
       <c r="I19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J19" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey</v>
+        <v>null</v>
       </c>
       <c r="K19" t="str">
         <v>null</v>
@@ -1406,39 +1514,45 @@
         <v>null</v>
       </c>
       <c r="Q19" t="str">
+        <v>null</v>
+      </c>
+      <c r="R19" t="str">
+        <v>null</v>
+      </c>
+      <c r="S19" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C20" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geothermie</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
       </c>
       <c r="D20" t="str">
-        <v>Boring uitgevoerd voor ondiepe geothemische energie opslag in een boorgat (BEO, bodemlus, BTES) of voor koude-warmteopslag (KWO, WKO, ATES).</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
       </c>
       <c r="E20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
       </c>
       <c r="F20" t="str">
-        <v>geothermie</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
       </c>
       <c r="G20" t="str">
-        <v>Boring uitgevoerd voor ondiepe geothemische energie opslag in een boorgat (BEO, bodemlus, BTES) of voor koude-warmteopslag (KWO, WKO, ATES).</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
       </c>
       <c r="H20" t="str">
-        <v>Geothermie</v>
+        <v>null</v>
       </c>
       <c r="I20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J20" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+        <v>null</v>
       </c>
       <c r="K20" t="str">
         <v>null</v>
@@ -1447,60 +1561,66 @@
         <v>null</v>
       </c>
       <c r="M20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P20" t="str">
-        <v>Ondiepe geothermie</v>
+        <v>null</v>
       </c>
       <c r="Q20" t="str">
+        <v>null</v>
+      </c>
+      <c r="R20" t="str">
+        <v>null</v>
+      </c>
+      <c r="S20" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C21" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondstoffen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="D21" t="str">
-        <v>Boring uitgevoerd voor de opsporing en ontginning van grondstoffen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="E21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="F21" t="str">
-        <v>grondstoffen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="G21" t="str">
-        <v>Boring uitgevoerd voor de opsporing en ontginning van grondstoffen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="H21" t="str">
-        <v>Opsporing en ontginning van grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="I21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J21" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial</v>
+        <v>null</v>
       </c>
       <c r="K21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+        <v>null</v>
       </c>
       <c r="L21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+        <v>null</v>
       </c>
       <c r="M21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+        <v>null</v>
       </c>
       <c r="N21" t="str">
         <v>null</v>
@@ -1512,36 +1632,42 @@
         <v>null</v>
       </c>
       <c r="Q21" t="str">
+        <v>null</v>
+      </c>
+      <c r="R21" t="str">
+        <v>null</v>
+      </c>
+      <c r="S21" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondverzet</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondverzet</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
       </c>
       <c r="D22" t="str">
-        <v>Boring uitgevoerd in het kader van grondverzet regelgeving.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
       </c>
       <c r="E22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
       </c>
       <c r="F22" t="str">
-        <v>grondverzet</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
       </c>
       <c r="G22" t="str">
-        <v>Boring uitgevoerd in het kader van grondverzet regelgeving.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
       </c>
       <c r="H22" t="str">
-        <v>Grondverzet</v>
+        <v>null</v>
       </c>
       <c r="I22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J22" t="str">
         <v>null</v>
@@ -1565,39 +1691,45 @@
         <v>null</v>
       </c>
       <c r="Q22" t="str">
+        <v>null</v>
+      </c>
+      <c r="R22" t="str">
+        <v>null</v>
+      </c>
+      <c r="S22" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C23" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwaterkwaliteitmonitoring</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
       </c>
       <c r="D23" t="str">
-        <v>Boring uitgevoerd voor de monitoring van de kwaliteit of chemische samenstelling van het grondwater.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
       </c>
       <c r="E23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
       </c>
       <c r="F23" t="str">
-        <v>grondwaterkwaliteitmonitoring</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
       </c>
       <c r="G23" t="str">
-        <v>Boring uitgevoerd voor de monitoring van de kwaliteit of chemische samenstelling van het grondwater.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
       </c>
       <c r="H23" t="str">
-        <v>Grondwaterkwaliteit monitoring</v>
+        <v>null</v>
       </c>
       <c r="I23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J23" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring</v>
+        <v>null</v>
       </c>
       <c r="K23" t="str">
         <v>null</v>
@@ -1606,51 +1738,57 @@
         <v>null</v>
       </c>
       <c r="M23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="N23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="O23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="P23" t="str">
         <v>null</v>
       </c>
       <c r="Q23" t="str">
+        <v>null</v>
+      </c>
+      <c r="R23" t="str">
+        <v>null</v>
+      </c>
+      <c r="S23" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C24" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwaterkwantiteitmonitoring</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
       </c>
       <c r="D24" t="str">
-        <v>Boring uitgevoerd voor de monitoring van de kwantiteit of het niveau van het grondwater.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
       </c>
       <c r="E24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
       </c>
       <c r="F24" t="str">
-        <v>grondwaterkwantiteitmonitoring</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
       </c>
       <c r="G24" t="str">
-        <v>Boring uitgevoerd voor de monitoring van de kwantiteit of het niveau van het grondwater.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
       </c>
       <c r="H24" t="str">
-        <v>Grondwaterkwantiteit monitoring</v>
+        <v>null</v>
       </c>
       <c r="I24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J24" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring</v>
+        <v>null</v>
       </c>
       <c r="K24" t="str">
         <v>null</v>
@@ -1659,60 +1797,66 @@
         <v>null</v>
       </c>
       <c r="M24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="N24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="O24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="P24" t="str">
         <v>null</v>
       </c>
       <c r="Q24" t="str">
+        <v>null</v>
+      </c>
+      <c r="R24" t="str">
+        <v>null</v>
+      </c>
+      <c r="S24" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C25" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwatermonitoring</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
       </c>
       <c r="D25" t="str">
-        <v>Boring uitgevoerd voor de monitoring van de kwaliteit en/of kwantiteit van het grondwater.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
       </c>
       <c r="E25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
       </c>
       <c r="F25" t="str">
-        <v>grondwatermonitoring</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
       </c>
       <c r="G25" t="str">
-        <v>Boring uitgevoerd voor de monitoring van de kwaliteit en/of kwantiteit van het grondwater.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
       </c>
       <c r="H25" t="str">
-        <v>Grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="I25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J25" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring</v>
+        <v>null</v>
       </c>
       <c r="K25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+        <v>null</v>
       </c>
       <c r="L25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+        <v>null</v>
       </c>
       <c r="M25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+        <v>null</v>
       </c>
       <c r="N25" t="str">
         <v>null</v>
@@ -1721,51 +1865,57 @@
         <v>null</v>
       </c>
       <c r="P25" t="str">
-        <v>Milieumonitoring, Environmental monitoring</v>
+        <v>null</v>
       </c>
       <c r="Q25" t="str">
+        <v>null</v>
+      </c>
+      <c r="R25" t="str">
+        <v>null</v>
+      </c>
+      <c r="S25" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C26" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwaterwinning</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie</v>
       </c>
       <c r="D26" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van watervoorziening.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie</v>
       </c>
       <c r="E26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
       </c>
       <c r="F26" t="str">
-        <v>grondwaterwinning</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie</v>
       </c>
       <c r="G26" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van watervoorziening.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
       </c>
       <c r="H26" t="str">
-        <v>Grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="I26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J26" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply</v>
+        <v>null</v>
       </c>
       <c r="K26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+        <v>null</v>
       </c>
       <c r="L26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+        <v>null</v>
       </c>
       <c r="M26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+        <v>null</v>
       </c>
       <c r="N26" t="str">
         <v>null</v>
@@ -1777,39 +1927,45 @@
         <v>null</v>
       </c>
       <c r="Q26" t="str">
+        <v>null</v>
+      </c>
+      <c r="R26" t="str">
+        <v>null</v>
+      </c>
+      <c r="S26" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C27" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.hydrogeologischonderzoek</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="D27" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar grondwaterstroming, de chemische eigenschappen van grondwater, en transport van deeltjes, opgeloste stoffen en energie, evenals het management van het duurzame gebruik van grondwaterbronnen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="E27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="F27" t="str">
-        <v>hydrogeologischonderzoek</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="G27" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar grondwaterstroming, de chemische eigenschappen van grondwater, en transport van deeltjes, opgeloste stoffen en energie, evenals het management van het duurzame gebruik van grondwaterbronnen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="H27" t="str">
-        <v>Hydrogeologisch onderzoek</v>
+        <v>null</v>
       </c>
       <c r="I27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J27" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey</v>
+        <v>null</v>
       </c>
       <c r="K27" t="str">
         <v>null</v>
@@ -1830,39 +1986,45 @@
         <v>null</v>
       </c>
       <c r="Q27" t="str">
+        <v>null</v>
+      </c>
+      <c r="R27" t="str">
+        <v>null</v>
+      </c>
+      <c r="S27" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C28" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.industrielewatervoorziening</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
       </c>
       <c r="D28" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van industriële watervoorziening.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
       </c>
       <c r="E28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
       </c>
       <c r="F28" t="str">
-        <v>industrielewatervoorziening</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
       </c>
       <c r="G28" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van industriële watervoorziening.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
       </c>
       <c r="H28" t="str">
-        <v>Industriële watervoorziening</v>
+        <v>null</v>
       </c>
       <c r="I28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J28" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply</v>
+        <v>null</v>
       </c>
       <c r="K28" t="str">
         <v>null</v>
@@ -1871,51 +2033,57 @@
         <v>null</v>
       </c>
       <c r="M28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="N28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="O28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="P28" t="str">
         <v>null</v>
       </c>
       <c r="Q28" t="str">
+        <v>null</v>
+      </c>
+      <c r="R28" t="str">
+        <v>null</v>
+      </c>
+      <c r="S28" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge</v>
+      </c>
+      <c r="B29" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C29" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
       </c>
-      <c r="B29" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
-      </c>
-      <c r="C29" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.infiltratie</v>
-      </c>
       <c r="D29" t="str">
-        <v>Boring uitgevoerd voor het kunstmatig aanvullen van grondwater door injectie uit diverse bronnen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
       </c>
       <c r="E29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
       </c>
       <c r="F29" t="str">
-        <v>infiltratie</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
       </c>
       <c r="G29" t="str">
-        <v>Boring uitgevoerd voor het kunstmatig aanvullen van grondwater door injectie uit diverse bronnen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
       </c>
       <c r="H29" t="str">
-        <v>Infiltratie</v>
+        <v>null</v>
       </c>
       <c r="I29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J29" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge</v>
+        <v>null</v>
       </c>
       <c r="K29" t="str">
         <v>null</v>
@@ -1936,39 +2104,45 @@
         <v>null</v>
       </c>
       <c r="Q29" t="str">
+        <v>null</v>
+      </c>
+      <c r="R29" t="str">
+        <v>null</v>
+      </c>
+      <c r="S29" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C30" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.irrigatie</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
       </c>
       <c r="D30" t="str">
-        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van irrigatie.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
       </c>
       <c r="E30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
       </c>
       <c r="F30" t="str">
-        <v>irrigatie</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
       </c>
       <c r="G30" t="str">
-        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van irrigatie.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
       </c>
       <c r="H30" t="str">
-        <v>Irrigatie</v>
+        <v>null</v>
       </c>
       <c r="I30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J30" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation</v>
+        <v>null</v>
       </c>
       <c r="K30" t="str">
         <v>null</v>
@@ -1977,48 +2151,54 @@
         <v>null</v>
       </c>
       <c r="M30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="N30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="O30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="P30" t="str">
         <v>null</v>
       </c>
       <c r="Q30" t="str">
+        <v>null</v>
+      </c>
+      <c r="R30" t="str">
+        <v>null</v>
+      </c>
+      <c r="S30" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/kathodischebescherming</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C31" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.kathodischebescherming</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
       </c>
       <c r="D31" t="str">
-        <v>Boring uitgevoerd voor kathodische bescherming.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
       </c>
       <c r="E31" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
       </c>
       <c r="F31" t="str">
-        <v>kathodischebescherming</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
       </c>
       <c r="G31" t="str">
-        <v>Boring uitgevoerd voor kathodische bescherming.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
       </c>
       <c r="H31" t="str">
-        <v>Kathodische bescherming</v>
+        <v>null</v>
       </c>
       <c r="I31" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J31" t="str">
         <v>null</v>
@@ -2042,39 +2222,45 @@
         <v>null</v>
       </c>
       <c r="Q31" t="str">
+        <v>null</v>
+      </c>
+      <c r="R31" t="str">
+        <v>null</v>
+      </c>
+      <c r="S31" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C32" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.mineraleafzettingen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
       </c>
       <c r="D32" t="str">
-        <v>Boring uitgevoerd voor de opsporing van niet-metallische minerale afzettingen, voornamelijk ten behoeve van de bouw, en de natuursteen-, cement-, aardewerk- of glasindustrie.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
       </c>
       <c r="E32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
       </c>
       <c r="F32" t="str">
-        <v>mineraleafzettingen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
       </c>
       <c r="G32" t="str">
-        <v>Boring uitgevoerd voor de opsporing van niet-metallische minerale afzettingen, voornamelijk ten behoeve van de bouw, en de natuursteen-, cement-, aardewerk- of glasindustrie.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
       </c>
       <c r="H32" t="str">
-        <v>Exploratie en exploitatie van niet-metallische minerale afzettingen</v>
+        <v>null</v>
       </c>
       <c r="I32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J32" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits</v>
+        <v>null</v>
       </c>
       <c r="K32" t="str">
         <v>null</v>
@@ -2083,51 +2269,57 @@
         <v>null</v>
       </c>
       <c r="M32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P32" t="str">
         <v>null</v>
       </c>
       <c r="Q32" t="str">
+        <v>null</v>
+      </c>
+      <c r="R32" t="str">
+        <v>null</v>
+      </c>
+      <c r="S32" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C33" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.mitigatie</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
       </c>
       <c r="D33" t="str">
-        <v>Boring uitgevoerd voor het verlagen van het grondwaterniveau om te voorkomen dat het grondwater vervuilde plaatsen bereikt.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
       </c>
       <c r="E33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
       </c>
       <c r="F33" t="str">
-        <v>mitigatie</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
       </c>
       <c r="G33" t="str">
-        <v>Boring uitgevoerd voor het verlagen van het grondwaterniveau om te voorkomen dat het grondwater vervuilde plaatsen bereikt.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
       </c>
       <c r="H33" t="str">
-        <v>Mitigatie</v>
+        <v>null</v>
       </c>
       <c r="I33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J33" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation</v>
+        <v>null</v>
       </c>
       <c r="K33" t="str">
         <v>null</v>
@@ -2136,51 +2328,57 @@
         <v>null</v>
       </c>
       <c r="M33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>null</v>
       </c>
       <c r="N33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>null</v>
       </c>
       <c r="O33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>null</v>
       </c>
       <c r="P33" t="str">
         <v>null</v>
       </c>
       <c r="Q33" t="str">
+        <v>null</v>
+      </c>
+      <c r="R33" t="str">
+        <v>null</v>
+      </c>
+      <c r="S33" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C34" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.monitoringvervuildesites</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="D34" t="str">
-        <v>Boring uitgevoerd in het kader van een bodemonderzoek en/of in het kader van bodemdecreet regelgeving.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="E34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="F34" t="str">
-        <v>monitoringvervuildesites</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="G34" t="str">
-        <v>Boring uitgevoerd in het kader van een bodemonderzoek en/of in het kader van bodemdecreet regelgeving.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="H34" t="str">
-        <v>Monitoring vervuilde sites</v>
+        <v>null</v>
       </c>
       <c r="I34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J34" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring</v>
+        <v>null</v>
       </c>
       <c r="K34" t="str">
         <v>null</v>
@@ -2189,501 +2387,2508 @@
         <v>null</v>
       </c>
       <c r="M34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="N34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="O34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="P34" t="str">
         <v>null</v>
       </c>
       <c r="Q34" t="str">
+        <v>null</v>
+      </c>
+      <c r="R34" t="str">
+        <v>null</v>
+      </c>
+      <c r="S34" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/archeologischonderzoek</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C35" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.noodwatervoorziening</v>
+        <v>null</v>
       </c>
       <c r="D35" t="str">
-        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van noodwatervoorziening.</v>
+        <v>null</v>
       </c>
       <c r="E35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="F35" t="str">
-        <v>noodwatervoorziening</v>
+        <v>null</v>
       </c>
       <c r="G35" t="str">
-        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van noodwatervoorziening.</v>
+        <v>null</v>
       </c>
       <c r="H35" t="str">
-        <v>Noodwatervoorziening</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.archeologischonderzoek</v>
       </c>
       <c r="I35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor archeologisch onderzoek.</v>
       </c>
       <c r="J35" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="K35" t="str">
-        <v>null</v>
+        <v>archeologischonderzoek</v>
       </c>
       <c r="L35" t="str">
-        <v>null</v>
+        <v>Boring uitgevoerd voor archeologisch onderzoek.</v>
       </c>
       <c r="M35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>Archeologisch onderzoek</v>
       </c>
       <c r="N35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="O35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="P35" t="str">
         <v>null</v>
       </c>
       <c r="Q35" t="str">
+        <v>null</v>
+      </c>
+      <c r="R35" t="str">
+        <v>null</v>
+      </c>
+      <c r="S35" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C36" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.reservewatervoorziening</v>
+        <v>null</v>
       </c>
       <c r="D36" t="str">
-        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van reservewatervoorziening.</v>
+        <v>null</v>
       </c>
       <c r="E36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="F36" t="str">
-        <v>reservewatervoorziening</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
       </c>
       <c r="G36" t="str">
-        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van reservewatervoorziening.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
       </c>
       <c r="H36" t="str">
-        <v>Reservewatervoorziening</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.berging</v>
       </c>
       <c r="I36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan of voor de berging of veilige opslag van o.a. afval, gas, koolstofdioxide.</v>
       </c>
       <c r="J36" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="K36" t="str">
-        <v>null</v>
+        <v>berging</v>
       </c>
       <c r="L36" t="str">
-        <v>null</v>
+        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan of voor de berging of veilige opslag van o.a. afval, gas, koolstofdioxide.</v>
       </c>
       <c r="M36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>Berging</v>
       </c>
       <c r="N36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="O36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
       </c>
       <c r="P36" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
       </c>
       <c r="Q36" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
+      </c>
+      <c r="R36" t="str">
+        <v>null</v>
+      </c>
+      <c r="S36" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C37" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.sanering</v>
+        <v>null</v>
       </c>
       <c r="D37" t="str">
-        <v>Boring uitgevoerd voor sanering in het algemeen: het verwijderen van vervuiling of verontreiniging uit grondwater, grond en ander gesteente.</v>
+        <v>null</v>
       </c>
       <c r="E37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="F37" t="str">
-        <v>sanering</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey</v>
       </c>
       <c r="G37" t="str">
-        <v>Boring uitgevoerd voor sanering in het algemeen: het verwijderen van vervuiling of verontreiniging uit grondwater, grond en ander gesteente.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey</v>
       </c>
       <c r="H37" t="str">
-        <v>Sanering</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.bodemkundigonderzoek</v>
       </c>
       <c r="I37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor het karakteriseren van bodem of grond.</v>
       </c>
       <c r="J37" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="K37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+        <v>bodemkundigonderzoek</v>
       </c>
       <c r="L37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+        <v>Boring uitgevoerd voor het karakteriseren van bodem of grond.</v>
       </c>
       <c r="M37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+        <v>Bodemkundig onderzoek</v>
       </c>
       <c r="N37" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="O37" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey</v>
       </c>
       <c r="P37" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey</v>
       </c>
       <c r="Q37" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey</v>
+      </c>
+      <c r="R37" t="str">
+        <v>null</v>
+      </c>
+      <c r="S37" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.schietgat</v>
+        <v>null</v>
       </c>
       <c r="D38" t="str">
-        <v>Boring uitgevoerd voor seismisch onderzoek waarbij explosieven in schietgaten worden gestopt</v>
+        <v>null</v>
       </c>
       <c r="E38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="F38" t="str">
-        <v>schietgat</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering</v>
       </c>
       <c r="G38" t="str">
-        <v>Boring uitgevoerd voor seismisch onderzoek waarbij explosieven in schietgaten worden gestopt</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
       </c>
       <c r="H38" t="str">
-        <v>Schietgat</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.drainagebemaling</v>
       </c>
       <c r="I38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor het permanent of tijdelijk draineren of verwijderen van water.</v>
       </c>
       <c r="J38" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="K38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+        <v>drainagebemaling</v>
       </c>
       <c r="L38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+        <v>Boring uitgevoerd voor het permanent of tijdelijk draineren of verwijderen van water.</v>
       </c>
       <c r="M38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+        <v>Drainage en bemaling</v>
       </c>
       <c r="N38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="O38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering</v>
       </c>
       <c r="P38" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
       </c>
       <c r="Q38" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
+      </c>
+      <c r="R38" t="str">
+        <v>null</v>
+      </c>
+      <c r="S38" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.stromendschietgat</v>
+        <v>null</v>
       </c>
       <c r="D39" t="str">
-        <v>Boring uitgevoerd voor seismisch onderzoek waarbij het boorgat een ondergrondse waterbron heeft geraakt die voldoende druk heeft om het gat te laten overstromen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="E39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="F39" t="str">
-        <v>stromendschietgat</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply</v>
       </c>
       <c r="G39" t="str">
-        <v>Boring uitgevoerd voor seismisch onderzoek waarbij het boorgat een ondergrondse waterbron heeft geraakt die voldoende druk heeft om het gat te laten overstromen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply</v>
       </c>
       <c r="H39" t="str">
-        <v>Stromend schietgat</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.drinkwatervoorziening</v>
       </c>
       <c r="I39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van drinkwatervoorziening.</v>
       </c>
       <c r="J39" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="K39" t="str">
-        <v>null</v>
+        <v>drinkwatervoorziening</v>
       </c>
       <c r="L39" t="str">
-        <v>null</v>
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van drinkwatervoorziening.</v>
       </c>
       <c r="M39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+        <v>Drinkwatervoorziening</v>
       </c>
       <c r="N39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="O39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply</v>
       </c>
       <c r="P39" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply</v>
       </c>
       <c r="Q39" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply</v>
+      </c>
+      <c r="R39" t="str">
+        <v>null</v>
+      </c>
+      <c r="S39" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.thermischereiniging</v>
+        <v>null</v>
       </c>
       <c r="D40" t="str">
-        <v>Boring uitgevoerd voor het in situ reinigen van grond met gebruik van warmte.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="E40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="F40" t="str">
-        <v>thermische reiniging</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
       </c>
       <c r="G40" t="str">
-        <v>Boring uitgevoerd voor het in situ reinigen van grond met gebruik van warmte.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
       </c>
       <c r="H40" t="str">
-        <v>Thermische reiniging</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatiediepegeothermie</v>
       </c>
       <c r="I40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van warmte voor gebruik in diepe geothermie.</v>
       </c>
       <c r="J40" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="K40" t="str">
-        <v>null</v>
+        <v>exploitatiediepegeothermie</v>
       </c>
       <c r="L40" t="str">
-        <v>null</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van warmte voor gebruik in diepe geothermie.</v>
       </c>
       <c r="M40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>Exploitatie diepe geothermie</v>
       </c>
       <c r="N40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="O40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
       </c>
       <c r="P40" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
       </c>
       <c r="Q40" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+      </c>
+      <c r="R40" t="str">
+        <v>null</v>
+      </c>
+      <c r="S40" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C41" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.waardebepalingkoolwaterstoffen</v>
+        <v>null</v>
       </c>
       <c r="D41" t="str">
-        <v>Boring uitgevoerd voor het beoordelen van de kenmerken van een bewezen ophoping van koolwaterstoffen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="E41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="F41" t="str">
-        <v>waardebepalingkoolwaterstoffen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
       </c>
       <c r="G41" t="str">
-        <v>Boring uitgevoerd voor het beoordelen van de kenmerken van een bewezen ophoping van koolwaterstoffen.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
       </c>
       <c r="H41" t="str">
-        <v>Waardebepaling koolwaterstoffen</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatieenergiebronnen</v>
       </c>
       <c r="I41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van energie bronnen.</v>
       </c>
       <c r="J41" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="K41" t="str">
-        <v>null</v>
+        <v>exploitatieenergiebronnen</v>
       </c>
       <c r="L41" t="str">
-        <v>null</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van energie bronnen.</v>
       </c>
       <c r="M41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>Exploitatie energie bronnen</v>
       </c>
       <c r="N41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="O41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
       </c>
       <c r="P41" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
       </c>
       <c r="Q41" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
+      </c>
+      <c r="R41" t="str">
+        <v>null</v>
+      </c>
+      <c r="S41" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C42" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.watercultuur</v>
+        <v>null</v>
       </c>
       <c r="D42" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van aquacultuur.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="E42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="F42" t="str">
-        <v>watercultuur</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction</v>
       </c>
       <c r="G42" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van aquacultuur.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction</v>
       </c>
       <c r="H42" t="str">
-        <v>Watercultuur</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatiekoolwaterstoffen</v>
       </c>
       <c r="I42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>Boring uitgevoerd voor de productie van aardolie en/of gas.</v>
       </c>
       <c r="J42" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="K42" t="str">
-        <v>null</v>
+        <v>exploitatiekoolwaterstoffen</v>
       </c>
       <c r="L42" t="str">
-        <v>null</v>
+        <v>Boring uitgevoerd voor de productie van aardolie en/of gas.</v>
       </c>
       <c r="M42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>Exploitatie koolwaterstoffen</v>
       </c>
       <c r="N42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="O42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction</v>
       </c>
       <c r="P42" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction</v>
       </c>
       <c r="Q42" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction</v>
+      </c>
+      <c r="R42" t="str">
+        <v>null</v>
+      </c>
+      <c r="S42" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen</v>
       </c>
       <c r="B43" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C43" t="str">
+        <v>null</v>
+      </c>
+      <c r="D43" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="E43" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="F43" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+      </c>
+      <c r="G43" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+      </c>
+      <c r="H43" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatiemineralebronnen</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Boring uitgevoerd voor de exploitatie of winning van minerale bronnen.</v>
+      </c>
+      <c r="J43" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K43" t="str">
+        <v>exploitatiemineralebronnen</v>
+      </c>
+      <c r="L43" t="str">
+        <v>Boring uitgevoerd voor de exploitatie of winning van minerale bronnen.</v>
+      </c>
+      <c r="M43" t="str">
+        <v>Exploitatie minerale bronnen</v>
+      </c>
+      <c r="N43" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O43" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+      </c>
+      <c r="P43" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+      </c>
+      <c r="R43" t="str">
+        <v>null</v>
+      </c>
+      <c r="S43" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie</v>
+      </c>
+      <c r="B44" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C44" t="str">
+        <v>null</v>
+      </c>
+      <c r="D44" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="E44" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="F44" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+      </c>
+      <c r="G44" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+      </c>
+      <c r="H44" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratiediepegeothermie</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van warmte voor gebruik in diepe geothermie.</v>
+      </c>
+      <c r="J44" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K44" t="str">
+        <v>exploratiediepegeothermie</v>
+      </c>
+      <c r="L44" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van warmte voor gebruik in diepe geothermie.</v>
+      </c>
+      <c r="M44" t="str">
+        <v>Exploratie diepe geothermie</v>
+      </c>
+      <c r="N44" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O44" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+      </c>
+      <c r="P44" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+      </c>
+      <c r="R44" t="str">
+        <v>null</v>
+      </c>
+      <c r="S44" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
+      </c>
+      <c r="B45" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C45" t="str">
+        <v>null</v>
+      </c>
+      <c r="D45" t="str">
+        <v>null</v>
+      </c>
+      <c r="E45" t="str">
+        <v>null</v>
+      </c>
+      <c r="F45" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
+      </c>
+      <c r="G45" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
+      </c>
+      <c r="H45" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratieenergiebronnen</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van energie bronnen.</v>
+      </c>
+      <c r="J45" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K45" t="str">
+        <v>exploratieenergiebronnen</v>
+      </c>
+      <c r="L45" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van energie bronnen.</v>
+      </c>
+      <c r="M45" t="str">
+        <v>Exploratie energie bronnen</v>
+      </c>
+      <c r="N45" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O45" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
+      </c>
+      <c r="P45" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
+      </c>
+      <c r="R45" t="str">
+        <v>null</v>
+      </c>
+      <c r="S45" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
+      </c>
+      <c r="B46" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C46" t="str">
+        <v>null</v>
+      </c>
+      <c r="D46" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="E46" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="F46" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration</v>
+      </c>
+      <c r="G46" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration</v>
+      </c>
+      <c r="H46" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratiekoolwaterstoffen</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Boring uitgevoerd voor de opsporing van koolwaterstoffen in een niet bewezen gebied.</v>
+      </c>
+      <c r="J46" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K46" t="str">
+        <v>exploratiekoolwaterstoffen</v>
+      </c>
+      <c r="L46" t="str">
+        <v>Boring uitgevoerd voor de opsporing van koolwaterstoffen in een niet bewezen gebied.</v>
+      </c>
+      <c r="M46" t="str">
+        <v>Exploratie koolwaterstoffen</v>
+      </c>
+      <c r="N46" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O46" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration</v>
+      </c>
+      <c r="P46" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration</v>
+      </c>
+      <c r="R46" t="str">
+        <v>null</v>
+      </c>
+      <c r="S46" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
+      </c>
+      <c r="B47" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C47" t="str">
+        <v>null</v>
+      </c>
+      <c r="D47" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="E47" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="F47" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+      </c>
+      <c r="G47" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+      </c>
+      <c r="H47" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratiemineralebronnen</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van minerale bronnen.</v>
+      </c>
+      <c r="J47" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K47" t="str">
+        <v>exploratiemineralebronnen</v>
+      </c>
+      <c r="L47" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van minerale bronnen.</v>
+      </c>
+      <c r="M47" t="str">
+        <v>Exploratie minerale bronnen</v>
+      </c>
+      <c r="N47" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O47" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+      </c>
+      <c r="P47" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+      </c>
+      <c r="R47" t="str">
+        <v>null</v>
+      </c>
+      <c r="S47" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
+      </c>
+      <c r="B48" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C48" t="str">
+        <v>null</v>
+      </c>
+      <c r="D48" t="str">
+        <v>null</v>
+      </c>
+      <c r="E48" t="str">
+        <v>null</v>
+      </c>
+      <c r="F48" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
+      </c>
+      <c r="G48" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
+      </c>
+      <c r="H48" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratieondergrondseopslag</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan.</v>
+      </c>
+      <c r="J48" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K48" t="str">
+        <v>exploratieondergrondseopslag</v>
+      </c>
+      <c r="L48" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan.</v>
+      </c>
+      <c r="M48" t="str">
+        <v>Exploratie ondergrondse opslag</v>
+      </c>
+      <c r="N48" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O48" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
+      </c>
+      <c r="P48" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
+      </c>
+      <c r="R48" t="str">
+        <v>null</v>
+      </c>
+      <c r="S48" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
+      </c>
+      <c r="B49" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C49" t="str">
+        <v>null</v>
+      </c>
+      <c r="D49" t="str">
+        <v>null</v>
+      </c>
+      <c r="E49" t="str">
+        <v>null</v>
+      </c>
+      <c r="F49" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey</v>
+      </c>
+      <c r="G49" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey</v>
+      </c>
+      <c r="H49" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geochemischonderzoek</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de geochemische eigenschappen van de (onder)grond en of van porositeitsvloeistoffen.</v>
+      </c>
+      <c r="J49" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K49" t="str">
+        <v>geochemischonderzoek</v>
+      </c>
+      <c r="L49" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de geochemische eigenschappen van de (onder)grond en of van porositeitsvloeistoffen.</v>
+      </c>
+      <c r="M49" t="str">
+        <v>Geochemisch onderzoek</v>
+      </c>
+      <c r="N49" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O49" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey</v>
+      </c>
+      <c r="P49" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey</v>
+      </c>
+      <c r="R49" t="str">
+        <v>null</v>
+      </c>
+      <c r="S49" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+      </c>
+      <c r="B50" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C50" t="str">
+        <v>null</v>
+      </c>
+      <c r="D50" t="str">
+        <v>null</v>
+      </c>
+      <c r="E50" t="str">
+        <v>null</v>
+      </c>
+      <c r="F50" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey</v>
+      </c>
+      <c r="G50" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
+      </c>
+      <c r="H50" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geofysischonderzoek</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de geofysische eigenschappen van de (onder)grond.</v>
+      </c>
+      <c r="J50" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K50" t="str">
+        <v>geofysischonderzoek</v>
+      </c>
+      <c r="L50" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de geofysische eigenschappen van de (onder)grond.</v>
+      </c>
+      <c r="M50" t="str">
+        <v>Geofysisch onderzoek</v>
+      </c>
+      <c r="N50" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O50" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey</v>
+      </c>
+      <c r="P50" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
+      </c>
+      <c r="R50" t="str">
+        <v>null</v>
+      </c>
+      <c r="S50" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
+      </c>
+      <c r="B51" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C51" t="str">
+        <v>null</v>
+      </c>
+      <c r="D51" t="str">
+        <v>null</v>
+      </c>
+      <c r="E51" t="str">
+        <v>null</v>
+      </c>
+      <c r="F51" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey</v>
+      </c>
+      <c r="G51" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey</v>
+      </c>
+      <c r="H51" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geologischonderzoek</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de geologische opbouw van de (onder)grond.</v>
+      </c>
+      <c r="J51" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K51" t="str">
+        <v>geologischonderzoek</v>
+      </c>
+      <c r="L51" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de geologische opbouw van de (onder)grond.</v>
+      </c>
+      <c r="M51" t="str">
+        <v>Geologisch onderzoek</v>
+      </c>
+      <c r="N51" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O51" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey</v>
+      </c>
+      <c r="P51" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey</v>
+      </c>
+      <c r="R51" t="str">
+        <v>null</v>
+      </c>
+      <c r="S51" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
+      </c>
+      <c r="B52" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C52" t="str">
+        <v>null</v>
+      </c>
+      <c r="D52" t="str">
+        <v>null</v>
+      </c>
+      <c r="E52" t="str">
+        <v>null</v>
+      </c>
+      <c r="F52" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey</v>
+      </c>
+      <c r="G52" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey</v>
+      </c>
+      <c r="H52" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geotechnischonderzoek</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de fysische en mechanische eigenschappen van de ondergrond gerelateerd aan bouw- en infrastructuurwerken.</v>
+      </c>
+      <c r="J52" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K52" t="str">
+        <v>geotechnischonderzoek</v>
+      </c>
+      <c r="L52" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de fysische en mechanische eigenschappen van de ondergrond gerelateerd aan bouw- en infrastructuurwerken.</v>
+      </c>
+      <c r="M52" t="str">
+        <v>Geotechnisch onderzoek</v>
+      </c>
+      <c r="N52" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O52" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey</v>
+      </c>
+      <c r="P52" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey</v>
+      </c>
+      <c r="Q52" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey</v>
+      </c>
+      <c r="R52" t="str">
+        <v>null</v>
+      </c>
+      <c r="S52" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
+      </c>
+      <c r="B53" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C53" t="str">
+        <v>null</v>
+      </c>
+      <c r="D53" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="E53" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="F53" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+      </c>
+      <c r="G53" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+      </c>
+      <c r="H53" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geothermie</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Boring uitgevoerd voor ondiepe geothemische energie opslag in een boorgat (BEO, bodemlus, BTES) of voor koude-warmteopslag (KWO, WKO, ATES).</v>
+      </c>
+      <c r="J53" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K53" t="str">
+        <v>geothermie</v>
+      </c>
+      <c r="L53" t="str">
+        <v>Boring uitgevoerd voor ondiepe geothemische energie opslag in een boorgat (BEO, bodemlus, BTES) of voor koude-warmteopslag (KWO, WKO, ATES).</v>
+      </c>
+      <c r="M53" t="str">
+        <v>Geothermie</v>
+      </c>
+      <c r="N53" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O53" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+      </c>
+      <c r="P53" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+      </c>
+      <c r="R53" t="str">
+        <v>Ondiepe geothermie</v>
+      </c>
+      <c r="S53" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="B54" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C54" t="str">
+        <v>null</v>
+      </c>
+      <c r="D54" t="str">
+        <v>null</v>
+      </c>
+      <c r="E54" t="str">
+        <v>null</v>
+      </c>
+      <c r="F54" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial</v>
+      </c>
+      <c r="G54" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
+      </c>
+      <c r="H54" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondstoffen</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Boring uitgevoerd voor de opsporing en ontginning van grondstoffen.</v>
+      </c>
+      <c r="J54" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K54" t="str">
+        <v>grondstoffen</v>
+      </c>
+      <c r="L54" t="str">
+        <v>Boring uitgevoerd voor de opsporing en ontginning van grondstoffen.</v>
+      </c>
+      <c r="M54" t="str">
+        <v>Opsporing en ontginning van grondstoffen</v>
+      </c>
+      <c r="N54" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O54" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial</v>
+      </c>
+      <c r="P54" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
+      </c>
+      <c r="R54" t="str">
+        <v>null</v>
+      </c>
+      <c r="S54" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondverzet</v>
+      </c>
+      <c r="B55" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C55" t="str">
+        <v>null</v>
+      </c>
+      <c r="D55" t="str">
+        <v>null</v>
+      </c>
+      <c r="E55" t="str">
+        <v>null</v>
+      </c>
+      <c r="F55" t="str">
+        <v>null</v>
+      </c>
+      <c r="G55" t="str">
+        <v>null</v>
+      </c>
+      <c r="H55" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondverzet</v>
+      </c>
+      <c r="I55" t="str">
+        <v>Boring uitgevoerd in het kader van grondverzet regelgeving.</v>
+      </c>
+      <c r="J55" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K55" t="str">
+        <v>grondverzet</v>
+      </c>
+      <c r="L55" t="str">
+        <v>Boring uitgevoerd in het kader van grondverzet regelgeving.</v>
+      </c>
+      <c r="M55" t="str">
+        <v>Grondverzet</v>
+      </c>
+      <c r="N55" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O55" t="str">
+        <v>null</v>
+      </c>
+      <c r="P55" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q55" t="str">
+        <v>null</v>
+      </c>
+      <c r="R55" t="str">
+        <v>null</v>
+      </c>
+      <c r="S55" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="B56" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C56" t="str">
+        <v>null</v>
+      </c>
+      <c r="D56" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="E56" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="F56" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring</v>
+      </c>
+      <c r="G56" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring</v>
+      </c>
+      <c r="H56" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Boring uitgevoerd voor de monitoring van de kwaliteit of chemische samenstelling van het grondwater.</v>
+      </c>
+      <c r="J56" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K56" t="str">
+        <v>grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="L56" t="str">
+        <v>Boring uitgevoerd voor de monitoring van de kwaliteit of chemische samenstelling van het grondwater.</v>
+      </c>
+      <c r="M56" t="str">
+        <v>Grondwaterkwaliteit monitoring</v>
+      </c>
+      <c r="N56" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O56" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring</v>
+      </c>
+      <c r="P56" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring</v>
+      </c>
+      <c r="R56" t="str">
+        <v>null</v>
+      </c>
+      <c r="S56" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
+      </c>
+      <c r="B57" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C57" t="str">
+        <v>null</v>
+      </c>
+      <c r="D57" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="E57" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="F57" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring</v>
+      </c>
+      <c r="G57" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring</v>
+      </c>
+      <c r="H57" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwaterkwantiteitmonitoring</v>
+      </c>
+      <c r="I57" t="str">
+        <v>Boring uitgevoerd voor de monitoring van de kwantiteit of het niveau van het grondwater.</v>
+      </c>
+      <c r="J57" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K57" t="str">
+        <v>grondwaterkwantiteitmonitoring</v>
+      </c>
+      <c r="L57" t="str">
+        <v>Boring uitgevoerd voor de monitoring van de kwantiteit of het niveau van het grondwater.</v>
+      </c>
+      <c r="M57" t="str">
+        <v>Grondwaterkwantiteit monitoring</v>
+      </c>
+      <c r="N57" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O57" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring</v>
+      </c>
+      <c r="P57" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring</v>
+      </c>
+      <c r="Q57" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring</v>
+      </c>
+      <c r="R57" t="str">
+        <v>null</v>
+      </c>
+      <c r="S57" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="B58" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C58" t="str">
+        <v>null</v>
+      </c>
+      <c r="D58" t="str">
+        <v>null</v>
+      </c>
+      <c r="E58" t="str">
+        <v>null</v>
+      </c>
+      <c r="F58" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring</v>
+      </c>
+      <c r="G58" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="H58" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwatermonitoring</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Boring uitgevoerd voor de monitoring van de kwaliteit en/of kwantiteit van het grondwater.</v>
+      </c>
+      <c r="J58" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K58" t="str">
+        <v>grondwatermonitoring</v>
+      </c>
+      <c r="L58" t="str">
+        <v>Boring uitgevoerd voor de monitoring van de kwaliteit en/of kwantiteit van het grondwater.</v>
+      </c>
+      <c r="M58" t="str">
+        <v>Grondwatermonitoring</v>
+      </c>
+      <c r="N58" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O58" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring</v>
+      </c>
+      <c r="P58" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="R58" t="str">
+        <v>Milieumonitoring, Environmental monitoring</v>
+      </c>
+      <c r="S58" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="B59" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C59" t="str">
+        <v>null</v>
+      </c>
+      <c r="D59" t="str">
+        <v>null</v>
+      </c>
+      <c r="E59" t="str">
+        <v>null</v>
+      </c>
+      <c r="F59" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply</v>
+      </c>
+      <c r="G59" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply</v>
+      </c>
+      <c r="H59" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwaterwinning</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van watervoorziening.</v>
+      </c>
+      <c r="J59" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K59" t="str">
+        <v>grondwaterwinning</v>
+      </c>
+      <c r="L59" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van watervoorziening.</v>
+      </c>
+      <c r="M59" t="str">
+        <v>Grondwaterwinning</v>
+      </c>
+      <c r="N59" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O59" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply</v>
+      </c>
+      <c r="P59" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply</v>
+      </c>
+      <c r="R59" t="str">
+        <v>null</v>
+      </c>
+      <c r="S59" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
+      </c>
+      <c r="B60" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C60" t="str">
+        <v>null</v>
+      </c>
+      <c r="D60" t="str">
+        <v>null</v>
+      </c>
+      <c r="E60" t="str">
+        <v>null</v>
+      </c>
+      <c r="F60" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey</v>
+      </c>
+      <c r="G60" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey</v>
+      </c>
+      <c r="H60" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.hydrogeologischonderzoek</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar grondwaterstroming, de chemische eigenschappen van grondwater, en transport van deeltjes, opgeloste stoffen en energie, evenals het management van het duurzame gebruik van grondwaterbronnen.</v>
+      </c>
+      <c r="J60" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K60" t="str">
+        <v>hydrogeologischonderzoek</v>
+      </c>
+      <c r="L60" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar grondwaterstroming, de chemische eigenschappen van grondwater, en transport van deeltjes, opgeloste stoffen en energie, evenals het management van het duurzame gebruik van grondwaterbronnen.</v>
+      </c>
+      <c r="M60" t="str">
+        <v>Hydrogeologisch onderzoek</v>
+      </c>
+      <c r="N60" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O60" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey</v>
+      </c>
+      <c r="P60" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey</v>
+      </c>
+      <c r="R60" t="str">
+        <v>null</v>
+      </c>
+      <c r="S60" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
+      </c>
+      <c r="B61" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C61" t="str">
+        <v>null</v>
+      </c>
+      <c r="D61" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="E61" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="F61" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply</v>
+      </c>
+      <c r="G61" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply</v>
+      </c>
+      <c r="H61" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.industrielewatervoorziening</v>
+      </c>
+      <c r="I61" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van industriële watervoorziening.</v>
+      </c>
+      <c r="J61" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K61" t="str">
+        <v>industrielewatervoorziening</v>
+      </c>
+      <c r="L61" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van industriële watervoorziening.</v>
+      </c>
+      <c r="M61" t="str">
+        <v>Industriële watervoorziening</v>
+      </c>
+      <c r="N61" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O61" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply</v>
+      </c>
+      <c r="P61" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply</v>
+      </c>
+      <c r="R61" t="str">
+        <v>null</v>
+      </c>
+      <c r="S61" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
+      </c>
+      <c r="B62" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C62" t="str">
+        <v>null</v>
+      </c>
+      <c r="D62" t="str">
+        <v>null</v>
+      </c>
+      <c r="E62" t="str">
+        <v>null</v>
+      </c>
+      <c r="F62" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge</v>
+      </c>
+      <c r="G62" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge</v>
+      </c>
+      <c r="H62" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.infiltratie</v>
+      </c>
+      <c r="I62" t="str">
+        <v>Boring uitgevoerd voor het kunstmatig aanvullen van grondwater door injectie uit diverse bronnen.</v>
+      </c>
+      <c r="J62" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K62" t="str">
+        <v>infiltratie</v>
+      </c>
+      <c r="L62" t="str">
+        <v>Boring uitgevoerd voor het kunstmatig aanvullen van grondwater door injectie uit diverse bronnen.</v>
+      </c>
+      <c r="M62" t="str">
+        <v>Infiltratie</v>
+      </c>
+      <c r="N62" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O62" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge</v>
+      </c>
+      <c r="P62" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge</v>
+      </c>
+      <c r="R62" t="str">
+        <v>null</v>
+      </c>
+      <c r="S62" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
+      </c>
+      <c r="B63" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C63" t="str">
+        <v>null</v>
+      </c>
+      <c r="D63" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="E63" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="F63" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation</v>
+      </c>
+      <c r="G63" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation</v>
+      </c>
+      <c r="H63" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.irrigatie</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van irrigatie.</v>
+      </c>
+      <c r="J63" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K63" t="str">
+        <v>irrigatie</v>
+      </c>
+      <c r="L63" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van irrigatie.</v>
+      </c>
+      <c r="M63" t="str">
+        <v>Irrigatie</v>
+      </c>
+      <c r="N63" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O63" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation</v>
+      </c>
+      <c r="P63" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation</v>
+      </c>
+      <c r="Q63" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation</v>
+      </c>
+      <c r="R63" t="str">
+        <v>null</v>
+      </c>
+      <c r="S63" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/kathodischebescherming</v>
+      </c>
+      <c r="B64" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C64" t="str">
+        <v>null</v>
+      </c>
+      <c r="D64" t="str">
+        <v>null</v>
+      </c>
+      <c r="E64" t="str">
+        <v>null</v>
+      </c>
+      <c r="F64" t="str">
+        <v>null</v>
+      </c>
+      <c r="G64" t="str">
+        <v>null</v>
+      </c>
+      <c r="H64" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.kathodischebescherming</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Boring uitgevoerd voor kathodische bescherming.</v>
+      </c>
+      <c r="J64" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K64" t="str">
+        <v>kathodischebescherming</v>
+      </c>
+      <c r="L64" t="str">
+        <v>Boring uitgevoerd voor kathodische bescherming.</v>
+      </c>
+      <c r="M64" t="str">
+        <v>Kathodische bescherming</v>
+      </c>
+      <c r="N64" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O64" t="str">
+        <v>null</v>
+      </c>
+      <c r="P64" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q64" t="str">
+        <v>null</v>
+      </c>
+      <c r="R64" t="str">
+        <v>null</v>
+      </c>
+      <c r="S64" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen</v>
+      </c>
+      <c r="B65" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C65" t="str">
+        <v>null</v>
+      </c>
+      <c r="D65" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="E65" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="F65" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits</v>
+      </c>
+      <c r="G65" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="H65" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.mineraleafzettingen</v>
+      </c>
+      <c r="I65" t="str">
+        <v>Boring uitgevoerd voor de opsporing van niet-metallische minerale afzettingen, voornamelijk ten behoeve van de bouw, en de natuursteen-, cement-, aardewerk- of glasindustrie.</v>
+      </c>
+      <c r="J65" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K65" t="str">
+        <v>mineraleafzettingen</v>
+      </c>
+      <c r="L65" t="str">
+        <v>Boring uitgevoerd voor de opsporing van niet-metallische minerale afzettingen, voornamelijk ten behoeve van de bouw, en de natuursteen-, cement-, aardewerk- of glasindustrie.</v>
+      </c>
+      <c r="M65" t="str">
+        <v>Exploratie en exploitatie van niet-metallische minerale afzettingen</v>
+      </c>
+      <c r="N65" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O65" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits</v>
+      </c>
+      <c r="P65" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits</v>
+      </c>
+      <c r="Q65" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits</v>
+      </c>
+      <c r="R65" t="str">
+        <v>null</v>
+      </c>
+      <c r="S65" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie</v>
+      </c>
+      <c r="B66" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C66" t="str">
+        <v>null</v>
+      </c>
+      <c r="D66" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="E66" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="F66" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation</v>
+      </c>
+      <c r="G66" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="H66" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.mitigatie</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Boring uitgevoerd voor het verlagen van het grondwaterniveau om te voorkomen dat het grondwater vervuilde plaatsen bereikt.</v>
+      </c>
+      <c r="J66" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K66" t="str">
+        <v>mitigatie</v>
+      </c>
+      <c r="L66" t="str">
+        <v>Boring uitgevoerd voor het verlagen van het grondwaterniveau om te voorkomen dat het grondwater vervuilde plaatsen bereikt.</v>
+      </c>
+      <c r="M66" t="str">
+        <v>Mitigatie</v>
+      </c>
+      <c r="N66" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O66" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation</v>
+      </c>
+      <c r="P66" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation</v>
+      </c>
+      <c r="Q66" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation</v>
+      </c>
+      <c r="R66" t="str">
+        <v>null</v>
+      </c>
+      <c r="S66" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+      </c>
+      <c r="B67" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C67" t="str">
+        <v>null</v>
+      </c>
+      <c r="D67" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="E67" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="F67" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring</v>
+      </c>
+      <c r="G67" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring</v>
+      </c>
+      <c r="H67" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.monitoringvervuildesites</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Boring uitgevoerd in het kader van een bodemonderzoek en/of in het kader van bodemdecreet regelgeving.</v>
+      </c>
+      <c r="J67" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K67" t="str">
+        <v>monitoringvervuildesites</v>
+      </c>
+      <c r="L67" t="str">
+        <v>Boring uitgevoerd in het kader van een bodemonderzoek en/of in het kader van bodemdecreet regelgeving.</v>
+      </c>
+      <c r="M67" t="str">
+        <v>Monitoring vervuilde sites</v>
+      </c>
+      <c r="N67" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O67" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring</v>
+      </c>
+      <c r="P67" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring</v>
+      </c>
+      <c r="Q67" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring</v>
+      </c>
+      <c r="R67" t="str">
+        <v>null</v>
+      </c>
+      <c r="S67" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
+      </c>
+      <c r="B68" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C68" t="str">
+        <v>null</v>
+      </c>
+      <c r="D68" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="E68" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="F68" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply</v>
+      </c>
+      <c r="G68" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply</v>
+      </c>
+      <c r="H68" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.noodwatervoorziening</v>
+      </c>
+      <c r="I68" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van noodwatervoorziening.</v>
+      </c>
+      <c r="J68" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K68" t="str">
+        <v>noodwatervoorziening</v>
+      </c>
+      <c r="L68" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van noodwatervoorziening.</v>
+      </c>
+      <c r="M68" t="str">
+        <v>Noodwatervoorziening</v>
+      </c>
+      <c r="N68" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O68" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply</v>
+      </c>
+      <c r="P68" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply</v>
+      </c>
+      <c r="Q68" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply</v>
+      </c>
+      <c r="R68" t="str">
+        <v>null</v>
+      </c>
+      <c r="S68" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
+      </c>
+      <c r="B69" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C69" t="str">
+        <v>null</v>
+      </c>
+      <c r="D69" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="E69" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="F69" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
+      </c>
+      <c r="G69" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
+      </c>
+      <c r="H69" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.reservewatervoorziening</v>
+      </c>
+      <c r="I69" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van reservewatervoorziening.</v>
+      </c>
+      <c r="J69" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K69" t="str">
+        <v>reservewatervoorziening</v>
+      </c>
+      <c r="L69" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van reservewatervoorziening.</v>
+      </c>
+      <c r="M69" t="str">
+        <v>Reservewatervoorziening</v>
+      </c>
+      <c r="N69" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O69" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
+      </c>
+      <c r="P69" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
+      </c>
+      <c r="R69" t="str">
+        <v>null</v>
+      </c>
+      <c r="S69" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="B70" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C70" t="str">
+        <v>null</v>
+      </c>
+      <c r="D70" t="str">
+        <v>null</v>
+      </c>
+      <c r="E70" t="str">
+        <v>null</v>
+      </c>
+      <c r="F70" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation</v>
+      </c>
+      <c r="G70" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="H70" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.sanering</v>
+      </c>
+      <c r="I70" t="str">
+        <v>Boring uitgevoerd voor sanering in het algemeen: het verwijderen van vervuiling of verontreiniging uit grondwater, grond en ander gesteente.</v>
+      </c>
+      <c r="J70" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K70" t="str">
+        <v>sanering</v>
+      </c>
+      <c r="L70" t="str">
+        <v>Boring uitgevoerd voor sanering in het algemeen: het verwijderen van vervuiling of verontreiniging uit grondwater, grond en ander gesteente.</v>
+      </c>
+      <c r="M70" t="str">
+        <v>Sanering</v>
+      </c>
+      <c r="N70" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O70" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation</v>
+      </c>
+      <c r="P70" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="Q70" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="R70" t="str">
+        <v>null</v>
+      </c>
+      <c r="S70" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="B71" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C71" t="str">
+        <v>null</v>
+      </c>
+      <c r="D71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+      </c>
+      <c r="E71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+      </c>
+      <c r="F71" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
+      </c>
+      <c r="G71" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
+      </c>
+      <c r="H71" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.schietgat</v>
+      </c>
+      <c r="I71" t="str">
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij explosieven in schietgaten worden gestopt</v>
+      </c>
+      <c r="J71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K71" t="str">
+        <v>schietgat</v>
+      </c>
+      <c r="L71" t="str">
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij explosieven in schietgaten worden gestopt</v>
+      </c>
+      <c r="M71" t="str">
+        <v>Schietgat</v>
+      </c>
+      <c r="N71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O71" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
+      </c>
+      <c r="P71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
+      </c>
+      <c r="Q71" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
+      </c>
+      <c r="R71" t="str">
+        <v>null</v>
+      </c>
+      <c r="S71" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+      </c>
+      <c r="B72" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C72" t="str">
+        <v>null</v>
+      </c>
+      <c r="D72" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="E72" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="F72" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
+      </c>
+      <c r="G72" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="H72" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.stromendschietgat</v>
+      </c>
+      <c r="I72" t="str">
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij het boorgat een ondergrondse waterbron heeft geraakt die voldoende druk heeft om het gat te laten overstromen.</v>
+      </c>
+      <c r="J72" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K72" t="str">
+        <v>stromendschietgat</v>
+      </c>
+      <c r="L72" t="str">
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij het boorgat een ondergrondse waterbron heeft geraakt die voldoende druk heeft om het gat te laten overstromen.</v>
+      </c>
+      <c r="M72" t="str">
+        <v>Stromend schietgat</v>
+      </c>
+      <c r="N72" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O72" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
+      </c>
+      <c r="P72" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
+      </c>
+      <c r="Q72" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
+      </c>
+      <c r="R72" t="str">
+        <v>null</v>
+      </c>
+      <c r="S72" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="B73" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C73" t="str">
+        <v>null</v>
+      </c>
+      <c r="D73" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="E73" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="F73" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
+      </c>
+      <c r="G73" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
+      </c>
+      <c r="H73" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.thermischereiniging</v>
+      </c>
+      <c r="I73" t="str">
+        <v>Boring uitgevoerd voor het in situ reinigen van grond met gebruik van warmte.</v>
+      </c>
+      <c r="J73" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K73" t="str">
+        <v>thermische reiniging</v>
+      </c>
+      <c r="L73" t="str">
+        <v>Boring uitgevoerd voor het in situ reinigen van grond met gebruik van warmte.</v>
+      </c>
+      <c r="M73" t="str">
+        <v>Thermische reiniging</v>
+      </c>
+      <c r="N73" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O73" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
+      </c>
+      <c r="P73" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
+      </c>
+      <c r="Q73" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
+      </c>
+      <c r="R73" t="str">
+        <v>null</v>
+      </c>
+      <c r="S73" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="B74" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C74" t="str">
+        <v>null</v>
+      </c>
+      <c r="D74" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="E74" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="F74" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
+      </c>
+      <c r="G74" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
+      </c>
+      <c r="H74" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="I74" t="str">
+        <v>Boring uitgevoerd voor het beoordelen van de kenmerken van een bewezen ophoping van koolwaterstoffen.</v>
+      </c>
+      <c r="J74" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K74" t="str">
+        <v>waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="L74" t="str">
+        <v>Boring uitgevoerd voor het beoordelen van de kenmerken van een bewezen ophoping van koolwaterstoffen.</v>
+      </c>
+      <c r="M74" t="str">
+        <v>Waardebepaling koolwaterstoffen</v>
+      </c>
+      <c r="N74" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O74" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
+      </c>
+      <c r="P74" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
+      </c>
+      <c r="Q74" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
+      </c>
+      <c r="R74" t="str">
+        <v>null</v>
+      </c>
+      <c r="S74" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+      </c>
+      <c r="B75" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C75" t="str">
+        <v>null</v>
+      </c>
+      <c r="D75" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="E75" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="F75" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
+      </c>
+      <c r="G75" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="H75" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.watercultuur</v>
+      </c>
+      <c r="I75" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van aquacultuur.</v>
+      </c>
+      <c r="J75" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K75" t="str">
+        <v>watercultuur</v>
+      </c>
+      <c r="L75" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van aquacultuur.</v>
+      </c>
+      <c r="M75" t="str">
+        <v>Watercultuur</v>
+      </c>
+      <c r="N75" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O75" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
+      </c>
+      <c r="P75" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
+      </c>
+      <c r="Q75" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
+      </c>
+      <c r="R75" t="str">
+        <v>null</v>
+      </c>
+      <c r="S75" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="B76" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C76" t="str">
+        <v>null</v>
+      </c>
+      <c r="D76" t="str">
+        <v>null</v>
+      </c>
+      <c r="E76" t="str">
+        <v>null</v>
+      </c>
+      <c r="F76" t="str">
+        <v>null</v>
+      </c>
+      <c r="G76" t="str">
+        <v>null</v>
+      </c>
+      <c r="H76" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.doelboringtype</v>
       </c>
-      <c r="D43" t="str">
+      <c r="I76" t="str">
         <v>Beschrijving van het doel waarvoor de boring is uitgevoerd.</v>
       </c>
-      <c r="E43" t="str">
-        <v>null</v>
-      </c>
-      <c r="F43" t="str">
+      <c r="J76" t="str">
+        <v>null</v>
+      </c>
+      <c r="K76" t="str">
         <v>doelboringtype</v>
       </c>
-      <c r="G43" t="str">
+      <c r="L76" t="str">
         <v>Beschrijving van het doel waarvoor de boring is uitgevoerd.</v>
       </c>
-      <c r="H43" t="str">
+      <c r="M76" t="str">
         <v>Codelijst doelboringtype.</v>
       </c>
-      <c r="I43" t="str">
-        <v>null</v>
-      </c>
-      <c r="J43" t="str">
-        <v>null</v>
-      </c>
-      <c r="K43" t="str">
-        <v>null</v>
-      </c>
-      <c r="L43" t="str">
-        <v>null</v>
-      </c>
-      <c r="M43" t="str">
-        <v>null</v>
-      </c>
-      <c r="N43" t="str">
-        <v>null</v>
-      </c>
-      <c r="O43" t="str">
-        <v>null</v>
-      </c>
-      <c r="P43" t="str">
-        <v>null</v>
-      </c>
-      <c r="Q43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/archeologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondverzet|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/kathodischebescherming|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      <c r="N76" t="str">
+        <v>null</v>
+      </c>
+      <c r="O76" t="str">
+        <v>null</v>
+      </c>
+      <c r="P76" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q76" t="str">
+        <v>null</v>
+      </c>
+      <c r="R76" t="str">
+        <v>null</v>
+      </c>
+      <c r="S76" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/archeologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondverzet|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/kathodischebescherming</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q43"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S76"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/doelboringtype/doelboringtype.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/doelboringtype/doelboringtype.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S76"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/opvullenboorgatput</v>
       </c>
       <c r="B69" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4425,46 +4425,46 @@
         <v>null</v>
       </c>
       <c r="D69" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="E69" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="F69" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
+        <v>null</v>
       </c>
       <c r="G69" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
+        <v>null</v>
       </c>
       <c r="H69" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.reservewatervoorziening</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.opvullenboorgatput</v>
       </c>
       <c r="I69" t="str">
-        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van reservewatervoorziening.</v>
+        <v>Boring uitgevoerd voor het opvullen van een boorgat of een grondwaterwinning.</v>
       </c>
       <c r="J69" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="K69" t="str">
-        <v>reservewatervoorziening</v>
+        <v>opvullenboorgatput</v>
       </c>
       <c r="L69" t="str">
-        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van reservewatervoorziening.</v>
+        <v>Boring uitgevoerd voor het opvullen van een boorgat of een grondwaterwinning.</v>
       </c>
       <c r="M69" t="str">
-        <v>Reservewatervoorziening</v>
+        <v>Opvullen van een boring of een grondwaterwinning</v>
       </c>
       <c r="N69" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="O69" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
+        <v>null</v>
       </c>
       <c r="P69" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
+        <v>null</v>
       </c>
       <c r="Q69" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
+        <v>null</v>
       </c>
       <c r="R69" t="str">
         <v>null</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
       </c>
       <c r="B70" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4484,46 +4484,46 @@
         <v>null</v>
       </c>
       <c r="D70" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="E70" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="F70" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
       </c>
       <c r="G70" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
       </c>
       <c r="H70" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.sanering</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.reservewatervoorziening</v>
       </c>
       <c r="I70" t="str">
-        <v>Boring uitgevoerd voor sanering in het algemeen: het verwijderen van vervuiling of verontreiniging uit grondwater, grond en ander gesteente.</v>
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van reservewatervoorziening.</v>
       </c>
       <c r="J70" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="K70" t="str">
-        <v>sanering</v>
+        <v>reservewatervoorziening</v>
       </c>
       <c r="L70" t="str">
-        <v>Boring uitgevoerd voor sanering in het algemeen: het verwijderen van vervuiling of verontreiniging uit grondwater, grond en ander gesteente.</v>
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van reservewatervoorziening.</v>
       </c>
       <c r="M70" t="str">
-        <v>Sanering</v>
+        <v>Reservewatervoorziening</v>
       </c>
       <c r="N70" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="O70" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
       </c>
       <c r="P70" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
       </c>
       <c r="Q70" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
       </c>
       <c r="R70" t="str">
         <v>null</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
       </c>
       <c r="B71" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4543,46 +4543,46 @@
         <v>null</v>
       </c>
       <c r="D71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+        <v>null</v>
       </c>
       <c r="E71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+        <v>null</v>
       </c>
       <c r="F71" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation</v>
       </c>
       <c r="G71" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
       </c>
       <c r="H71" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.schietgat</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.sanering</v>
       </c>
       <c r="I71" t="str">
-        <v>Boring uitgevoerd voor seismisch onderzoek waarbij explosieven in schietgaten worden gestopt</v>
+        <v>Boring uitgevoerd voor sanering in het algemeen: het verwijderen van vervuiling of verontreiniging uit grondwater, grond en ander gesteente.</v>
       </c>
       <c r="J71" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="K71" t="str">
-        <v>schietgat</v>
+        <v>sanering</v>
       </c>
       <c r="L71" t="str">
-        <v>Boring uitgevoerd voor seismisch onderzoek waarbij explosieven in schietgaten worden gestopt</v>
+        <v>Boring uitgevoerd voor sanering in het algemeen: het verwijderen van vervuiling of verontreiniging uit grondwater, grond en ander gesteente.</v>
       </c>
       <c r="M71" t="str">
-        <v>Schietgat</v>
+        <v>Sanering</v>
       </c>
       <c r="N71" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="O71" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation</v>
       </c>
       <c r="P71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
       </c>
       <c r="Q71" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
       </c>
       <c r="R71" t="str">
         <v>null</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
       </c>
       <c r="B72" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4602,46 +4602,46 @@
         <v>null</v>
       </c>
       <c r="D72" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
       </c>
       <c r="E72" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
       </c>
       <c r="F72" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
       </c>
       <c r="G72" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
       </c>
       <c r="H72" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.stromendschietgat</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.schietgat</v>
       </c>
       <c r="I72" t="str">
-        <v>Boring uitgevoerd voor seismisch onderzoek waarbij het boorgat een ondergrondse waterbron heeft geraakt die voldoende druk heeft om het gat te laten overstromen.</v>
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij explosieven in schietgaten worden gestopt</v>
       </c>
       <c r="J72" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="K72" t="str">
-        <v>stromendschietgat</v>
+        <v>schietgat</v>
       </c>
       <c r="L72" t="str">
-        <v>Boring uitgevoerd voor seismisch onderzoek waarbij het boorgat een ondergrondse waterbron heeft geraakt die voldoende druk heeft om het gat te laten overstromen.</v>
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij explosieven in schietgaten worden gestopt</v>
       </c>
       <c r="M72" t="str">
-        <v>Stromend schietgat</v>
+        <v>Schietgat</v>
       </c>
       <c r="N72" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="O72" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
       </c>
       <c r="P72" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
       </c>
       <c r="Q72" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
       </c>
       <c r="R72" t="str">
         <v>null</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
       </c>
       <c r="B73" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4661,46 +4661,46 @@
         <v>null</v>
       </c>
       <c r="D73" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
       </c>
       <c r="E73" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
       </c>
       <c r="F73" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
       </c>
       <c r="G73" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
       </c>
       <c r="H73" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.thermischereiniging</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.stromendschietgat</v>
       </c>
       <c r="I73" t="str">
-        <v>Boring uitgevoerd voor het in situ reinigen van grond met gebruik van warmte.</v>
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij het boorgat een ondergrondse waterbron heeft geraakt die voldoende druk heeft om het gat te laten overstromen.</v>
       </c>
       <c r="J73" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="K73" t="str">
-        <v>thermische reiniging</v>
+        <v>stromendschietgat</v>
       </c>
       <c r="L73" t="str">
-        <v>Boring uitgevoerd voor het in situ reinigen van grond met gebruik van warmte.</v>
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij het boorgat een ondergrondse waterbron heeft geraakt die voldoende druk heeft om het gat te laten overstromen.</v>
       </c>
       <c r="M73" t="str">
-        <v>Thermische reiniging</v>
+        <v>Stromend schietgat</v>
       </c>
       <c r="N73" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="O73" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
       </c>
       <c r="P73" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
       </c>
       <c r="Q73" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
       </c>
       <c r="R73" t="str">
         <v>null</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
       </c>
       <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4720,46 +4720,46 @@
         <v>null</v>
       </c>
       <c r="D74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
       </c>
       <c r="E74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
       </c>
       <c r="F74" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
       </c>
       <c r="G74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
       </c>
       <c r="H74" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.waardebepalingkoolwaterstoffen</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.thermischereiniging</v>
       </c>
       <c r="I74" t="str">
-        <v>Boring uitgevoerd voor het beoordelen van de kenmerken van een bewezen ophoping van koolwaterstoffen.</v>
+        <v>Boring uitgevoerd voor het in situ reinigen van grond met gebruik van warmte.</v>
       </c>
       <c r="J74" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="K74" t="str">
-        <v>waardebepalingkoolwaterstoffen</v>
+        <v>thermische reiniging</v>
       </c>
       <c r="L74" t="str">
-        <v>Boring uitgevoerd voor het beoordelen van de kenmerken van een bewezen ophoping van koolwaterstoffen.</v>
+        <v>Boring uitgevoerd voor het in situ reinigen van grond met gebruik van warmte.</v>
       </c>
       <c r="M74" t="str">
-        <v>Waardebepaling koolwaterstoffen</v>
+        <v>Thermische reiniging</v>
       </c>
       <c r="N74" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="O74" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
       </c>
       <c r="P74" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
       </c>
       <c r="Q74" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
       </c>
       <c r="R74" t="str">
         <v>null</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
       </c>
       <c r="B75" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4779,46 +4779,46 @@
         <v>null</v>
       </c>
       <c r="D75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="E75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="F75" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
       </c>
       <c r="G75" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
       </c>
       <c r="H75" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.watercultuur</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.waardebepalingkoolwaterstoffen</v>
       </c>
       <c r="I75" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van aquacultuur.</v>
+        <v>Boring uitgevoerd voor het beoordelen van de kenmerken van een bewezen ophoping van koolwaterstoffen.</v>
       </c>
       <c r="J75" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="K75" t="str">
-        <v>watercultuur</v>
+        <v>waardebepalingkoolwaterstoffen</v>
       </c>
       <c r="L75" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van aquacultuur.</v>
+        <v>Boring uitgevoerd voor het beoordelen van de kenmerken van een bewezen ophoping van koolwaterstoffen.</v>
       </c>
       <c r="M75" t="str">
-        <v>Watercultuur</v>
+        <v>Waardebepaling koolwaterstoffen</v>
       </c>
       <c r="N75" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="O75" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
       </c>
       <c r="P75" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
       </c>
       <c r="Q75" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
       </c>
       <c r="R75" t="str">
         <v>null</v>
@@ -4829,66 +4829,125 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
       </c>
       <c r="B76" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C76" t="str">
+        <v>null</v>
+      </c>
+      <c r="D76" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="E76" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="F76" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
+      </c>
+      <c r="G76" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="H76" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.watercultuur</v>
+      </c>
+      <c r="I76" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van aquacultuur.</v>
+      </c>
+      <c r="J76" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="K76" t="str">
+        <v>watercultuur</v>
+      </c>
+      <c r="L76" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van aquacultuur.</v>
+      </c>
+      <c r="M76" t="str">
+        <v>Watercultuur</v>
+      </c>
+      <c r="N76" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="O76" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
+      </c>
+      <c r="P76" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
+      </c>
+      <c r="Q76" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
+      </c>
+      <c r="R76" t="str">
+        <v>null</v>
+      </c>
+      <c r="S76" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="B77" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
-      <c r="C76" t="str">
-        <v>null</v>
-      </c>
-      <c r="D76" t="str">
-        <v>null</v>
-      </c>
-      <c r="E76" t="str">
-        <v>null</v>
-      </c>
-      <c r="F76" t="str">
-        <v>null</v>
-      </c>
-      <c r="G76" t="str">
-        <v>null</v>
-      </c>
-      <c r="H76" t="str">
+      <c r="C77" t="str">
+        <v>null</v>
+      </c>
+      <c r="D77" t="str">
+        <v>null</v>
+      </c>
+      <c r="E77" t="str">
+        <v>null</v>
+      </c>
+      <c r="F77" t="str">
+        <v>null</v>
+      </c>
+      <c r="G77" t="str">
+        <v>null</v>
+      </c>
+      <c r="H77" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.doelboringtype</v>
       </c>
-      <c r="I76" t="str">
+      <c r="I77" t="str">
         <v>Beschrijving van het doel waarvoor de boring is uitgevoerd.</v>
       </c>
-      <c r="J76" t="str">
-        <v>null</v>
-      </c>
-      <c r="K76" t="str">
+      <c r="J77" t="str">
+        <v>null</v>
+      </c>
+      <c r="K77" t="str">
         <v>doelboringtype</v>
       </c>
-      <c r="L76" t="str">
+      <c r="L77" t="str">
         <v>Beschrijving van het doel waarvoor de boring is uitgevoerd.</v>
       </c>
-      <c r="M76" t="str">
+      <c r="M77" t="str">
         <v>Codelijst doelboringtype.</v>
       </c>
-      <c r="N76" t="str">
-        <v>null</v>
-      </c>
-      <c r="O76" t="str">
-        <v>null</v>
-      </c>
-      <c r="P76" t="str">
-        <v>null</v>
-      </c>
-      <c r="Q76" t="str">
-        <v>null</v>
-      </c>
-      <c r="R76" t="str">
-        <v>null</v>
-      </c>
-      <c r="S76" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/archeologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondverzet|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/kathodischebescherming</v>
+      <c r="N77" t="str">
+        <v>null</v>
+      </c>
+      <c r="O77" t="str">
+        <v>null</v>
+      </c>
+      <c r="P77" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q77" t="str">
+        <v>null</v>
+      </c>
+      <c r="R77" t="str">
+        <v>null</v>
+      </c>
+      <c r="S77" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/archeologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondverzet|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/kathodischebescherming|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/opvullenboorgatput</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S76"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S77"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/doelboringtype/doelboringtype.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/doelboringtype/doelboringtype.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,78 +410,84 @@
         <v>type</v>
       </c>
       <c r="C1" t="str">
+        <v>closeMatch</v>
+      </c>
+      <c r="D1" t="str">
+        <v>exactMatch</v>
+      </c>
+      <c r="E1" t="str">
+        <v>mappingRelation</v>
+      </c>
+      <c r="F1" t="str">
+        <v>semanticRelation</v>
+      </c>
+      <c r="G1" t="str">
         <v>dc\.identifier</v>
       </c>
-      <c r="D1" t="str">
+      <c r="H1" t="str">
         <v>definition</v>
       </c>
-      <c r="E1" t="str">
+      <c r="I1" t="str">
         <v>inScheme</v>
       </c>
-      <c r="F1" t="str">
+      <c r="J1" t="str">
         <v>notation</v>
       </c>
-      <c r="G1" t="str">
+      <c r="K1" t="str">
         <v>note</v>
       </c>
-      <c r="H1" t="str">
+      <c r="L1" t="str">
         <v>prefLabel</v>
       </c>
-      <c r="I1" t="str">
+      <c r="M1" t="str">
         <v>topConceptOf</v>
       </c>
-      <c r="J1" t="str">
-        <v>seeAlso</v>
-      </c>
-      <c r="K1" t="str">
+      <c r="N1" t="str">
         <v>narrower</v>
       </c>
-      <c r="L1" t="str">
+      <c r="O1" t="str">
         <v>narrowerTransitive</v>
       </c>
-      <c r="M1" t="str">
-        <v>semanticRelation</v>
-      </c>
-      <c r="N1" t="str">
+      <c r="P1" t="str">
         <v>broader</v>
       </c>
-      <c r="O1" t="str">
+      <c r="Q1" t="str">
         <v>broaderTransitive</v>
       </c>
-      <c r="P1" t="str">
+      <c r="R1" t="str">
         <v>altLabel</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="S1" t="str">
         <v>hasTopConcept</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/archeologischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
       </c>
       <c r="B2" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C2" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.archeologischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
       </c>
       <c r="D2" t="str">
-        <v>Boring uitgevoerd voor archeologisch onderzoek.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
       </c>
       <c r="E2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
       </c>
       <c r="F2" t="str">
-        <v>archeologischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
       </c>
       <c r="G2" t="str">
-        <v>Boring uitgevoerd voor archeologisch onderzoek.</v>
+        <v>null</v>
       </c>
       <c r="H2" t="str">
-        <v>Archeologisch onderzoek</v>
+        <v>null</v>
       </c>
       <c r="I2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J2" t="str">
         <v>null</v>
@@ -505,39 +511,45 @@
         <v>null</v>
       </c>
       <c r="Q2" t="str">
+        <v>null</v>
+      </c>
+      <c r="R2" t="str">
+        <v>null</v>
+      </c>
+      <c r="S2" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
       </c>
       <c r="B3" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.berging</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
       </c>
       <c r="D3" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan of voor de berging of veilige opslag van o.a. afval, gas, koolstofdioxide.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
       </c>
       <c r="E3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
       </c>
       <c r="F3" t="str">
-        <v>berging</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
       </c>
       <c r="G3" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan of voor de berging of veilige opslag van o.a. afval, gas, koolstofdioxide.</v>
+        <v>null</v>
       </c>
       <c r="H3" t="str">
-        <v>Berging</v>
+        <v>null</v>
       </c>
       <c r="I3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J3" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
+        <v>null</v>
       </c>
       <c r="K3" t="str">
         <v>null</v>
@@ -558,39 +570,45 @@
         <v>null</v>
       </c>
       <c r="Q3" t="str">
+        <v>null</v>
+      </c>
+      <c r="R3" t="str">
+        <v>null</v>
+      </c>
+      <c r="S3" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering</v>
       </c>
       <c r="B4" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.bodemkundigonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="D4" t="str">
-        <v>Boring uitgevoerd voor het karakteriseren van bodem of grond.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="E4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="F4" t="str">
-        <v>bodemkundigonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="G4" t="str">
-        <v>Boring uitgevoerd voor het karakteriseren van bodem of grond.</v>
+        <v>null</v>
       </c>
       <c r="H4" t="str">
-        <v>Bodemkundig onderzoek</v>
+        <v>null</v>
       </c>
       <c r="I4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J4" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey</v>
+        <v>null</v>
       </c>
       <c r="K4" t="str">
         <v>null</v>
@@ -611,48 +629,54 @@
         <v>null</v>
       </c>
       <c r="Q4" t="str">
+        <v>null</v>
+      </c>
+      <c r="R4" t="str">
+        <v>null</v>
+      </c>
+      <c r="S4" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply</v>
       </c>
       <c r="B5" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.drainagebemaling</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
       </c>
       <c r="D5" t="str">
-        <v>Boring uitgevoerd voor het permanent of tijdelijk draineren of verwijderen van water.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
       </c>
       <c r="E5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
       </c>
       <c r="F5" t="str">
-        <v>drainagebemaling</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
       </c>
       <c r="G5" t="str">
-        <v>Boring uitgevoerd voor het permanent of tijdelijk draineren of verwijderen van water.</v>
+        <v>null</v>
       </c>
       <c r="H5" t="str">
-        <v>Drainage en bemaling</v>
+        <v>null</v>
       </c>
       <c r="I5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J5" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering</v>
+        <v>null</v>
       </c>
       <c r="K5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
+        <v>null</v>
       </c>
       <c r="L5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
+        <v>null</v>
       </c>
       <c r="M5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
+        <v>null</v>
       </c>
       <c r="N5" t="str">
         <v>null</v>
@@ -664,39 +688,45 @@
         <v>null</v>
       </c>
       <c r="Q5" t="str">
+        <v>null</v>
+      </c>
+      <c r="R5" t="str">
+        <v>null</v>
+      </c>
+      <c r="S5" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.drinkwatervoorziening</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
       </c>
       <c r="D6" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van drinkwatervoorziening.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
       </c>
       <c r="E6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
       </c>
       <c r="F6" t="str">
-        <v>drinkwatervoorziening</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
       </c>
       <c r="G6" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van drinkwatervoorziening.</v>
+        <v>null</v>
       </c>
       <c r="H6" t="str">
-        <v>Drinkwatervoorziening</v>
+        <v>null</v>
       </c>
       <c r="I6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J6" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply</v>
+        <v>null</v>
       </c>
       <c r="K6" t="str">
         <v>null</v>
@@ -705,51 +735,57 @@
         <v>null</v>
       </c>
       <c r="M6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="N6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="O6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="P6" t="str">
         <v>null</v>
       </c>
       <c r="Q6" t="str">
+        <v>null</v>
+      </c>
+      <c r="R6" t="str">
+        <v>null</v>
+      </c>
+      <c r="S6" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatiediepegeothermie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
       </c>
       <c r="D7" t="str">
-        <v>Boring uitgevoerd voor de exploitatie of winning van warmte voor gebruik in diepe geothermie.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
       </c>
       <c r="E7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
       </c>
       <c r="F7" t="str">
-        <v>exploitatiediepegeothermie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
       </c>
       <c r="G7" t="str">
-        <v>Boring uitgevoerd voor de exploitatie of winning van warmte voor gebruik in diepe geothermie.</v>
+        <v>null</v>
       </c>
       <c r="H7" t="str">
-        <v>Exploitatie diepe geothermie</v>
+        <v>null</v>
       </c>
       <c r="I7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J7" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+        <v>null</v>
       </c>
       <c r="K7" t="str">
         <v>null</v>
@@ -758,51 +794,57 @@
         <v>null</v>
       </c>
       <c r="M7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P7" t="str">
         <v>null</v>
       </c>
       <c r="Q7" t="str">
+        <v>null</v>
+      </c>
+      <c r="R7" t="str">
+        <v>null</v>
+      </c>
+      <c r="S7" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatieenergiebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
       </c>
       <c r="D8" t="str">
-        <v>Boring uitgevoerd voor de exploitatie of winning van energie bronnen.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
       </c>
       <c r="E8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
       </c>
       <c r="F8" t="str">
-        <v>exploitatieenergiebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
       </c>
       <c r="G8" t="str">
-        <v>Boring uitgevoerd voor de exploitatie of winning van energie bronnen.</v>
+        <v>null</v>
       </c>
       <c r="H8" t="str">
-        <v>Exploitatie energie bronnen</v>
+        <v>null</v>
       </c>
       <c r="I8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J8" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
+        <v>null</v>
       </c>
       <c r="K8" t="str">
         <v>null</v>
@@ -811,51 +853,57 @@
         <v>null</v>
       </c>
       <c r="M8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
+        <v>null</v>
       </c>
       <c r="N8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
+        <v>null</v>
       </c>
       <c r="O8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
+        <v>null</v>
       </c>
       <c r="P8" t="str">
         <v>null</v>
       </c>
       <c r="Q8" t="str">
+        <v>null</v>
+      </c>
+      <c r="R8" t="str">
+        <v>null</v>
+      </c>
+      <c r="S8" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatiekoolwaterstoffen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen</v>
       </c>
       <c r="D9" t="str">
-        <v>Boring uitgevoerd voor de productie van aardolie en/of gas.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen</v>
       </c>
       <c r="E9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen</v>
       </c>
       <c r="F9" t="str">
-        <v>exploitatiekoolwaterstoffen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen</v>
       </c>
       <c r="G9" t="str">
-        <v>Boring uitgevoerd voor de productie van aardolie en/of gas.</v>
+        <v>null</v>
       </c>
       <c r="H9" t="str">
-        <v>Exploitatie koolwaterstoffen</v>
+        <v>null</v>
       </c>
       <c r="I9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J9" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction</v>
+        <v>null</v>
       </c>
       <c r="K9" t="str">
         <v>null</v>
@@ -864,51 +912,57 @@
         <v>null</v>
       </c>
       <c r="M9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P9" t="str">
         <v>null</v>
       </c>
       <c r="Q9" t="str">
+        <v>null</v>
+      </c>
+      <c r="R9" t="str">
+        <v>null</v>
+      </c>
+      <c r="S9" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatiemineralebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="D10" t="str">
-        <v>Boring uitgevoerd voor de exploitatie of winning van minerale bronnen.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="E10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="F10" t="str">
-        <v>exploitatiemineralebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="G10" t="str">
-        <v>Boring uitgevoerd voor de exploitatie of winning van minerale bronnen.</v>
+        <v>null</v>
       </c>
       <c r="H10" t="str">
-        <v>Exploitatie minerale bronnen</v>
+        <v>null</v>
       </c>
       <c r="I10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J10" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+        <v>null</v>
       </c>
       <c r="K10" t="str">
         <v>null</v>
@@ -917,51 +971,57 @@
         <v>null</v>
       </c>
       <c r="M10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P10" t="str">
         <v>null</v>
       </c>
       <c r="Q10" t="str">
+        <v>null</v>
+      </c>
+      <c r="R10" t="str">
+        <v>null</v>
+      </c>
+      <c r="S10" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratiediepegeothermie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
       </c>
       <c r="D11" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van warmte voor gebruik in diepe geothermie.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
       </c>
       <c r="E11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
       </c>
       <c r="F11" t="str">
-        <v>exploratiediepegeothermie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
       </c>
       <c r="G11" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van warmte voor gebruik in diepe geothermie.</v>
+        <v>null</v>
       </c>
       <c r="H11" t="str">
-        <v>Exploratie diepe geothermie</v>
+        <v>null</v>
       </c>
       <c r="I11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J11" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+        <v>null</v>
       </c>
       <c r="K11" t="str">
         <v>null</v>
@@ -970,51 +1030,57 @@
         <v>null</v>
       </c>
       <c r="M11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P11" t="str">
         <v>null</v>
       </c>
       <c r="Q11" t="str">
+        <v>null</v>
+      </c>
+      <c r="R11" t="str">
+        <v>null</v>
+      </c>
+      <c r="S11" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratieenergiebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
       </c>
       <c r="D12" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van energie bronnen.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
       </c>
       <c r="E12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
       </c>
       <c r="F12" t="str">
-        <v>exploratieenergiebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
       </c>
       <c r="G12" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van energie bronnen.</v>
+        <v>null</v>
       </c>
       <c r="H12" t="str">
-        <v>Exploratie energie bronnen</v>
+        <v>null</v>
       </c>
       <c r="I12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J12" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources</v>
+        <v>null</v>
       </c>
       <c r="K12" t="str">
         <v>null</v>
@@ -1035,39 +1101,45 @@
         <v>null</v>
       </c>
       <c r="Q12" t="str">
+        <v>null</v>
+      </c>
+      <c r="R12" t="str">
+        <v>null</v>
+      </c>
+      <c r="S12" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratiekoolwaterstoffen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
       </c>
       <c r="D13" t="str">
-        <v>Boring uitgevoerd voor de opsporing van koolwaterstoffen in een niet bewezen gebied.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
       </c>
       <c r="E13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
       </c>
       <c r="F13" t="str">
-        <v>exploratiekoolwaterstoffen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
       </c>
       <c r="G13" t="str">
-        <v>Boring uitgevoerd voor de opsporing van koolwaterstoffen in een niet bewezen gebied.</v>
+        <v>null</v>
       </c>
       <c r="H13" t="str">
-        <v>Exploratie koolwaterstoffen</v>
+        <v>null</v>
       </c>
       <c r="I13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J13" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration</v>
+        <v>null</v>
       </c>
       <c r="K13" t="str">
         <v>null</v>
@@ -1076,48 +1148,54 @@
         <v>null</v>
       </c>
       <c r="M13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P13" t="str">
         <v>null</v>
       </c>
       <c r="Q13" t="str">
+        <v>null</v>
+      </c>
+      <c r="R13" t="str">
+        <v>null</v>
+      </c>
+      <c r="S13" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratiemineralebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
       </c>
       <c r="D14" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van minerale bronnen.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
       </c>
       <c r="E14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
       </c>
       <c r="F14" t="str">
-        <v>exploratiemineralebronnen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
       </c>
       <c r="G14" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van minerale bronnen.|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+        <v>null</v>
       </c>
       <c r="H14" t="str">
-        <v>Exploratie minerale bronnen</v>
+        <v>null</v>
       </c>
       <c r="I14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J14" t="str">
         <v>null</v>
@@ -1129,51 +1207,57 @@
         <v>null</v>
       </c>
       <c r="M14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P14" t="str">
         <v>null</v>
       </c>
       <c r="Q14" t="str">
+        <v>null</v>
+      </c>
+      <c r="R14" t="str">
+        <v>null</v>
+      </c>
+      <c r="S14" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratieondergrondseopslag</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
       </c>
       <c r="D15" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
       </c>
       <c r="E15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
       </c>
       <c r="F15" t="str">
-        <v>exploratieondergrondseopslag</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
       </c>
       <c r="G15" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan.</v>
+        <v>null</v>
       </c>
       <c r="H15" t="str">
-        <v>Exploratie ondergrondse opslag</v>
+        <v>null</v>
       </c>
       <c r="I15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J15" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage</v>
+        <v>null</v>
       </c>
       <c r="K15" t="str">
         <v>null</v>
@@ -1194,39 +1278,45 @@
         <v>null</v>
       </c>
       <c r="Q15" t="str">
+        <v>null</v>
+      </c>
+      <c r="R15" t="str">
+        <v>null</v>
+      </c>
+      <c r="S15" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C16" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geochemischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
       </c>
       <c r="D16" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de geochemische eigenschappen van de (onder)grond en of van porositeitsvloeistoffen.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
       </c>
       <c r="E16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
       </c>
       <c r="F16" t="str">
-        <v>geochemischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
       </c>
       <c r="G16" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de geochemische eigenschappen van de (onder)grond en of van porositeitsvloeistoffen.</v>
+        <v>null</v>
       </c>
       <c r="H16" t="str">
-        <v>Geochemisch onderzoek</v>
+        <v>null</v>
       </c>
       <c r="I16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J16" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey</v>
+        <v>null</v>
       </c>
       <c r="K16" t="str">
         <v>null</v>
@@ -1247,48 +1337,54 @@
         <v>null</v>
       </c>
       <c r="Q16" t="str">
+        <v>null</v>
+      </c>
+      <c r="R16" t="str">
+        <v>null</v>
+      </c>
+      <c r="S16" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C17" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geofysischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
       </c>
       <c r="D17" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de geofysische eigenschappen van de (onder)grond.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
       </c>
       <c r="E17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
       </c>
       <c r="F17" t="str">
-        <v>geofysischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
       </c>
       <c r="G17" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de geofysische eigenschappen van de (onder)grond.</v>
+        <v>null</v>
       </c>
       <c r="H17" t="str">
-        <v>Geofysisch onderzoek</v>
+        <v>null</v>
       </c>
       <c r="I17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J17" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey</v>
+        <v>null</v>
       </c>
       <c r="K17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+        <v>null</v>
       </c>
       <c r="L17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+        <v>null</v>
       </c>
       <c r="M17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+        <v>null</v>
       </c>
       <c r="N17" t="str">
         <v>null</v>
@@ -1300,39 +1396,45 @@
         <v>null</v>
       </c>
       <c r="Q17" t="str">
+        <v>null</v>
+      </c>
+      <c r="R17" t="str">
+        <v>null</v>
+      </c>
+      <c r="S17" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C18" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geologischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
       </c>
       <c r="D18" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de geologische opbouw van de (onder)grond.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
       </c>
       <c r="E18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
       </c>
       <c r="F18" t="str">
-        <v>geologischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
       </c>
       <c r="G18" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de geologische opbouw van de (onder)grond.</v>
+        <v>null</v>
       </c>
       <c r="H18" t="str">
-        <v>Geologisch onderzoek</v>
+        <v>null</v>
       </c>
       <c r="I18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J18" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey</v>
+        <v>null</v>
       </c>
       <c r="K18" t="str">
         <v>null</v>
@@ -1353,39 +1455,45 @@
         <v>null</v>
       </c>
       <c r="Q18" t="str">
+        <v>null</v>
+      </c>
+      <c r="R18" t="str">
+        <v>null</v>
+      </c>
+      <c r="S18" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C19" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geotechnischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
       </c>
       <c r="D19" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de fysische en mechanische eigenschappen van de ondergrond gerelateerd aan bouw- en infrastructuurwerken.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
       </c>
       <c r="E19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
       </c>
       <c r="F19" t="str">
-        <v>geotechnischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
       </c>
       <c r="G19" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar de fysische en mechanische eigenschappen van de ondergrond gerelateerd aan bouw- en infrastructuurwerken.</v>
+        <v>null</v>
       </c>
       <c r="H19" t="str">
-        <v>Geotechnisch onderzoek</v>
+        <v>null</v>
       </c>
       <c r="I19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J19" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey</v>
+        <v>null</v>
       </c>
       <c r="K19" t="str">
         <v>null</v>
@@ -1406,39 +1514,45 @@
         <v>null</v>
       </c>
       <c r="Q19" t="str">
+        <v>null</v>
+      </c>
+      <c r="R19" t="str">
+        <v>null</v>
+      </c>
+      <c r="S19" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C20" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geothermie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
       </c>
       <c r="D20" t="str">
-        <v>Boring uitgevoerd voor ondiepe geothemische energie opslag in een boorgat (BEO, bodemlus, BTES) of voor koude-warmteopslag (KWO, WKO, ATES).</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
       </c>
       <c r="E20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
       </c>
       <c r="F20" t="str">
-        <v>geothermie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
       </c>
       <c r="G20" t="str">
-        <v>Boring uitgevoerd voor ondiepe geothemische energie opslag in een boorgat (BEO, bodemlus, BTES) of voor koude-warmteopslag (KWO, WKO, ATES).</v>
+        <v>null</v>
       </c>
       <c r="H20" t="str">
-        <v>Geothermie</v>
+        <v>null</v>
       </c>
       <c r="I20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J20" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy</v>
+        <v>null</v>
       </c>
       <c r="K20" t="str">
         <v>null</v>
@@ -1447,60 +1561,66 @@
         <v>null</v>
       </c>
       <c r="M20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P20" t="str">
-        <v>Ondiepe geothermie</v>
+        <v>null</v>
       </c>
       <c r="Q20" t="str">
+        <v>null</v>
+      </c>
+      <c r="R20" t="str">
+        <v>null</v>
+      </c>
+      <c r="S20" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C21" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondstoffen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="D21" t="str">
-        <v>Boring uitgevoerd voor de opsporing en ontginning van grondstoffen.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="E21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="F21" t="str">
-        <v>grondstoffen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="G21" t="str">
-        <v>Boring uitgevoerd voor de opsporing en ontginning van grondstoffen.</v>
+        <v>null</v>
       </c>
       <c r="H21" t="str">
-        <v>Opsporing en ontginning van grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="I21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J21" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial</v>
+        <v>null</v>
       </c>
       <c r="K21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+        <v>null</v>
       </c>
       <c r="L21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+        <v>null</v>
       </c>
       <c r="M21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+        <v>null</v>
       </c>
       <c r="N21" t="str">
         <v>null</v>
@@ -1512,36 +1632,42 @@
         <v>null</v>
       </c>
       <c r="Q21" t="str">
+        <v>null</v>
+      </c>
+      <c r="R21" t="str">
+        <v>null</v>
+      </c>
+      <c r="S21" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondverzet</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondverzet</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
       </c>
       <c r="D22" t="str">
-        <v>Boring uitgevoerd in het kader van grondverzet regelgeving.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
       </c>
       <c r="E22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
       </c>
       <c r="F22" t="str">
-        <v>grondverzet</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
       </c>
       <c r="G22" t="str">
-        <v>Boring uitgevoerd in het kader van grondverzet regelgeving.</v>
+        <v>null</v>
       </c>
       <c r="H22" t="str">
-        <v>Grondverzet</v>
+        <v>null</v>
       </c>
       <c r="I22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J22" t="str">
         <v>null</v>
@@ -1565,39 +1691,45 @@
         <v>null</v>
       </c>
       <c r="Q22" t="str">
+        <v>null</v>
+      </c>
+      <c r="R22" t="str">
+        <v>null</v>
+      </c>
+      <c r="S22" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C23" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwaterkwaliteitmonitoring</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
       </c>
       <c r="D23" t="str">
-        <v>Boring uitgevoerd voor de monitoring van de kwaliteit of chemische samenstelling van het grondwater.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
       </c>
       <c r="E23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
       </c>
       <c r="F23" t="str">
-        <v>grondwaterkwaliteitmonitoring</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
       </c>
       <c r="G23" t="str">
-        <v>Boring uitgevoerd voor de monitoring van de kwaliteit of chemische samenstelling van het grondwater.</v>
+        <v>null</v>
       </c>
       <c r="H23" t="str">
-        <v>Grondwaterkwaliteit monitoring</v>
+        <v>null</v>
       </c>
       <c r="I23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J23" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring</v>
+        <v>null</v>
       </c>
       <c r="K23" t="str">
         <v>null</v>
@@ -1606,51 +1738,57 @@
         <v>null</v>
       </c>
       <c r="M23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="N23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="O23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="P23" t="str">
         <v>null</v>
       </c>
       <c r="Q23" t="str">
+        <v>null</v>
+      </c>
+      <c r="R23" t="str">
+        <v>null</v>
+      </c>
+      <c r="S23" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C24" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwaterkwantiteitmonitoring</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
       </c>
       <c r="D24" t="str">
-        <v>Boring uitgevoerd voor de monitoring van de kwantiteit of het niveau van het grondwater.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
       </c>
       <c r="E24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
       </c>
       <c r="F24" t="str">
-        <v>grondwaterkwantiteitmonitoring</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
       </c>
       <c r="G24" t="str">
-        <v>Boring uitgevoerd voor de monitoring van de kwantiteit of het niveau van het grondwater.</v>
+        <v>null</v>
       </c>
       <c r="H24" t="str">
-        <v>Grondwaterkwantiteit monitoring</v>
+        <v>null</v>
       </c>
       <c r="I24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J24" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring</v>
+        <v>null</v>
       </c>
       <c r="K24" t="str">
         <v>null</v>
@@ -1659,60 +1797,66 @@
         <v>null</v>
       </c>
       <c r="M24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="N24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="O24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="P24" t="str">
         <v>null</v>
       </c>
       <c r="Q24" t="str">
+        <v>null</v>
+      </c>
+      <c r="R24" t="str">
+        <v>null</v>
+      </c>
+      <c r="S24" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C25" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwatermonitoring</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen</v>
       </c>
       <c r="D25" t="str">
-        <v>Boring uitgevoerd voor de monitoring van de kwaliteit en/of kwantiteit van het grondwater.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen</v>
       </c>
       <c r="E25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen</v>
       </c>
       <c r="F25" t="str">
-        <v>grondwatermonitoring</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen</v>
       </c>
       <c r="G25" t="str">
-        <v>Boring uitgevoerd voor de monitoring van de kwaliteit en/of kwantiteit van het grondwater.</v>
+        <v>null</v>
       </c>
       <c r="H25" t="str">
-        <v>Grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="I25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J25" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring</v>
+        <v>null</v>
       </c>
       <c r="K25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+        <v>null</v>
       </c>
       <c r="L25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+        <v>null</v>
       </c>
       <c r="M25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+        <v>null</v>
       </c>
       <c r="N25" t="str">
         <v>null</v>
@@ -1721,51 +1865,57 @@
         <v>null</v>
       </c>
       <c r="P25" t="str">
-        <v>Milieumonitoring, Environmental monitoring</v>
+        <v>null</v>
       </c>
       <c r="Q25" t="str">
+        <v>null</v>
+      </c>
+      <c r="R25" t="str">
+        <v>null</v>
+      </c>
+      <c r="S25" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C26" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwaterwinning</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie</v>
       </c>
       <c r="D26" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van watervoorziening.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie</v>
       </c>
       <c r="E26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie</v>
       </c>
       <c r="F26" t="str">
-        <v>grondwaterwinning</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie</v>
       </c>
       <c r="G26" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van watervoorziening.</v>
+        <v>null</v>
       </c>
       <c r="H26" t="str">
-        <v>Grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="I26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J26" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply</v>
+        <v>null</v>
       </c>
       <c r="K26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+        <v>null</v>
       </c>
       <c r="L26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+        <v>null</v>
       </c>
       <c r="M26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+        <v>null</v>
       </c>
       <c r="N26" t="str">
         <v>null</v>
@@ -1777,39 +1927,45 @@
         <v>null</v>
       </c>
       <c r="Q26" t="str">
+        <v>null</v>
+      </c>
+      <c r="R26" t="str">
+        <v>null</v>
+      </c>
+      <c r="S26" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C27" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.hydrogeologischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="D27" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar grondwaterstroming, de chemische eigenschappen van grondwater, en transport van deeltjes, opgeloste stoffen en energie, evenals het management van het duurzame gebruik van grondwaterbronnen.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="E27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="F27" t="str">
-        <v>hydrogeologischonderzoek</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="G27" t="str">
-        <v>Boring uitgevoerd voor onderzoek naar grondwaterstroming, de chemische eigenschappen van grondwater, en transport van deeltjes, opgeloste stoffen en energie, evenals het management van het duurzame gebruik van grondwaterbronnen.</v>
+        <v>null</v>
       </c>
       <c r="H27" t="str">
-        <v>Hydrogeologisch onderzoek</v>
+        <v>null</v>
       </c>
       <c r="I27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J27" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey</v>
+        <v>null</v>
       </c>
       <c r="K27" t="str">
         <v>null</v>
@@ -1830,39 +1986,45 @@
         <v>null</v>
       </c>
       <c r="Q27" t="str">
+        <v>null</v>
+      </c>
+      <c r="R27" t="str">
+        <v>null</v>
+      </c>
+      <c r="S27" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C28" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.industrielewatervoorziening</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
       </c>
       <c r="D28" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van industriële watervoorziening.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
       </c>
       <c r="E28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
       </c>
       <c r="F28" t="str">
-        <v>industrielewatervoorziening</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
       </c>
       <c r="G28" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van industriële watervoorziening.</v>
+        <v>null</v>
       </c>
       <c r="H28" t="str">
-        <v>Industriële watervoorziening</v>
+        <v>null</v>
       </c>
       <c r="I28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J28" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply</v>
+        <v>null</v>
       </c>
       <c r="K28" t="str">
         <v>null</v>
@@ -1871,51 +2033,57 @@
         <v>null</v>
       </c>
       <c r="M28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="N28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="O28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="P28" t="str">
         <v>null</v>
       </c>
       <c r="Q28" t="str">
+        <v>null</v>
+      </c>
+      <c r="R28" t="str">
+        <v>null</v>
+      </c>
+      <c r="S28" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C29" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.infiltratie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
       </c>
       <c r="D29" t="str">
-        <v>Boring uitgevoerd voor het kunstmatig aanvullen van grondwater door injectie uit diverse bronnen.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
       </c>
       <c r="E29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
       </c>
       <c r="F29" t="str">
-        <v>infiltratie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
       </c>
       <c r="G29" t="str">
-        <v>Boring uitgevoerd voor het kunstmatig aanvullen van grondwater door injectie uit diverse bronnen.</v>
+        <v>null</v>
       </c>
       <c r="H29" t="str">
-        <v>Infiltratie</v>
+        <v>null</v>
       </c>
       <c r="I29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J29" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge</v>
+        <v>null</v>
       </c>
       <c r="K29" t="str">
         <v>null</v>
@@ -1936,39 +2104,45 @@
         <v>null</v>
       </c>
       <c r="Q29" t="str">
+        <v>null</v>
+      </c>
+      <c r="R29" t="str">
+        <v>null</v>
+      </c>
+      <c r="S29" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C30" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.irrigatie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
       </c>
       <c r="D30" t="str">
-        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van irrigatie.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
       </c>
       <c r="E30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
       </c>
       <c r="F30" t="str">
-        <v>irrigatie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
       </c>
       <c r="G30" t="str">
-        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van irrigatie.</v>
+        <v>null</v>
       </c>
       <c r="H30" t="str">
-        <v>Irrigatie</v>
+        <v>null</v>
       </c>
       <c r="I30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J30" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation</v>
+        <v>null</v>
       </c>
       <c r="K30" t="str">
         <v>null</v>
@@ -1977,48 +2151,54 @@
         <v>null</v>
       </c>
       <c r="M30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="N30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="O30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="P30" t="str">
         <v>null</v>
       </c>
       <c r="Q30" t="str">
+        <v>null</v>
+      </c>
+      <c r="R30" t="str">
+        <v>null</v>
+      </c>
+      <c r="S30" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/kathodischebescherming</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C31" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.kathodischebescherming</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
       </c>
       <c r="D31" t="str">
-        <v>Boring uitgevoerd voor kathodische bescherming.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
       </c>
       <c r="E31" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
       </c>
       <c r="F31" t="str">
-        <v>kathodischebescherming</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
       </c>
       <c r="G31" t="str">
-        <v>Boring uitgevoerd voor kathodische bescherming.</v>
+        <v>null</v>
       </c>
       <c r="H31" t="str">
-        <v>Kathodische bescherming</v>
+        <v>null</v>
       </c>
       <c r="I31" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J31" t="str">
         <v>null</v>
@@ -2042,39 +2222,45 @@
         <v>null</v>
       </c>
       <c r="Q31" t="str">
+        <v>null</v>
+      </c>
+      <c r="R31" t="str">
+        <v>null</v>
+      </c>
+      <c r="S31" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C32" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.mineraleafzettingen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
       </c>
       <c r="D32" t="str">
-        <v>Boring uitgevoerd voor de opsporing van niet-metallische minerale afzettingen, voornamelijk ten behoeve van de bouw, en de natuursteen-, cement-, aardewerk- of glasindustrie.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
       </c>
       <c r="E32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
       </c>
       <c r="F32" t="str">
-        <v>mineraleafzettingen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
       </c>
       <c r="G32" t="str">
-        <v>Boring uitgevoerd voor de opsporing van niet-metallische minerale afzettingen, voornamelijk ten behoeve van de bouw, en de natuursteen-, cement-, aardewerk- of glasindustrie.</v>
+        <v>null</v>
       </c>
       <c r="H32" t="str">
-        <v>Exploratie en exploitatie van niet-metallische minerale afzettingen</v>
+        <v>null</v>
       </c>
       <c r="I32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J32" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits</v>
+        <v>null</v>
       </c>
       <c r="K32" t="str">
         <v>null</v>
@@ -2083,51 +2269,57 @@
         <v>null</v>
       </c>
       <c r="M32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="N32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="O32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+        <v>null</v>
       </c>
       <c r="P32" t="str">
         <v>null</v>
       </c>
       <c r="Q32" t="str">
+        <v>null</v>
+      </c>
+      <c r="R32" t="str">
+        <v>null</v>
+      </c>
+      <c r="S32" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C33" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.mitigatie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
       </c>
       <c r="D33" t="str">
-        <v>Boring uitgevoerd voor het verlagen van het grondwaterniveau om te voorkomen dat het grondwater vervuilde plaatsen bereikt.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
       </c>
       <c r="E33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
       </c>
       <c r="F33" t="str">
-        <v>mitigatie</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
       </c>
       <c r="G33" t="str">
-        <v>Boring uitgevoerd voor het verlagen van het grondwaterniveau om te voorkomen dat het grondwater vervuilde plaatsen bereikt.</v>
+        <v>null</v>
       </c>
       <c r="H33" t="str">
-        <v>Mitigatie</v>
+        <v>null</v>
       </c>
       <c r="I33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J33" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation</v>
+        <v>null</v>
       </c>
       <c r="K33" t="str">
         <v>null</v>
@@ -2136,51 +2328,57 @@
         <v>null</v>
       </c>
       <c r="M33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>null</v>
       </c>
       <c r="N33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>null</v>
       </c>
       <c r="O33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>null</v>
       </c>
       <c r="P33" t="str">
         <v>null</v>
       </c>
       <c r="Q33" t="str">
+        <v>null</v>
+      </c>
+      <c r="R33" t="str">
+        <v>null</v>
+      </c>
+      <c r="S33" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C34" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.monitoringvervuildesites</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="D34" t="str">
-        <v>Boring uitgevoerd in het kader van een bodemonderzoek en/of in het kader van bodemdecreet regelgeving.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="E34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="F34" t="str">
-        <v>monitoringvervuildesites</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="G34" t="str">
-        <v>Boring uitgevoerd in het kader van een bodemonderzoek en/of in het kader van bodemdecreet regelgeving.</v>
+        <v>null</v>
       </c>
       <c r="H34" t="str">
-        <v>Monitoring vervuilde sites</v>
+        <v>null</v>
       </c>
       <c r="I34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="J34" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring</v>
+        <v>null</v>
       </c>
       <c r="K34" t="str">
         <v>null</v>
@@ -2189,113 +2387,125 @@
         <v>null</v>
       </c>
       <c r="M34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="N34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="O34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+        <v>null</v>
       </c>
       <c r="P34" t="str">
         <v>null</v>
       </c>
       <c r="Q34" t="str">
+        <v>null</v>
+      </c>
+      <c r="R34" t="str">
+        <v>null</v>
+      </c>
+      <c r="S34" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/archeologischonderzoek</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C35" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.noodwatervoorziening</v>
+        <v>null</v>
       </c>
       <c r="D35" t="str">
-        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van noodwatervoorziening.</v>
+        <v>null</v>
       </c>
       <c r="E35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>null</v>
       </c>
       <c r="F35" t="str">
-        <v>noodwatervoorziening</v>
+        <v>null</v>
       </c>
       <c r="G35" t="str">
-        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van noodwatervoorziening.</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.archeologischonderzoek</v>
       </c>
       <c r="H35" t="str">
-        <v>Noodwatervoorziening</v>
+        <v>Boring uitgevoerd voor archeologisch onderzoek.</v>
       </c>
       <c r="I35" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J35" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply</v>
+        <v>archeologischonderzoek</v>
       </c>
       <c r="K35" t="str">
-        <v>null</v>
+        <v>Boring uitgevoerd voor archeologisch onderzoek.</v>
       </c>
       <c r="L35" t="str">
-        <v>null</v>
+        <v>Archeologisch onderzoek</v>
       </c>
       <c r="M35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="N35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="O35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="P35" t="str">
         <v>null</v>
       </c>
       <c r="Q35" t="str">
+        <v>null</v>
+      </c>
+      <c r="R35" t="str">
+        <v>null</v>
+      </c>
+      <c r="S35" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/opvullenboorgatput</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C36" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.opvullenboorgatput</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
       </c>
       <c r="D36" t="str">
-        <v>Boring uitgevoerd voor het opvullen van een boorgat of een grondwaterwinning.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
       </c>
       <c r="E36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
       </c>
       <c r="F36" t="str">
-        <v>opvullenboorgatput</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
       </c>
       <c r="G36" t="str">
-        <v>Boring uitgevoerd voor het opvullen van een boorgat of een grondwaterwinning.</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.berging</v>
       </c>
       <c r="H36" t="str">
-        <v>Opvullen van een boring of een grondwaterwinning</v>
+        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan of voor de berging of veilige opslag van o.a. afval, gas, koolstofdioxide.</v>
       </c>
       <c r="I36" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J36" t="str">
-        <v>null</v>
+        <v>berging</v>
       </c>
       <c r="K36" t="str">
-        <v>null</v>
+        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan of voor de berging of veilige opslag van o.a. afval, gas, koolstofdioxide.</v>
       </c>
       <c r="L36" t="str">
-        <v>null</v>
+        <v>Berging</v>
       </c>
       <c r="M36" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="N36" t="str">
         <v>null</v>
@@ -2307,436 +2517,2437 @@
         <v>null</v>
       </c>
       <c r="Q36" t="str">
+        <v>null</v>
+      </c>
+      <c r="R36" t="str">
+        <v>null</v>
+      </c>
+      <c r="S36" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C37" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.reservewatervoorziening</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="D37" t="str">
-        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van reservewatervoorziening.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="E37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="F37" t="str">
-        <v>reservewatervoorziening</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek</v>
       </c>
       <c r="G37" t="str">
-        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van reservewatervoorziening.</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.bodemkundigonderzoek</v>
       </c>
       <c r="H37" t="str">
-        <v>Reservewatervoorziening</v>
+        <v>Boring uitgevoerd voor het karakteriseren van bodem of grond.</v>
       </c>
       <c r="I37" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J37" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply</v>
+        <v>bodemkundigonderzoek</v>
       </c>
       <c r="K37" t="str">
-        <v>null</v>
+        <v>Boring uitgevoerd voor het karakteriseren van bodem of grond.</v>
       </c>
       <c r="L37" t="str">
-        <v>null</v>
+        <v>Bodemkundig onderzoek</v>
       </c>
       <c r="M37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="N37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="O37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="P37" t="str">
         <v>null</v>
       </c>
       <c r="Q37" t="str">
+        <v>null</v>
+      </c>
+      <c r="R37" t="str">
+        <v>null</v>
+      </c>
+      <c r="S37" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.sanering</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="D38" t="str">
-        <v>Boring uitgevoerd voor sanering in het algemeen: het verwijderen van vervuiling of verontreiniging uit grondwater, grond en ander gesteente.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="E38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="F38" t="str">
-        <v>sanering</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/dewatering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
       </c>
       <c r="G38" t="str">
-        <v>Boring uitgevoerd voor sanering in het algemeen: het verwijderen van vervuiling of verontreiniging uit grondwater, grond en ander gesteente.</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.drainagebemaling</v>
       </c>
       <c r="H38" t="str">
-        <v>Sanering</v>
+        <v>Boring uitgevoerd voor het permanent of tijdelijk draineren of verwijderen van water.</v>
       </c>
       <c r="I38" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J38" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation</v>
+        <v>drainagebemaling</v>
       </c>
       <c r="K38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+        <v>Boring uitgevoerd voor het permanent of tijdelijk draineren of verwijderen van water.</v>
       </c>
       <c r="L38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+        <v>Drainage en bemaling</v>
       </c>
       <c r="M38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="N38" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
       </c>
       <c r="O38" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
       </c>
       <c r="P38" t="str">
         <v>null</v>
       </c>
       <c r="Q38" t="str">
+        <v>null</v>
+      </c>
+      <c r="R38" t="str">
+        <v>null</v>
+      </c>
+      <c r="S38" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.schietgat</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
       </c>
       <c r="D39" t="str">
-        <v>Boring uitgevoerd voor seismisch onderzoek waarbij explosieven in schietgaten worden gestopt</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
       </c>
       <c r="E39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening</v>
       </c>
       <c r="F39" t="str">
-        <v>schietgat</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/drinkingWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="G39" t="str">
-        <v>Boring uitgevoerd voor seismisch onderzoek waarbij explosieven in schietgaten worden gestopt</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.drinkwatervoorziening</v>
       </c>
       <c r="H39" t="str">
-        <v>Schietgat</v>
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van drinkwatervoorziening.</v>
       </c>
       <c r="I39" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J39" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole</v>
+        <v>drinkwatervoorziening</v>
       </c>
       <c r="K39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van drinkwatervoorziening.</v>
       </c>
       <c r="L39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+        <v>Drinkwatervoorziening</v>
       </c>
       <c r="M39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="N39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+        <v>null</v>
       </c>
       <c r="O39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+        <v>null</v>
       </c>
       <c r="P39" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
       </c>
       <c r="Q39" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="R39" t="str">
+        <v>null</v>
+      </c>
+      <c r="S39" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.stromendschietgat</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
       </c>
       <c r="D40" t="str">
-        <v>Boring uitgevoerd voor seismisch onderzoek waarbij het boorgat een ondergrondse waterbron heeft geraakt die voldoende druk heeft om het gat te laten overstromen.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
       </c>
       <c r="E40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
       </c>
       <c r="F40" t="str">
-        <v>stromendschietgat</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
       </c>
       <c r="G40" t="str">
-        <v>Boring uitgevoerd voor seismisch onderzoek waarbij het boorgat een ondergrondse waterbron heeft geraakt die voldoende druk heeft om het gat te laten overstromen.</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatiediepegeothermie</v>
       </c>
       <c r="H40" t="str">
-        <v>Stromend schietgat</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van warmte voor gebruik in diepe geothermie.</v>
       </c>
       <c r="I40" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J40" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot</v>
+        <v>exploitatiediepegeothermie</v>
       </c>
       <c r="K40" t="str">
-        <v>null</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van warmte voor gebruik in diepe geothermie.</v>
       </c>
       <c r="L40" t="str">
-        <v>null</v>
+        <v>Exploitatie diepe geothermie</v>
       </c>
       <c r="M40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="N40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+        <v>null</v>
       </c>
       <c r="O40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+        <v>null</v>
       </c>
       <c r="P40" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="Q40" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="R40" t="str">
+        <v>null</v>
+      </c>
+      <c r="S40" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C41" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.thermischereiniging</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
       </c>
       <c r="D41" t="str">
-        <v>Boring uitgevoerd voor het in situ reinigen van grond met gebruik van warmte.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
       </c>
       <c r="E41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
       </c>
       <c r="F41" t="str">
-        <v>thermische reiniging</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
       </c>
       <c r="G41" t="str">
-        <v>Boring uitgevoerd voor het in situ reinigen van grond met gebruik van warmte.</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatieenergiebronnen</v>
       </c>
       <c r="H41" t="str">
-        <v>Thermische reiniging</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van energie bronnen.</v>
       </c>
       <c r="I41" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J41" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning</v>
+        <v>exploitatieenergiebronnen</v>
       </c>
       <c r="K41" t="str">
-        <v>null</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van energie bronnen.</v>
       </c>
       <c r="L41" t="str">
-        <v>null</v>
+        <v>Exploitatie energie bronnen</v>
       </c>
       <c r="M41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="N41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>null</v>
       </c>
       <c r="O41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+        <v>null</v>
       </c>
       <c r="P41" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
       </c>
       <c r="Q41" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling</v>
+      </c>
+      <c r="R41" t="str">
+        <v>null</v>
+      </c>
+      <c r="S41" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C42" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.waardebepalingkoolwaterstoffen</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="D42" t="str">
-        <v>Boring uitgevoerd voor het beoordelen van de kenmerken van een bewezen ophoping van koolwaterstoffen.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="E42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="F42" t="str">
-        <v>waardebepalingkoolwaterstoffen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonProduction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen</v>
       </c>
       <c r="G42" t="str">
-        <v>Boring uitgevoerd voor het beoordelen van de kenmerken van een bewezen ophoping van koolwaterstoffen.</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatiekoolwaterstoffen</v>
       </c>
       <c r="H42" t="str">
-        <v>Waardebepaling koolwaterstoffen</v>
+        <v>Boring uitgevoerd voor de productie van aardolie en/of gas.</v>
       </c>
       <c r="I42" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J42" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal</v>
+        <v>exploitatiekoolwaterstoffen</v>
       </c>
       <c r="K42" t="str">
-        <v>null</v>
+        <v>Boring uitgevoerd voor de productie van aardolie en/of gas.</v>
       </c>
       <c r="L42" t="str">
-        <v>null</v>
+        <v>Exploitatie koolwaterstoffen</v>
       </c>
       <c r="M42" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N42" t="str">
+        <v>null</v>
+      </c>
+      <c r="O42" t="str">
+        <v>null</v>
+      </c>
+      <c r="P42" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
-      <c r="N42" t="str">
+      <c r="Q42" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
-      <c r="O42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
-      </c>
-      <c r="P42" t="str">
-        <v>null</v>
-      </c>
-      <c r="Q42" t="str">
+      <c r="R42" t="str">
+        <v>null</v>
+      </c>
+      <c r="S42" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.watercultuur</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen</v>
       </c>
       <c r="D43" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van aquacultuur.</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen</v>
       </c>
       <c r="E43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen</v>
       </c>
       <c r="F43" t="str">
-        <v>watercultuur</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen</v>
       </c>
       <c r="G43" t="str">
-        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van aquacultuur.</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploitatiemineralebronnen</v>
       </c>
       <c r="H43" t="str">
-        <v>Watercultuur</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van minerale bronnen.</v>
       </c>
       <c r="I43" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="J43" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture</v>
+        <v>exploitatiemineralebronnen</v>
       </c>
       <c r="K43" t="str">
-        <v>null</v>
+        <v>Boring uitgevoerd voor de exploitatie of winning van minerale bronnen.</v>
       </c>
       <c r="L43" t="str">
-        <v>null</v>
+        <v>Exploitatie minerale bronnen</v>
       </c>
       <c r="M43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
       </c>
       <c r="N43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="O43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+        <v>null</v>
       </c>
       <c r="P43" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
       </c>
       <c r="Q43" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="R43" t="str">
+        <v>null</v>
+      </c>
+      <c r="S43" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie</v>
       </c>
       <c r="B44" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C44" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
+      </c>
+      <c r="D44" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
+      </c>
+      <c r="E44" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
+      </c>
+      <c r="F44" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
+      </c>
+      <c r="G44" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratiediepegeothermie</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van warmte voor gebruik in diepe geothermie.</v>
+      </c>
+      <c r="I44" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J44" t="str">
+        <v>exploratiediepegeothermie</v>
+      </c>
+      <c r="K44" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van warmte voor gebruik in diepe geothermie.</v>
+      </c>
+      <c r="L44" t="str">
+        <v>Exploratie diepe geothermie</v>
+      </c>
+      <c r="M44" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N44" t="str">
+        <v>null</v>
+      </c>
+      <c r="O44" t="str">
+        <v>null</v>
+      </c>
+      <c r="P44" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="R44" t="str">
+        <v>null</v>
+      </c>
+      <c r="S44" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
+      </c>
+      <c r="B45" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C45" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
+      </c>
+      <c r="D45" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
+      </c>
+      <c r="E45" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
+      </c>
+      <c r="F45" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationEnergyResources|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen</v>
+      </c>
+      <c r="G45" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratieenergiebronnen</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van energie bronnen.</v>
+      </c>
+      <c r="I45" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J45" t="str">
+        <v>exploratieenergiebronnen</v>
+      </c>
+      <c r="K45" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van energie bronnen.</v>
+      </c>
+      <c r="L45" t="str">
+        <v>Exploratie energie bronnen</v>
+      </c>
+      <c r="M45" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N45" t="str">
+        <v>null</v>
+      </c>
+      <c r="O45" t="str">
+        <v>null</v>
+      </c>
+      <c r="P45" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>null</v>
+      </c>
+      <c r="R45" t="str">
+        <v>null</v>
+      </c>
+      <c r="S45" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
+      </c>
+      <c r="B46" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C46" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
+      </c>
+      <c r="D46" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
+      </c>
+      <c r="E46" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
+      </c>
+      <c r="F46" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonExploration|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen</v>
+      </c>
+      <c r="G46" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratiekoolwaterstoffen</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Boring uitgevoerd voor de opsporing van koolwaterstoffen in een niet bewezen gebied.</v>
+      </c>
+      <c r="I46" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J46" t="str">
+        <v>exploratiekoolwaterstoffen</v>
+      </c>
+      <c r="K46" t="str">
+        <v>Boring uitgevoerd voor de opsporing van koolwaterstoffen in een niet bewezen gebied.</v>
+      </c>
+      <c r="L46" t="str">
+        <v>Exploratie koolwaterstoffen</v>
+      </c>
+      <c r="M46" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N46" t="str">
+        <v>null</v>
+      </c>
+      <c r="O46" t="str">
+        <v>null</v>
+      </c>
+      <c r="P46" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="R46" t="str">
+        <v>null</v>
+      </c>
+      <c r="S46" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
+      </c>
+      <c r="B47" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C47" t="str">
+        <v>null</v>
+      </c>
+      <c r="D47" t="str">
+        <v>null</v>
+      </c>
+      <c r="E47" t="str">
+        <v>null</v>
+      </c>
+      <c r="F47" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="G47" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratiemineralebronnen</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van minerale bronnen.</v>
+      </c>
+      <c r="I47" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J47" t="str">
+        <v>exploratiemineralebronnen</v>
+      </c>
+      <c r="K47" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de beschikbaarheid van minerale bronnen.|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mineralExplorationExtraction</v>
+      </c>
+      <c r="L47" t="str">
+        <v>Exploratie minerale bronnen</v>
+      </c>
+      <c r="M47" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N47" t="str">
+        <v>null</v>
+      </c>
+      <c r="O47" t="str">
+        <v>null</v>
+      </c>
+      <c r="P47" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="R47" t="str">
+        <v>null</v>
+      </c>
+      <c r="S47" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
+      </c>
+      <c r="B48" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C48" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
+      </c>
+      <c r="D48" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
+      </c>
+      <c r="E48" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
+      </c>
+      <c r="F48" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationNaturalUndergroundStorage|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag</v>
+      </c>
+      <c r="G48" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.exploratieondergrondseopslag</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan.</v>
+      </c>
+      <c r="I48" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J48" t="str">
+        <v>exploratieondergrondseopslag</v>
+      </c>
+      <c r="K48" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar het vermogen van de ondergrond om diverse materialen op te slaan.</v>
+      </c>
+      <c r="L48" t="str">
+        <v>Exploratie ondergrondse opslag</v>
+      </c>
+      <c r="M48" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N48" t="str">
+        <v>null</v>
+      </c>
+      <c r="O48" t="str">
+        <v>null</v>
+      </c>
+      <c r="P48" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>null</v>
+      </c>
+      <c r="R48" t="str">
+        <v>null</v>
+      </c>
+      <c r="S48" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
+      </c>
+      <c r="B49" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C49" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
+      </c>
+      <c r="D49" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
+      </c>
+      <c r="E49" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
+      </c>
+      <c r="F49" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geochemicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek</v>
+      </c>
+      <c r="G49" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geochemischonderzoek</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de geochemische eigenschappen van de (onder)grond en of van porositeitsvloeistoffen.</v>
+      </c>
+      <c r="I49" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J49" t="str">
+        <v>geochemischonderzoek</v>
+      </c>
+      <c r="K49" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de geochemische eigenschappen van de (onder)grond en of van porositeitsvloeistoffen.</v>
+      </c>
+      <c r="L49" t="str">
+        <v>Geochemisch onderzoek</v>
+      </c>
+      <c r="M49" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N49" t="str">
+        <v>null</v>
+      </c>
+      <c r="O49" t="str">
+        <v>null</v>
+      </c>
+      <c r="P49" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>null</v>
+      </c>
+      <c r="R49" t="str">
+        <v>null</v>
+      </c>
+      <c r="S49" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+      </c>
+      <c r="B50" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C50" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+      </c>
+      <c r="D50" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+      </c>
+      <c r="E50" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+      </c>
+      <c r="F50" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geophysicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="G50" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geofysischonderzoek</v>
+      </c>
+      <c r="H50" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de geofysische eigenschappen van de (onder)grond.</v>
+      </c>
+      <c r="I50" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J50" t="str">
+        <v>geofysischonderzoek</v>
+      </c>
+      <c r="K50" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de geofysische eigenschappen van de (onder)grond.</v>
+      </c>
+      <c r="L50" t="str">
+        <v>Geofysisch onderzoek</v>
+      </c>
+      <c r="M50" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N50" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="O50" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="P50" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>null</v>
+      </c>
+      <c r="R50" t="str">
+        <v>null</v>
+      </c>
+      <c r="S50" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
+      </c>
+      <c r="B51" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C51" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
+      </c>
+      <c r="D51" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
+      </c>
+      <c r="E51" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
+      </c>
+      <c r="F51" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek</v>
+      </c>
+      <c r="G51" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geologischonderzoek</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de geologische opbouw van de (onder)grond.</v>
+      </c>
+      <c r="I51" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J51" t="str">
+        <v>geologischonderzoek</v>
+      </c>
+      <c r="K51" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de geologische opbouw van de (onder)grond.</v>
+      </c>
+      <c r="L51" t="str">
+        <v>Geologisch onderzoek</v>
+      </c>
+      <c r="M51" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N51" t="str">
+        <v>null</v>
+      </c>
+      <c r="O51" t="str">
+        <v>null</v>
+      </c>
+      <c r="P51" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>null</v>
+      </c>
+      <c r="R51" t="str">
+        <v>null</v>
+      </c>
+      <c r="S51" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
+      </c>
+      <c r="B52" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C52" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
+      </c>
+      <c r="D52" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
+      </c>
+      <c r="E52" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
+      </c>
+      <c r="F52" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geotechnicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek</v>
+      </c>
+      <c r="G52" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geotechnischonderzoek</v>
+      </c>
+      <c r="H52" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de fysische en mechanische eigenschappen van de ondergrond gerelateerd aan bouw- en infrastructuurwerken.</v>
+      </c>
+      <c r="I52" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J52" t="str">
+        <v>geotechnischonderzoek</v>
+      </c>
+      <c r="K52" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar de fysische en mechanische eigenschappen van de ondergrond gerelateerd aan bouw- en infrastructuurwerken.</v>
+      </c>
+      <c r="L52" t="str">
+        <v>Geotechnisch onderzoek</v>
+      </c>
+      <c r="M52" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N52" t="str">
+        <v>null</v>
+      </c>
+      <c r="O52" t="str">
+        <v>null</v>
+      </c>
+      <c r="P52" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q52" t="str">
+        <v>null</v>
+      </c>
+      <c r="R52" t="str">
+        <v>null</v>
+      </c>
+      <c r="S52" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
+      </c>
+      <c r="B53" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C53" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
+      </c>
+      <c r="D53" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
+      </c>
+      <c r="E53" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
+      </c>
+      <c r="F53" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/geothermalEnergy|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie</v>
+      </c>
+      <c r="G53" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.geothermie</v>
+      </c>
+      <c r="H53" t="str">
+        <v>Boring uitgevoerd voor ondiepe geothemische energie opslag in een boorgat (BEO, bodemlus, BTES) of voor koude-warmteopslag (KWO, WKO, ATES).</v>
+      </c>
+      <c r="I53" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J53" t="str">
+        <v>geothermie</v>
+      </c>
+      <c r="K53" t="str">
+        <v>Boring uitgevoerd voor ondiepe geothemische energie opslag in een boorgat (BEO, bodemlus, BTES) of voor koude-warmteopslag (KWO, WKO, ATES).</v>
+      </c>
+      <c r="L53" t="str">
+        <v>Geothermie</v>
+      </c>
+      <c r="M53" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N53" t="str">
+        <v>null</v>
+      </c>
+      <c r="O53" t="str">
+        <v>null</v>
+      </c>
+      <c r="P53" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="R53" t="str">
+        <v>Ondiepe geothermie</v>
+      </c>
+      <c r="S53" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="B54" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C54" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="D54" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="E54" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="F54" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationRawMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
+      </c>
+      <c r="G54" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondstoffen</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Boring uitgevoerd voor de opsporing en ontginning van grondstoffen.</v>
+      </c>
+      <c r="I54" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J54" t="str">
+        <v>grondstoffen</v>
+      </c>
+      <c r="K54" t="str">
+        <v>Boring uitgevoerd voor de opsporing en ontginning van grondstoffen.</v>
+      </c>
+      <c r="L54" t="str">
+        <v>Opsporing en ontginning van grondstoffen</v>
+      </c>
+      <c r="M54" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N54" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
+      </c>
+      <c r="O54" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen</v>
+      </c>
+      <c r="P54" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>null</v>
+      </c>
+      <c r="R54" t="str">
+        <v>null</v>
+      </c>
+      <c r="S54" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondverzet</v>
+      </c>
+      <c r="B55" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C55" t="str">
+        <v>null</v>
+      </c>
+      <c r="D55" t="str">
+        <v>null</v>
+      </c>
+      <c r="E55" t="str">
+        <v>null</v>
+      </c>
+      <c r="F55" t="str">
+        <v>null</v>
+      </c>
+      <c r="G55" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondverzet</v>
+      </c>
+      <c r="H55" t="str">
+        <v>Boring uitgevoerd in het kader van grondverzet regelgeving.</v>
+      </c>
+      <c r="I55" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J55" t="str">
+        <v>grondverzet</v>
+      </c>
+      <c r="K55" t="str">
+        <v>Boring uitgevoerd in het kader van grondverzet regelgeving.</v>
+      </c>
+      <c r="L55" t="str">
+        <v>Grondverzet</v>
+      </c>
+      <c r="M55" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N55" t="str">
+        <v>null</v>
+      </c>
+      <c r="O55" t="str">
+        <v>null</v>
+      </c>
+      <c r="P55" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q55" t="str">
+        <v>null</v>
+      </c>
+      <c r="R55" t="str">
+        <v>null</v>
+      </c>
+      <c r="S55" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="B56" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C56" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="D56" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="E56" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="F56" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterQualityMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="G56" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="H56" t="str">
+        <v>Boring uitgevoerd voor de monitoring van de kwaliteit of chemische samenstelling van het grondwater.</v>
+      </c>
+      <c r="I56" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J56" t="str">
+        <v>grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="K56" t="str">
+        <v>Boring uitgevoerd voor de monitoring van de kwaliteit of chemische samenstelling van het grondwater.</v>
+      </c>
+      <c r="L56" t="str">
+        <v>Grondwaterkwaliteit monitoring</v>
+      </c>
+      <c r="M56" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N56" t="str">
+        <v>null</v>
+      </c>
+      <c r="O56" t="str">
+        <v>null</v>
+      </c>
+      <c r="P56" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="R56" t="str">
+        <v>null</v>
+      </c>
+      <c r="S56" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
+      </c>
+      <c r="B57" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C57" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
+      </c>
+      <c r="D57" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
+      </c>
+      <c r="E57" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
+      </c>
+      <c r="F57" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/groundwaterLevelMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring</v>
+      </c>
+      <c r="G57" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwaterkwantiteitmonitoring</v>
+      </c>
+      <c r="H57" t="str">
+        <v>Boring uitgevoerd voor de monitoring van de kwantiteit of het niveau van het grondwater.</v>
+      </c>
+      <c r="I57" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J57" t="str">
+        <v>grondwaterkwantiteitmonitoring</v>
+      </c>
+      <c r="K57" t="str">
+        <v>Boring uitgevoerd voor de monitoring van de kwantiteit of het niveau van het grondwater.</v>
+      </c>
+      <c r="L57" t="str">
+        <v>Grondwaterkwantiteit monitoring</v>
+      </c>
+      <c r="M57" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N57" t="str">
+        <v>null</v>
+      </c>
+      <c r="O57" t="str">
+        <v>null</v>
+      </c>
+      <c r="P57" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="Q57" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="R57" t="str">
+        <v>null</v>
+      </c>
+      <c r="S57" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="B58" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C58" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="D58" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="E58" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="F58" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/environmentalMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="G58" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwatermonitoring</v>
+      </c>
+      <c r="H58" t="str">
+        <v>Boring uitgevoerd voor de monitoring van de kwaliteit en/of kwantiteit van het grondwater.</v>
+      </c>
+      <c r="I58" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J58" t="str">
+        <v>grondwatermonitoring</v>
+      </c>
+      <c r="K58" t="str">
+        <v>Boring uitgevoerd voor de monitoring van de kwaliteit en/of kwantiteit van het grondwater.</v>
+      </c>
+      <c r="L58" t="str">
+        <v>Grondwatermonitoring</v>
+      </c>
+      <c r="M58" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N58" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="O58" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring</v>
+      </c>
+      <c r="P58" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>null</v>
+      </c>
+      <c r="R58" t="str">
+        <v>Milieumonitoring, Environmental monitoring</v>
+      </c>
+      <c r="S58" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="B59" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C59" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="D59" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="E59" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="F59" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/waterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="G59" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.grondwaterwinning</v>
+      </c>
+      <c r="H59" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van watervoorziening.</v>
+      </c>
+      <c r="I59" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J59" t="str">
+        <v>grondwaterwinning</v>
+      </c>
+      <c r="K59" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van watervoorziening.</v>
+      </c>
+      <c r="L59" t="str">
+        <v>Grondwaterwinning</v>
+      </c>
+      <c r="M59" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N59" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
+      </c>
+      <c r="O59" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
+      </c>
+      <c r="P59" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>null</v>
+      </c>
+      <c r="R59" t="str">
+        <v>null</v>
+      </c>
+      <c r="S59" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
+      </c>
+      <c r="B60" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C60" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
+      </c>
+      <c r="D60" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
+      </c>
+      <c r="E60" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
+      </c>
+      <c r="F60" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrogeologicalSurvey|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek</v>
+      </c>
+      <c r="G60" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.hydrogeologischonderzoek</v>
+      </c>
+      <c r="H60" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar grondwaterstroming, de chemische eigenschappen van grondwater, en transport van deeltjes, opgeloste stoffen en energie, evenals het management van het duurzame gebruik van grondwaterbronnen.</v>
+      </c>
+      <c r="I60" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J60" t="str">
+        <v>hydrogeologischonderzoek</v>
+      </c>
+      <c r="K60" t="str">
+        <v>Boring uitgevoerd voor onderzoek naar grondwaterstroming, de chemische eigenschappen van grondwater, en transport van deeltjes, opgeloste stoffen en energie, evenals het management van het duurzame gebruik van grondwaterbronnen.</v>
+      </c>
+      <c r="L60" t="str">
+        <v>Hydrogeologisch onderzoek</v>
+      </c>
+      <c r="M60" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N60" t="str">
+        <v>null</v>
+      </c>
+      <c r="O60" t="str">
+        <v>null</v>
+      </c>
+      <c r="P60" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>null</v>
+      </c>
+      <c r="R60" t="str">
+        <v>null</v>
+      </c>
+      <c r="S60" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
+      </c>
+      <c r="B61" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C61" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
+      </c>
+      <c r="D61" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
+      </c>
+      <c r="E61" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening</v>
+      </c>
+      <c r="F61" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/industrialWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="G61" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.industrielewatervoorziening</v>
+      </c>
+      <c r="H61" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van industriële watervoorziening.</v>
+      </c>
+      <c r="I61" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J61" t="str">
+        <v>industrielewatervoorziening</v>
+      </c>
+      <c r="K61" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van industriële watervoorziening.</v>
+      </c>
+      <c r="L61" t="str">
+        <v>Industriële watervoorziening</v>
+      </c>
+      <c r="M61" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N61" t="str">
+        <v>null</v>
+      </c>
+      <c r="O61" t="str">
+        <v>null</v>
+      </c>
+      <c r="P61" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="R61" t="str">
+        <v>null</v>
+      </c>
+      <c r="S61" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
+      </c>
+      <c r="B62" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C62" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
+      </c>
+      <c r="D62" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
+      </c>
+      <c r="E62" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
+      </c>
+      <c r="F62" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/recharge|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie</v>
+      </c>
+      <c r="G62" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.infiltratie</v>
+      </c>
+      <c r="H62" t="str">
+        <v>Boring uitgevoerd voor het kunstmatig aanvullen van grondwater door injectie uit diverse bronnen.</v>
+      </c>
+      <c r="I62" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J62" t="str">
+        <v>infiltratie</v>
+      </c>
+      <c r="K62" t="str">
+        <v>Boring uitgevoerd voor het kunstmatig aanvullen van grondwater door injectie uit diverse bronnen.</v>
+      </c>
+      <c r="L62" t="str">
+        <v>Infiltratie</v>
+      </c>
+      <c r="M62" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N62" t="str">
+        <v>null</v>
+      </c>
+      <c r="O62" t="str">
+        <v>null</v>
+      </c>
+      <c r="P62" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>null</v>
+      </c>
+      <c r="R62" t="str">
+        <v>null</v>
+      </c>
+      <c r="S62" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
+      </c>
+      <c r="B63" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C63" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
+      </c>
+      <c r="D63" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
+      </c>
+      <c r="E63" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie</v>
+      </c>
+      <c r="F63" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/irrigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="G63" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.irrigatie</v>
+      </c>
+      <c r="H63" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van irrigatie.</v>
+      </c>
+      <c r="I63" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J63" t="str">
+        <v>irrigatie</v>
+      </c>
+      <c r="K63" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van irrigatie.</v>
+      </c>
+      <c r="L63" t="str">
+        <v>Irrigatie</v>
+      </c>
+      <c r="M63" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N63" t="str">
+        <v>null</v>
+      </c>
+      <c r="O63" t="str">
+        <v>null</v>
+      </c>
+      <c r="P63" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="Q63" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="R63" t="str">
+        <v>null</v>
+      </c>
+      <c r="S63" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/kathodischebescherming</v>
+      </c>
+      <c r="B64" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C64" t="str">
+        <v>null</v>
+      </c>
+      <c r="D64" t="str">
+        <v>null</v>
+      </c>
+      <c r="E64" t="str">
+        <v>null</v>
+      </c>
+      <c r="F64" t="str">
+        <v>null</v>
+      </c>
+      <c r="G64" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.kathodischebescherming</v>
+      </c>
+      <c r="H64" t="str">
+        <v>Boring uitgevoerd voor kathodische bescherming.</v>
+      </c>
+      <c r="I64" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J64" t="str">
+        <v>kathodischebescherming</v>
+      </c>
+      <c r="K64" t="str">
+        <v>Boring uitgevoerd voor kathodische bescherming.</v>
+      </c>
+      <c r="L64" t="str">
+        <v>Kathodische bescherming</v>
+      </c>
+      <c r="M64" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N64" t="str">
+        <v>null</v>
+      </c>
+      <c r="O64" t="str">
+        <v>null</v>
+      </c>
+      <c r="P64" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q64" t="str">
+        <v>null</v>
+      </c>
+      <c r="R64" t="str">
+        <v>null</v>
+      </c>
+      <c r="S64" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen</v>
+      </c>
+      <c r="B65" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C65" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen</v>
+      </c>
+      <c r="D65" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen</v>
+      </c>
+      <c r="E65" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen</v>
+      </c>
+      <c r="F65" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/explorationExploitationNonmetallicMineralDeposits|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="G65" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.mineraleafzettingen</v>
+      </c>
+      <c r="H65" t="str">
+        <v>Boring uitgevoerd voor de opsporing van niet-metallische minerale afzettingen, voornamelijk ten behoeve van de bouw, en de natuursteen-, cement-, aardewerk- of glasindustrie.</v>
+      </c>
+      <c r="I65" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J65" t="str">
+        <v>mineraleafzettingen</v>
+      </c>
+      <c r="K65" t="str">
+        <v>Boring uitgevoerd voor de opsporing van niet-metallische minerale afzettingen, voornamelijk ten behoeve van de bouw, en de natuursteen-, cement-, aardewerk- of glasindustrie.</v>
+      </c>
+      <c r="L65" t="str">
+        <v>Exploratie en exploitatie van niet-metallische minerale afzettingen</v>
+      </c>
+      <c r="M65" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N65" t="str">
+        <v>null</v>
+      </c>
+      <c r="O65" t="str">
+        <v>null</v>
+      </c>
+      <c r="P65" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="Q65" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="R65" t="str">
+        <v>null</v>
+      </c>
+      <c r="S65" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie</v>
+      </c>
+      <c r="B66" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C66" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie</v>
+      </c>
+      <c r="D66" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie</v>
+      </c>
+      <c r="E66" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie</v>
+      </c>
+      <c r="F66" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/mitigation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="G66" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.mitigatie</v>
+      </c>
+      <c r="H66" t="str">
+        <v>Boring uitgevoerd voor het verlagen van het grondwaterniveau om te voorkomen dat het grondwater vervuilde plaatsen bereikt.</v>
+      </c>
+      <c r="I66" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J66" t="str">
+        <v>mitigatie</v>
+      </c>
+      <c r="K66" t="str">
+        <v>Boring uitgevoerd voor het verlagen van het grondwaterniveau om te voorkomen dat het grondwater vervuilde plaatsen bereikt.</v>
+      </c>
+      <c r="L66" t="str">
+        <v>Mitigatie</v>
+      </c>
+      <c r="M66" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N66" t="str">
+        <v>null</v>
+      </c>
+      <c r="O66" t="str">
+        <v>null</v>
+      </c>
+      <c r="P66" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="Q66" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="R66" t="str">
+        <v>null</v>
+      </c>
+      <c r="S66" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+      </c>
+      <c r="B67" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C67" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+      </c>
+      <c r="D67" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+      </c>
+      <c r="E67" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+      </c>
+      <c r="F67" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pollutionMonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites</v>
+      </c>
+      <c r="G67" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.monitoringvervuildesites</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Boring uitgevoerd in het kader van een bodemonderzoek en/of in het kader van bodemdecreet regelgeving.</v>
+      </c>
+      <c r="I67" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J67" t="str">
+        <v>monitoringvervuildesites</v>
+      </c>
+      <c r="K67" t="str">
+        <v>Boring uitgevoerd in het kader van een bodemonderzoek en/of in het kader van bodemdecreet regelgeving.</v>
+      </c>
+      <c r="L67" t="str">
+        <v>Monitoring vervuilde sites</v>
+      </c>
+      <c r="M67" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N67" t="str">
+        <v>null</v>
+      </c>
+      <c r="O67" t="str">
+        <v>null</v>
+      </c>
+      <c r="P67" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="Q67" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring</v>
+      </c>
+      <c r="R67" t="str">
+        <v>null</v>
+      </c>
+      <c r="S67" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
+      </c>
+      <c r="B68" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C68" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
+      </c>
+      <c r="D68" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
+      </c>
+      <c r="E68" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening</v>
+      </c>
+      <c r="F68" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/emergencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="G68" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.noodwatervoorziening</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van noodwatervoorziening.</v>
+      </c>
+      <c r="I68" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J68" t="str">
+        <v>noodwatervoorziening</v>
+      </c>
+      <c r="K68" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van noodwatervoorziening.</v>
+      </c>
+      <c r="L68" t="str">
+        <v>Noodwatervoorziening</v>
+      </c>
+      <c r="M68" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N68" t="str">
+        <v>null</v>
+      </c>
+      <c r="O68" t="str">
+        <v>null</v>
+      </c>
+      <c r="P68" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="Q68" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="R68" t="str">
+        <v>null</v>
+      </c>
+      <c r="S68" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/opvullenboorgatput</v>
+      </c>
+      <c r="B69" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C69" t="str">
+        <v>null</v>
+      </c>
+      <c r="D69" t="str">
+        <v>null</v>
+      </c>
+      <c r="E69" t="str">
+        <v>null</v>
+      </c>
+      <c r="F69" t="str">
+        <v>null</v>
+      </c>
+      <c r="G69" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.opvullenboorgatput</v>
+      </c>
+      <c r="H69" t="str">
+        <v>Boring uitgevoerd voor het opvullen van een boorgat of een grondwaterwinning.</v>
+      </c>
+      <c r="I69" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J69" t="str">
+        <v>opvullenboorgatput</v>
+      </c>
+      <c r="K69" t="str">
+        <v>Boring uitgevoerd voor het opvullen van een boorgat of een grondwaterwinning.</v>
+      </c>
+      <c r="L69" t="str">
+        <v>Opvullen van een boring of een grondwaterwinning</v>
+      </c>
+      <c r="M69" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N69" t="str">
+        <v>null</v>
+      </c>
+      <c r="O69" t="str">
+        <v>null</v>
+      </c>
+      <c r="P69" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>null</v>
+      </c>
+      <c r="R69" t="str">
+        <v>null</v>
+      </c>
+      <c r="S69" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
+      </c>
+      <c r="B70" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C70" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
+      </c>
+      <c r="D70" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
+      </c>
+      <c r="E70" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening</v>
+      </c>
+      <c r="F70" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/contingencyWaterSupply|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="G70" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.reservewatervoorziening</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van reservewatervoorziening.</v>
+      </c>
+      <c r="I70" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J70" t="str">
+        <v>reservewatervoorziening</v>
+      </c>
+      <c r="K70" t="str">
+        <v>Boring uitgevoerd voor constructie van bronnen ten behoeve van reservewatervoorziening.</v>
+      </c>
+      <c r="L70" t="str">
+        <v>Reservewatervoorziening</v>
+      </c>
+      <c r="M70" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N70" t="str">
+        <v>null</v>
+      </c>
+      <c r="O70" t="str">
+        <v>null</v>
+      </c>
+      <c r="P70" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="Q70" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="R70" t="str">
+        <v>null</v>
+      </c>
+      <c r="S70" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="B71" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C71" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="D71" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="E71" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="F71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/remediation|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="G71" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.sanering</v>
+      </c>
+      <c r="H71" t="str">
+        <v>Boring uitgevoerd voor sanering in het algemeen: het verwijderen van vervuiling of verontreiniging uit grondwater, grond en ander gesteente.</v>
+      </c>
+      <c r="I71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J71" t="str">
+        <v>sanering</v>
+      </c>
+      <c r="K71" t="str">
+        <v>Boring uitgevoerd voor sanering in het algemeen: het verwijderen van vervuiling of verontreiniging uit grondwater, grond en ander gesteente.</v>
+      </c>
+      <c r="L71" t="str">
+        <v>Sanering</v>
+      </c>
+      <c r="M71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="O71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="P71" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q71" t="str">
+        <v>null</v>
+      </c>
+      <c r="R71" t="str">
+        <v>null</v>
+      </c>
+      <c r="S71" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="B72" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C72" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="D72" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="E72" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="F72" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/shotHole|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="G72" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.schietgat</v>
+      </c>
+      <c r="H72" t="str">
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij explosieven in schietgaten worden gestopt</v>
+      </c>
+      <c r="I72" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J72" t="str">
+        <v>schietgat</v>
+      </c>
+      <c r="K72" t="str">
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij explosieven in schietgaten worden gestopt</v>
+      </c>
+      <c r="L72" t="str">
+        <v>Schietgat</v>
+      </c>
+      <c r="M72" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N72" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+      </c>
+      <c r="O72" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+      </c>
+      <c r="P72" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+      </c>
+      <c r="Q72" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek</v>
+      </c>
+      <c r="R72" t="str">
+        <v>null</v>
+      </c>
+      <c r="S72" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+      </c>
+      <c r="B73" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C73" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+      </c>
+      <c r="D73" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+      </c>
+      <c r="E73" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat</v>
+      </c>
+      <c r="F73" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/flowingShot|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="G73" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.stromendschietgat</v>
+      </c>
+      <c r="H73" t="str">
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij het boorgat een ondergrondse waterbron heeft geraakt die voldoende druk heeft om het gat te laten overstromen.</v>
+      </c>
+      <c r="I73" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J73" t="str">
+        <v>stromendschietgat</v>
+      </c>
+      <c r="K73" t="str">
+        <v>Boring uitgevoerd voor seismisch onderzoek waarbij het boorgat een ondergrondse waterbron heeft geraakt die voldoende druk heeft om het gat te laten overstromen.</v>
+      </c>
+      <c r="L73" t="str">
+        <v>Stromend schietgat</v>
+      </c>
+      <c r="M73" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N73" t="str">
+        <v>null</v>
+      </c>
+      <c r="O73" t="str">
+        <v>null</v>
+      </c>
+      <c r="P73" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="Q73" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat</v>
+      </c>
+      <c r="R73" t="str">
+        <v>null</v>
+      </c>
+      <c r="S73" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="B74" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C74" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="D74" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="E74" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="F74" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/thermalCleaning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      </c>
+      <c r="G74" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.thermischereiniging</v>
+      </c>
+      <c r="H74" t="str">
+        <v>Boring uitgevoerd voor het in situ reinigen van grond met gebruik van warmte.</v>
+      </c>
+      <c r="I74" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J74" t="str">
+        <v>thermische reiniging</v>
+      </c>
+      <c r="K74" t="str">
+        <v>Boring uitgevoerd voor het in situ reinigen van grond met gebruik van warmte.</v>
+      </c>
+      <c r="L74" t="str">
+        <v>Thermische reiniging</v>
+      </c>
+      <c r="M74" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N74" t="str">
+        <v>null</v>
+      </c>
+      <c r="O74" t="str">
+        <v>null</v>
+      </c>
+      <c r="P74" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="Q74" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering</v>
+      </c>
+      <c r="R74" t="str">
+        <v>null</v>
+      </c>
+      <c r="S74" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="B75" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C75" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="D75" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="E75" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="F75" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/hydrocarbonAppraisal|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="G75" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="H75" t="str">
+        <v>Boring uitgevoerd voor het beoordelen van de kenmerken van een bewezen ophoping van koolwaterstoffen.</v>
+      </c>
+      <c r="I75" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J75" t="str">
+        <v>waardebepalingkoolwaterstoffen</v>
+      </c>
+      <c r="K75" t="str">
+        <v>Boring uitgevoerd voor het beoordelen van de kenmerken van een bewezen ophoping van koolwaterstoffen.</v>
+      </c>
+      <c r="L75" t="str">
+        <v>Waardebepaling koolwaterstoffen</v>
+      </c>
+      <c r="M75" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N75" t="str">
+        <v>null</v>
+      </c>
+      <c r="O75" t="str">
+        <v>null</v>
+      </c>
+      <c r="P75" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="Q75" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen</v>
+      </c>
+      <c r="R75" t="str">
+        <v>null</v>
+      </c>
+      <c r="S75" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+      </c>
+      <c r="B76" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C76" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+      </c>
+      <c r="D76" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+      </c>
+      <c r="E76" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur</v>
+      </c>
+      <c r="F76" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/aquaculture|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="G76" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.doelboringtype.watercultuur</v>
+      </c>
+      <c r="H76" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van aquacultuur.</v>
+      </c>
+      <c r="I76" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="J76" t="str">
+        <v>watercultuur</v>
+      </c>
+      <c r="K76" t="str">
+        <v>Boring uitgevoerd voor winning van grondwater ten behoeve van aquacultuur.</v>
+      </c>
+      <c r="L76" t="str">
+        <v>Watercultuur</v>
+      </c>
+      <c r="M76" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="N76" t="str">
+        <v>null</v>
+      </c>
+      <c r="O76" t="str">
+        <v>null</v>
+      </c>
+      <c r="P76" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="Q76" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning</v>
+      </c>
+      <c r="R76" t="str">
+        <v>null</v>
+      </c>
+      <c r="S76" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/doelboringtype</v>
+      </c>
+      <c r="B77" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C77" t="str">
+        <v>null</v>
+      </c>
+      <c r="D77" t="str">
+        <v>null</v>
+      </c>
+      <c r="E77" t="str">
+        <v>null</v>
+      </c>
+      <c r="F77" t="str">
+        <v>null</v>
+      </c>
+      <c r="G77" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.doelboringtype</v>
       </c>
-      <c r="D44" t="str">
+      <c r="H77" t="str">
         <v>Beschrijving van het doel waarvoor de boring is uitgevoerd.</v>
       </c>
-      <c r="E44" t="str">
-        <v>null</v>
-      </c>
-      <c r="F44" t="str">
+      <c r="I77" t="str">
+        <v>null</v>
+      </c>
+      <c r="J77" t="str">
         <v>doelboringtype</v>
       </c>
-      <c r="G44" t="str">
+      <c r="K77" t="str">
         <v>Beschrijving van het doel waarvoor de boring is uitgevoerd.</v>
       </c>
-      <c r="H44" t="str">
+      <c r="L77" t="str">
         <v>Codelijst doelboringtype.</v>
       </c>
-      <c r="I44" t="str">
-        <v>null</v>
-      </c>
-      <c r="J44" t="str">
-        <v>null</v>
-      </c>
-      <c r="K44" t="str">
-        <v>null</v>
-      </c>
-      <c r="L44" t="str">
-        <v>null</v>
-      </c>
-      <c r="M44" t="str">
-        <v>null</v>
-      </c>
-      <c r="N44" t="str">
-        <v>null</v>
-      </c>
-      <c r="O44" t="str">
-        <v>null</v>
-      </c>
-      <c r="P44" t="str">
-        <v>null</v>
-      </c>
-      <c r="Q44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/archeologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondverzet|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/kathodischebescherming|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/opvullenboorgatput|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging</v>
+      <c r="M77" t="str">
+        <v>null</v>
+      </c>
+      <c r="N77" t="str">
+        <v>null</v>
+      </c>
+      <c r="O77" t="str">
+        <v>null</v>
+      </c>
+      <c r="P77" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q77" t="str">
+        <v>null</v>
+      </c>
+      <c r="R77" t="str">
+        <v>null</v>
+      </c>
+      <c r="S77" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/watercultuur|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/reservewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drainagebemaling|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/drinkwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/noodwatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwatermonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieenergiebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mineraleafzettingen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/berging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratieondergrondseopslag|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/stromendschietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geochemischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geofysischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geotechnischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiediepegeothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/geothermie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwantiteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/waardebepalingkoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiekoolwaterstoffen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/hydrogeologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/industrielewatervoorziening|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/irrigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploitatiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/mitigatie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/bodemkundigonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/monitoringvervuildesites|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/infiltratie|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/sanering|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/schietgat|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/thermischereiniging|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterkwaliteitmonitoring|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondwaterwinning|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/archeologischonderzoek|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/exploratiemineralebronnen|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/grondverzet|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/kathodischebescherming|https://data.bodemenondergrond.vlaanderen.be/id/concept/doelboringtype/opvullenboorgatput</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q44"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S77"/>
   </ignoredErrors>
 </worksheet>
 </file>